--- a/exp2/case01/report/motivation/pressure-tension/MeasurementModel.xlsx
+++ b/exp2/case01/report/motivation/pressure-tension/MeasurementModel.xlsx
@@ -2358,13 +2358,13 @@
     </row>
     <row r="11">
       <c r="A11" t="n" s="56">
-        <v>0.09410550135282918</v>
+        <v>0.09410550135282922</v>
       </c>
       <c r="B11" t="n" s="57">
-        <v>0.2246333807394668</v>
+        <v>0.2246333807394664</v>
       </c>
       <c r="C11" t="n" s="58">
-        <v>0.6315814145456394</v>
+        <v>0.6315814145456431</v>
       </c>
     </row>
     <row r="12">
@@ -2395,7 +2395,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n" s="77">
-        <v>33.40049066820487</v>
+        <v>33.400490668204846</v>
       </c>
       <c r="B16" t="n" s="78">
         <v>6.0</v>
@@ -2432,13 +2432,13 @@
     </row>
     <row r="21">
       <c r="A21" t="n" s="98">
-        <v>13.784579162586505</v>
+        <v>13.784579162586402</v>
       </c>
       <c r="B21" t="n" s="99">
-        <v>0.09305294177977258</v>
+        <v>0.09305294177977202</v>
       </c>
       <c r="C21" t="n" s="100">
-        <v>0.1221493820030646</v>
+        <v>0.12214938200306394</v>
       </c>
     </row>
     <row r="22">
@@ -2499,10 +2499,10 @@
         <v>28.0</v>
       </c>
       <c r="F26" t="n" s="124">
-        <v>33.40049066820487</v>
+        <v>33.400490668204846</v>
       </c>
       <c r="G26" t="n" s="125">
-        <v>0.22131044151948664</v>
+        <v>0.22131044151948764</v>
       </c>
       <c r="H26" t="n" s="126">
         <v>1.0</v>
@@ -2525,10 +2525,10 @@
         <v>35.0</v>
       </c>
       <c r="F27" t="n" s="124">
-        <v>26.732651734677148</v>
+        <v>26.73265173467717</v>
       </c>
       <c r="G27" t="n" s="125">
-        <v>0.8406995622686497</v>
+        <v>0.8406995622686483</v>
       </c>
       <c r="H27" t="n" s="126">
         <v>1.0</v>
@@ -2551,10 +2551,10 @@
         <v>28.0</v>
       </c>
       <c r="F28" t="n" s="124">
-        <v>19.30224221901096</v>
+        <v>19.302242219010953</v>
       </c>
       <c r="G28" t="n" s="125">
-        <v>0.8885516247769204</v>
+        <v>0.8885516247769205</v>
       </c>
       <c r="H28" t="n" s="126">
         <v>1.0</v>
@@ -2577,7 +2577,7 @@
         <v>20.0</v>
       </c>
       <c r="F29" t="n" s="124">
-        <v>10.143704685515527</v>
+        <v>10.143704685515534</v>
       </c>
       <c r="G29" t="n" s="125">
         <v>0.9654906645116519</v>
@@ -2603,10 +2603,10 @@
         <v>16.0</v>
       </c>
       <c r="F30" t="n" s="124">
-        <v>11.887375733218333</v>
+        <v>11.887375733218315</v>
       </c>
       <c r="G30" t="n" s="125">
-        <v>0.7516955817684929</v>
+        <v>0.751695581768494</v>
       </c>
       <c r="H30" t="n" s="126">
         <v>1.0</v>
@@ -2629,10 +2629,10 @@
         <v>20.0</v>
       </c>
       <c r="F31" t="n" s="124">
-        <v>13.002674763337602</v>
+        <v>13.002674763337597</v>
       </c>
       <c r="G31" t="n" s="125">
-        <v>0.877269257696616</v>
+        <v>0.8772692576966163</v>
       </c>
       <c r="H31" t="n" s="126">
         <v>1.0</v>
@@ -2669,16 +2669,16 @@
     </row>
     <row r="36">
       <c r="A36" t="n" s="145">
-        <v>-1.3117148730995618</v>
+        <v>-1.3117148730995631</v>
       </c>
       <c r="B36" t="n" s="146">
         <v>-0.4481815243568448</v>
       </c>
       <c r="C36" t="n" s="147">
-        <v>1.8655216278433917</v>
+        <v>1.8655216278433921</v>
       </c>
       <c r="D36" t="n" s="148">
-        <v>0.4026171560180658</v>
+        <v>0.4026171560180667</v>
       </c>
     </row>
     <row r="37">
@@ -2686,10 +2686,10 @@
         <v>-0.24435324076083886</v>
       </c>
       <c r="B37" t="n" s="146">
-        <v>-0.10698134589963915</v>
+        <v>-0.10698134589963892</v>
       </c>
       <c r="C37" t="n" s="147">
-        <v>-0.26670929698906587</v>
+        <v>-0.26670929698906565</v>
       </c>
       <c r="D37" t="n" s="148">
         <v>-0.14209845115459396</v>
@@ -2697,16 +2697,16 @@
     </row>
     <row r="38">
       <c r="A38" t="n" s="145">
-        <v>0.5709069028720539</v>
+        <v>0.5709069028720535</v>
       </c>
       <c r="B38" t="n" s="146">
-        <v>-0.17716724817341523</v>
+        <v>-0.177167248173415</v>
       </c>
       <c r="C38" t="n" s="147">
-        <v>-0.45121244520152826</v>
+        <v>-0.4512124452015276</v>
       </c>
       <c r="D38" t="n" s="148">
-        <v>-0.23652688078138273</v>
+        <v>-0.23652688078138207</v>
       </c>
     </row>
     <row r="39">
@@ -2714,10 +2714,10 @@
         <v>-0.24435324076083886</v>
       </c>
       <c r="B39" t="n" s="146">
-        <v>-0.10698134589963915</v>
+        <v>-0.10698134589963892</v>
       </c>
       <c r="C39" t="n" s="147">
-        <v>-0.26670929698906587</v>
+        <v>-0.26670929698906565</v>
       </c>
       <c r="D39" t="n" s="148">
         <v>-0.14209845115459396</v>
@@ -2725,16 +2725,16 @@
     </row>
     <row r="40">
       <c r="A40" t="n" s="145">
-        <v>0.5709069028720539</v>
+        <v>0.5709069028720535</v>
       </c>
       <c r="B40" t="n" s="146">
-        <v>-0.17716724817341523</v>
+        <v>-0.177167248173415</v>
       </c>
       <c r="C40" t="n" s="147">
-        <v>-0.45121244520152826</v>
+        <v>-0.4512124452015276</v>
       </c>
       <c r="D40" t="n" s="148">
-        <v>-0.23652688078138273</v>
+        <v>-0.23652688078138207</v>
       </c>
     </row>
     <row r="41">
@@ -2742,10 +2742,10 @@
         <v>-0.24435324076083886</v>
       </c>
       <c r="B41" t="n" s="146">
-        <v>-0.10698134589963915</v>
+        <v>-0.10698134589963892</v>
       </c>
       <c r="C41" t="n" s="147">
-        <v>-0.26670929698906587</v>
+        <v>-0.26670929698906565</v>
       </c>
       <c r="D41" t="n" s="148">
         <v>-0.14209845115459396</v>
@@ -2753,44 +2753,44 @@
     </row>
     <row r="42">
       <c r="A42" t="n" s="145">
-        <v>0.5144129893630707</v>
+        <v>0.5144129893630693</v>
       </c>
       <c r="B42" t="n" s="146">
         <v>0.24091073220764003</v>
       </c>
       <c r="C42" t="n" s="147">
-        <v>0.21909892883764037</v>
+        <v>0.21909892883764082</v>
       </c>
       <c r="D42" t="n" s="148">
-        <v>0.011628830335074891</v>
+        <v>0.011628830335076445</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n" s="145">
-        <v>0.307204075604135</v>
+        <v>0.3072040756041341</v>
       </c>
       <c r="B43" t="n" s="146">
         <v>-0.5497854814253438</v>
       </c>
       <c r="C43" t="n" s="147">
-        <v>1.635339981693654</v>
+        <v>1.6353399816936545</v>
       </c>
       <c r="D43" t="n" s="148">
-        <v>-0.7287610214023954</v>
+        <v>-0.7287610214023941</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n" s="145">
-        <v>-0.3117148730995618</v>
+        <v>-0.3117148730995636</v>
       </c>
       <c r="B44" t="n" s="146">
-        <v>0.5518184756431552</v>
+        <v>0.5518184756431554</v>
       </c>
       <c r="C44" t="n" s="147">
-        <v>-0.13447837215660785</v>
+        <v>-0.1344783721566074</v>
       </c>
       <c r="D44" t="n" s="148">
-        <v>0.4026171560180658</v>
+        <v>0.4026171560180667</v>
       </c>
     </row>
     <row r="45">
@@ -2798,10 +2798,10 @@
         <v>-0.24435324076083886</v>
       </c>
       <c r="B45" t="n" s="146">
-        <v>-0.10698134589963915</v>
+        <v>-0.10698134589963892</v>
       </c>
       <c r="C45" t="n" s="147">
-        <v>-0.26670929698906587</v>
+        <v>-0.26670929698906565</v>
       </c>
       <c r="D45" t="n" s="148">
         <v>-0.14209845115459396</v>
@@ -2809,114 +2809,114 @@
     </row>
     <row r="46">
       <c r="A46" t="n" s="145">
-        <v>-0.48558701063692844</v>
+        <v>-0.485587010636932</v>
       </c>
       <c r="B46" t="n" s="146">
         <v>0.24091073220764003</v>
       </c>
       <c r="C46" t="n" s="147">
-        <v>0.21909892883764037</v>
+        <v>0.21909892883764082</v>
       </c>
       <c r="D46" t="n" s="148">
-        <v>1.0116288303350751</v>
+        <v>1.0116288303350762</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n" s="145">
-        <v>1.3072040756041359</v>
+        <v>1.307204075604134</v>
       </c>
       <c r="B47" t="n" s="146">
-        <v>-0.5497854814253436</v>
+        <v>-0.549785481425344</v>
       </c>
       <c r="C47" t="n" s="147">
         <v>0.635339981693654</v>
       </c>
       <c r="D47" t="n" s="148">
-        <v>-0.728761021402395</v>
+        <v>-0.7287610214023943</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n" s="145">
-        <v>-0.6927959243958646</v>
+        <v>-0.6927959243958663</v>
       </c>
       <c r="B48" t="n" s="146">
-        <v>0.4502145185746562</v>
+        <v>0.450214518574656</v>
       </c>
       <c r="C48" t="n" s="147">
-        <v>-0.364660018306346</v>
+        <v>-0.3646600183063464</v>
       </c>
       <c r="D48" t="n" s="148">
-        <v>1.2712389785976046</v>
+        <v>1.2712389785976057</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n" s="145">
-        <v>0.10720544222648654</v>
+        <v>0.10720544222648387</v>
       </c>
       <c r="B49" t="n" s="146">
-        <v>-0.8721787976757245</v>
+        <v>-0.872178797675724</v>
       </c>
       <c r="C49" t="n" s="147">
-        <v>1.0309434056099098</v>
+        <v>1.0309434056099107</v>
       </c>
       <c r="D49" t="n" s="148">
-        <v>0.8791638282334331</v>
+        <v>0.8791638282334353</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n" s="145">
-        <v>2.231638695320334</v>
+        <v>2.231638695320333</v>
       </c>
       <c r="B50" t="n" s="146">
-        <v>-1.1400185219072378</v>
+        <v>-1.1400185219072365</v>
       </c>
       <c r="C50" t="n" s="147">
-        <v>1.6552638042810845</v>
+        <v>1.6552638042810863</v>
       </c>
       <c r="D50" t="n" s="148">
-        <v>-1.4173287295405284</v>
+        <v>-1.4173287295405252</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n" s="145">
-        <v>0.32880320010250497</v>
+        <v>0.3288032001025052</v>
       </c>
       <c r="B51" t="n" s="146">
-        <v>0.7400375113415036</v>
+        <v>0.7400375113415034</v>
       </c>
       <c r="C51" t="n" s="147">
-        <v>-0.6682530849315349</v>
+        <v>-0.6682530849315347</v>
       </c>
       <c r="D51" t="n" s="148">
-        <v>-0.3478860251078413</v>
+        <v>-0.3478860251078406</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n" s="145">
-        <v>-1.7683613046796651</v>
+        <v>-1.7683613046796687</v>
       </c>
       <c r="B52" t="n" s="146">
-        <v>1.8599814780927626</v>
+        <v>1.859981478092763</v>
       </c>
       <c r="C52" t="n" s="147">
-        <v>1.6552638042810854</v>
+        <v>1.655263804281085</v>
       </c>
       <c r="D52" t="n" s="148">
-        <v>-0.4173287295405279</v>
+        <v>-0.41732872954052613</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n" s="145">
-        <v>0.03312749559977912</v>
+        <v>0.033127495599779344</v>
       </c>
       <c r="B53" t="n" s="146">
         <v>-0.35098538343619423</v>
       </c>
       <c r="C53" t="n" s="147">
-        <v>0.10028763368358207</v>
+        <v>0.10028763368358273</v>
       </c>
       <c r="D53" t="n" s="148">
-        <v>0.5306112782097083</v>
+        <v>0.5306112782097092</v>
       </c>
     </row>
     <row r="54">
@@ -2924,13 +2924,13 @@
         <v>-0.4290930971279463</v>
       </c>
       <c r="B54" t="n" s="146">
-        <v>-0.17716724817341523</v>
+        <v>-0.17716724817341478</v>
       </c>
       <c r="C54" t="n" s="147">
-        <v>0.548787554798472</v>
+        <v>0.5487875547984726</v>
       </c>
       <c r="D54" t="n" s="148">
-        <v>-0.2365268807813825</v>
+        <v>-0.23652688078138184</v>
       </c>
     </row>
     <row r="55">
@@ -2938,10 +2938,10 @@
         <v>-0.24435324076083886</v>
       </c>
       <c r="B55" t="n" s="146">
-        <v>-0.10698134589963915</v>
+        <v>-0.10698134589963892</v>
       </c>
       <c r="C55" t="n" s="147">
-        <v>-0.26670929698906587</v>
+        <v>-0.26670929698906565</v>
       </c>
       <c r="D55" t="n" s="148">
         <v>-0.14209845115459396</v>
@@ -2949,16 +2949,16 @@
     </row>
     <row r="56">
       <c r="A56" t="n" s="145">
-        <v>0.5709069028720539</v>
+        <v>0.5709069028720535</v>
       </c>
       <c r="B56" t="n" s="146">
-        <v>-0.17716724817341523</v>
+        <v>-0.177167248173415</v>
       </c>
       <c r="C56" t="n" s="147">
-        <v>-0.45121244520152826</v>
+        <v>-0.4512124452015276</v>
       </c>
       <c r="D56" t="n" s="148">
-        <v>-0.23652688078138273</v>
+        <v>-0.23652688078138207</v>
       </c>
     </row>
     <row r="57">
@@ -2966,10 +2966,10 @@
         <v>-0.24435324076083886</v>
       </c>
       <c r="B57" t="n" s="146">
-        <v>-0.10698134589963915</v>
+        <v>-0.10698134589963892</v>
       </c>
       <c r="C57" t="n" s="147">
-        <v>-0.26670929698906587</v>
+        <v>-0.26670929698906565</v>
       </c>
       <c r="D57" t="n" s="148">
         <v>-0.14209845115459396</v>
@@ -2980,10 +2980,10 @@
         <v>-0.24435324076083886</v>
       </c>
       <c r="B58" t="n" s="146">
-        <v>-0.10698134589963915</v>
+        <v>-0.10698134589963892</v>
       </c>
       <c r="C58" t="n" s="147">
-        <v>-0.26670929698906587</v>
+        <v>-0.26670929698906565</v>
       </c>
       <c r="D58" t="n" s="148">
         <v>-0.14209845115459396</v>
@@ -2994,10 +2994,10 @@
         <v>-0.24435324076083886</v>
       </c>
       <c r="B59" t="n" s="146">
-        <v>-0.10698134589963915</v>
+        <v>-0.10698134589963892</v>
       </c>
       <c r="C59" t="n" s="147">
-        <v>-0.26670929698906587</v>
+        <v>-0.26670929698906565</v>
       </c>
       <c r="D59" t="n" s="148">
         <v>-0.14209845115459396</v>
@@ -3008,10 +3008,10 @@
         <v>-0.24435324076083886</v>
       </c>
       <c r="B60" t="n" s="146">
-        <v>-0.10698134589963915</v>
+        <v>-0.10698134589963892</v>
       </c>
       <c r="C60" t="n" s="147">
-        <v>-0.26670929698906587</v>
+        <v>-0.26670929698906565</v>
       </c>
       <c r="D60" t="n" s="148">
         <v>-0.14209845115459396</v>
@@ -3019,16 +3019,16 @@
     </row>
     <row r="61">
       <c r="A61" t="n" s="145">
-        <v>2.514412989363071</v>
+        <v>2.5144129893630685</v>
       </c>
       <c r="B61" t="n" s="146">
-        <v>1.2409107322076405</v>
+        <v>1.2409107322076398</v>
       </c>
       <c r="C61" t="n" s="147">
-        <v>-1.78090107116236</v>
+        <v>-1.7809010711623592</v>
       </c>
       <c r="D61" t="n" s="148">
-        <v>-0.9883711696649253</v>
+        <v>-0.988371169664924</v>
       </c>
     </row>
     <row r="62">
@@ -3036,10 +3036,10 @@
         <v>-0.24435324076083886</v>
       </c>
       <c r="B62" t="n" s="146">
-        <v>-0.10698134589963915</v>
+        <v>-0.10698134589963892</v>
       </c>
       <c r="C62" t="n" s="147">
-        <v>-0.26670929698906587</v>
+        <v>-0.26670929698906565</v>
       </c>
       <c r="D62" t="n" s="148">
         <v>-0.14209845115459396</v>
@@ -3047,16 +3047,16 @@
     </row>
     <row r="63">
       <c r="A63" t="n" s="145">
-        <v>-0.31171487309956136</v>
+        <v>-0.311714873099564</v>
       </c>
       <c r="B63" t="n" s="146">
-        <v>1.5518184756431552</v>
+        <v>1.551818475643155</v>
       </c>
       <c r="C63" t="n" s="147">
-        <v>-0.13447837215660785</v>
+        <v>-0.1344783721566083</v>
       </c>
       <c r="D63" t="n" s="148">
-        <v>-0.597382843981934</v>
+        <v>-0.5973828439819331</v>
       </c>
     </row>
     <row r="64">
@@ -3064,13 +3064,13 @@
         <v>-0.4290930971279463</v>
       </c>
       <c r="B64" t="n" s="146">
-        <v>-0.17716724817341523</v>
+        <v>-0.17716724817341478</v>
       </c>
       <c r="C64" t="n" s="147">
-        <v>0.548787554798472</v>
+        <v>0.5487875547984726</v>
       </c>
       <c r="D64" t="n" s="148">
-        <v>-0.2365268807813825</v>
+        <v>-0.23652688078138184</v>
       </c>
     </row>
     <row r="65">
@@ -3078,10 +3078,10 @@
         <v>-0.24435324076083886</v>
       </c>
       <c r="B65" t="n" s="146">
-        <v>-0.10698134589963915</v>
+        <v>-0.10698134589963892</v>
       </c>
       <c r="C65" t="n" s="147">
-        <v>-0.26670929698906587</v>
+        <v>-0.26670929698906565</v>
       </c>
       <c r="D65" t="n" s="148">
         <v>-0.14209845115459396</v>
@@ -3089,30 +3089,30 @@
     </row>
     <row r="66">
       <c r="A66" t="n" s="145">
-        <v>1.2316386953203375</v>
+        <v>1.2316386953203322</v>
       </c>
       <c r="B66" t="n" s="146">
         <v>0.859981478092763</v>
       </c>
       <c r="C66" t="n" s="147">
-        <v>-0.3447361957189141</v>
+        <v>-0.3447361957189137</v>
       </c>
       <c r="D66" t="n" s="148">
-        <v>-0.417328729540527</v>
+        <v>-0.4173287295405257</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n" s="145">
-        <v>-0.9668725044002211</v>
+        <v>-0.9668725044002207</v>
       </c>
       <c r="B67" t="n" s="146">
-        <v>-0.3509853834361947</v>
+        <v>-0.35098538343619423</v>
       </c>
       <c r="C67" t="n" s="147">
-        <v>2.1002876336835823</v>
+        <v>2.1002876336835827</v>
       </c>
       <c r="D67" t="n" s="148">
-        <v>-0.4693887217902919</v>
+        <v>-0.4693887217902908</v>
       </c>
     </row>
     <row r="68">
@@ -3120,10 +3120,10 @@
         <v>-0.24435324076083886</v>
       </c>
       <c r="B68" t="n" s="146">
-        <v>-0.10698134589963915</v>
+        <v>-0.10698134589963892</v>
       </c>
       <c r="C68" t="n" s="147">
-        <v>-0.26670929698906587</v>
+        <v>-0.26670929698906565</v>
       </c>
       <c r="D68" t="n" s="148">
         <v>-0.14209845115459396</v>
@@ -3131,30 +3131,30 @@
     </row>
     <row r="69">
       <c r="A69" t="n" s="145">
-        <v>-1.3117148730995623</v>
+        <v>-1.3117148730995631</v>
       </c>
       <c r="B69" t="n" s="146">
-        <v>0.5518184756431552</v>
+        <v>0.551818475643155</v>
       </c>
       <c r="C69" t="n" s="147">
-        <v>-0.1344783721566083</v>
+        <v>-0.13447837215660785</v>
       </c>
       <c r="D69" t="n" s="148">
-        <v>1.4026171560180654</v>
+        <v>1.402617156018067</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n" s="145">
-        <v>-1.0883569408747222</v>
+        <v>-1.088356940874724</v>
       </c>
       <c r="B70" t="n" s="146">
-        <v>0.3466426100470077</v>
+        <v>0.34664261004700747</v>
       </c>
       <c r="C70" t="n" s="147">
-        <v>1.418507827932328</v>
+        <v>1.4185078279323284</v>
       </c>
       <c r="D70" t="n" s="148">
-        <v>0.14057137493582395</v>
+        <v>0.1405713749358255</v>
       </c>
     </row>
     <row r="71">
@@ -3162,10 +3162,10 @@
         <v>-0.24435324076083886</v>
       </c>
       <c r="B71" t="n" s="146">
-        <v>-0.10698134589963915</v>
+        <v>-0.10698134589963892</v>
       </c>
       <c r="C71" t="n" s="147">
-        <v>-0.26670929698906587</v>
+        <v>-0.26670929698906565</v>
       </c>
       <c r="D71" t="n" s="148">
         <v>-0.14209845115459396</v>
@@ -3173,7 +3173,7 @@
     </row>
     <row r="72">
       <c r="A72" t="n" s="145">
-        <v>1.6882851269004377</v>
+        <v>1.6882851269004369</v>
       </c>
       <c r="B72" t="n" s="146">
         <v>-0.4481815243568448</v>
@@ -3182,7 +3182,7 @@
         <v>-1.1344783721566079</v>
       </c>
       <c r="D72" t="n" s="148">
-        <v>0.402617156018066</v>
+        <v>0.4026171560180667</v>
       </c>
     </row>
     <row r="73">
@@ -3190,10 +3190,10 @@
         <v>-0.24435324076083886</v>
       </c>
       <c r="B73" t="n" s="146">
-        <v>-0.10698134589963915</v>
+        <v>-0.10698134589963892</v>
       </c>
       <c r="C73" t="n" s="147">
-        <v>-0.26670929698906587</v>
+        <v>-0.26670929698906565</v>
       </c>
       <c r="D73" t="n" s="148">
         <v>-0.14209845115459396</v>
@@ -3204,13 +3204,13 @@
         <v>-0.4290930971279465</v>
       </c>
       <c r="B74" t="n" s="146">
-        <v>0.8228327518265848</v>
+        <v>0.8228327518265852</v>
       </c>
       <c r="C74" t="n" s="147">
-        <v>-0.4512124452015278</v>
+        <v>-0.45121244520152737</v>
       </c>
       <c r="D74" t="n" s="148">
-        <v>-0.2365268807813825</v>
+        <v>-0.23652688078138184</v>
       </c>
     </row>
     <row r="75">
@@ -3218,10 +3218,10 @@
         <v>-0.24435324076083886</v>
       </c>
       <c r="B75" t="n" s="146">
-        <v>-0.10698134589963915</v>
+        <v>-0.10698134589963892</v>
       </c>
       <c r="C75" t="n" s="147">
-        <v>-0.26670929698906587</v>
+        <v>-0.26670929698906565</v>
       </c>
       <c r="D75" t="n" s="148">
         <v>-0.14209845115459396</v>
@@ -3229,16 +3229,16 @@
     </row>
     <row r="76">
       <c r="A76" t="n" s="145">
-        <v>0.23163869532033488</v>
+        <v>0.2316386953203322</v>
       </c>
       <c r="B76" t="n" s="146">
-        <v>0.8599814780927626</v>
+        <v>0.8599814780927635</v>
       </c>
       <c r="C76" t="n" s="147">
-        <v>0.6552638042810854</v>
+        <v>0.6552638042810868</v>
       </c>
       <c r="D76" t="n" s="148">
-        <v>-0.4173287295405279</v>
+        <v>-0.4173287295405257</v>
       </c>
     </row>
     <row r="77">
@@ -3246,10 +3246,10 @@
         <v>-0.24435324076083886</v>
       </c>
       <c r="B77" t="n" s="146">
-        <v>-0.10698134589963915</v>
+        <v>-0.10698134589963892</v>
       </c>
       <c r="C77" t="n" s="147">
-        <v>-0.26670929698906587</v>
+        <v>-0.26670929698906565</v>
       </c>
       <c r="D77" t="n" s="148">
         <v>-0.14209845115459396</v>
@@ -3260,10 +3260,10 @@
         <v>-0.24435324076083886</v>
       </c>
       <c r="B78" t="n" s="146">
-        <v>-0.10698134589963915</v>
+        <v>-0.10698134589963892</v>
       </c>
       <c r="C78" t="n" s="147">
-        <v>-0.26670929698906587</v>
+        <v>-0.26670929698906565</v>
       </c>
       <c r="D78" t="n" s="148">
         <v>-0.14209845115459396</v>
@@ -3274,10 +3274,10 @@
         <v>-0.24435324076083886</v>
       </c>
       <c r="B79" t="n" s="146">
-        <v>-0.10698134589963915</v>
+        <v>-0.10698134589963892</v>
       </c>
       <c r="C79" t="n" s="147">
-        <v>-0.26670929698906587</v>
+        <v>-0.26670929698906565</v>
       </c>
       <c r="D79" t="n" s="148">
         <v>-0.14209845115459396</v>
@@ -3288,13 +3288,13 @@
         <v>-0.4290930971279463</v>
       </c>
       <c r="B80" t="n" s="146">
-        <v>-0.17716724817341523</v>
+        <v>-0.17716724817341478</v>
       </c>
       <c r="C80" t="n" s="147">
-        <v>0.548787554798472</v>
+        <v>0.5487875547984726</v>
       </c>
       <c r="D80" t="n" s="148">
-        <v>-0.2365268807813825</v>
+        <v>-0.23652688078138184</v>
       </c>
     </row>
     <row r="81">
@@ -3302,13 +3302,13 @@
         <v>-0.6711967998974948</v>
       </c>
       <c r="B81" t="n" s="146">
-        <v>-0.2599624886584966</v>
+        <v>-0.25996248865849636</v>
       </c>
       <c r="C81" t="n" s="147">
-        <v>-0.6682530849315349</v>
+        <v>-0.6682530849315347</v>
       </c>
       <c r="D81" t="n" s="148">
-        <v>1.652113974892159</v>
+        <v>1.6521139748921594</v>
       </c>
     </row>
     <row r="82">
@@ -3316,27 +3316,27 @@
         <v>-0.6711967998974948</v>
       </c>
       <c r="B82" t="n" s="146">
-        <v>-0.2599624886584966</v>
+        <v>-0.25996248865849636</v>
       </c>
       <c r="C82" t="n" s="147">
-        <v>-0.6682530849315349</v>
+        <v>-0.6682530849315347</v>
       </c>
       <c r="D82" t="n" s="148">
-        <v>1.652113974892159</v>
+        <v>1.6521139748921594</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n" s="145">
-        <v>-0.692795924395865</v>
+        <v>-0.6927959243958659</v>
       </c>
       <c r="B83" t="n" s="146">
         <v>-0.5497854814253438</v>
       </c>
       <c r="C83" t="n" s="147">
-        <v>-0.364660018306346</v>
+        <v>-0.36466001830634553</v>
       </c>
       <c r="D83" t="n" s="148">
-        <v>2.271238978597605</v>
+        <v>2.271238978597606</v>
       </c>
     </row>
     <row r="84">
@@ -3344,13 +3344,13 @@
         <v>2.6766995919476457</v>
       </c>
       <c r="B84" t="n" s="146">
-        <v>-0.9988339019855834</v>
+        <v>-0.9988339019855825</v>
       </c>
       <c r="C84" t="n" s="147">
-        <v>0.8439110344907976</v>
+        <v>0.8439110344907994</v>
       </c>
       <c r="D84" t="n" s="148">
-        <v>-1.2636164374792713</v>
+        <v>-1.2636164374792687</v>
       </c>
     </row>
     <row r="85">
@@ -3358,10 +3358,10 @@
         <v>-0.24435324076083886</v>
       </c>
       <c r="B85" t="n" s="146">
-        <v>-0.10698134589963915</v>
+        <v>-0.10698134589963892</v>
       </c>
       <c r="C85" t="n" s="147">
-        <v>-0.26670929698906587</v>
+        <v>-0.26670929698906565</v>
       </c>
       <c r="D85" t="n" s="148">
         <v>-0.14209845115459396</v>
@@ -3369,30 +3369,30 @@
     </row>
     <row r="86">
       <c r="A86" t="n" s="145">
-        <v>3.107205442226486</v>
+        <v>3.1072054422264843</v>
       </c>
       <c r="B86" t="n" s="146">
-        <v>-0.8721787976757245</v>
+        <v>-0.872178797675724</v>
       </c>
       <c r="C86" t="n" s="147">
-        <v>-0.9690565943900906</v>
+        <v>-0.9690565943900893</v>
       </c>
       <c r="D86" t="n" s="148">
-        <v>-0.12083617176656691</v>
+        <v>-0.12083617176656469</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n" s="145">
-        <v>-0.4290930971279463</v>
+        <v>-0.4290930971279465</v>
       </c>
       <c r="B87" t="n" s="146">
-        <v>-0.17716724817341523</v>
+        <v>-0.17716724817341478</v>
       </c>
       <c r="C87" t="n" s="147">
-        <v>-0.4512124452015278</v>
+        <v>-0.45121244520152737</v>
       </c>
       <c r="D87" t="n" s="148">
-        <v>0.7634731192186175</v>
+        <v>0.7634731192186182</v>
       </c>
     </row>
     <row r="88">
@@ -3400,13 +3400,13 @@
         <v>-0.4290930971279465</v>
       </c>
       <c r="B88" t="n" s="146">
-        <v>0.8228327518265848</v>
+        <v>0.8228327518265852</v>
       </c>
       <c r="C88" t="n" s="147">
-        <v>-0.4512124452015278</v>
+        <v>-0.45121244520152737</v>
       </c>
       <c r="D88" t="n" s="148">
-        <v>-0.2365268807813825</v>
+        <v>-0.23652688078138184</v>
       </c>
     </row>
     <row r="89">
@@ -3414,10 +3414,10 @@
         <v>-0.24435324076083886</v>
       </c>
       <c r="B89" t="n" s="146">
-        <v>-0.10698134589963915</v>
+        <v>-0.10698134589963892</v>
       </c>
       <c r="C89" t="n" s="147">
-        <v>-0.26670929698906587</v>
+        <v>-0.26670929698906565</v>
       </c>
       <c r="D89" t="n" s="148">
         <v>-0.14209845115459396</v>
@@ -3428,10 +3428,10 @@
         <v>-0.24435324076083886</v>
       </c>
       <c r="B90" t="n" s="146">
-        <v>-0.10698134589963915</v>
+        <v>-0.10698134589963892</v>
       </c>
       <c r="C90" t="n" s="147">
-        <v>-0.26670929698906587</v>
+        <v>-0.26670929698906565</v>
       </c>
       <c r="D90" t="n" s="148">
         <v>-0.14209845115459396</v>
@@ -3744,28 +3744,28 @@
         <v>2.090909090909091</v>
       </c>
       <c r="D6" t="n" s="194">
-        <v>-0.5761867058822171</v>
+        <v>-0.5761867058821873</v>
       </c>
       <c r="E6" t="n" s="195">
-        <v>-11.522479545045963</v>
+        <v>-11.52247954504575</v>
       </c>
       <c r="F6" t="n" s="196">
-        <v>-10.51836223810656</v>
+        <v>-10.518362238106345</v>
       </c>
       <c r="G6" t="n" s="197">
-        <v>-9.217931183786611</v>
+        <v>-9.217931183786396</v>
       </c>
       <c r="H6" t="n" s="198">
-        <v>-8.048171402513494</v>
+        <v>-8.048171402513278</v>
       </c>
       <c r="I6" t="n" s="199">
-        <v>-5.6726367970519025</v>
+        <v>-5.6726367970516876</v>
       </c>
       <c r="J6" t="n" s="200">
-        <v>-5.117867306254317</v>
+        <v>-5.117867306254107</v>
       </c>
       <c r="K6" t="n" s="201">
-        <v>-4.033306941175519</v>
+        <v>-4.0333069411753115</v>
       </c>
       <c r="L6" t="n" s="202">
         <v>1.0</v>
@@ -3800,19 +3800,19 @@
         <v>1.3636363636363635</v>
       </c>
       <c r="D7" t="n" s="194">
-        <v>-1.3033318771332298</v>
+        <v>-1.3033318771331759</v>
       </c>
       <c r="E7" t="n" s="195">
-        <v>-10.81376857155082</v>
+        <v>-10.813768571550606</v>
       </c>
       <c r="F7" t="n" s="196">
-        <v>-9.100940291116274</v>
+        <v>-9.100940291116059</v>
       </c>
       <c r="G7" t="n" s="197">
-        <v>-7.09179826330118</v>
+        <v>-7.091798263300965</v>
       </c>
       <c r="H7" t="n" s="198">
-        <v>-5.213327508532919</v>
+        <v>-5.2133275085327035</v>
       </c>
       <c r="I7" s="199"/>
       <c r="J7" s="200"/>
@@ -3850,22 +3850,22 @@
         <v>1.8545454545454545</v>
       </c>
       <c r="D8" t="n" s="194">
-        <v>-1.2413375414757912</v>
+        <v>-1.241337541475748</v>
       </c>
       <c r="E8" t="n" s="195">
-        <v>-11.629289727111374</v>
+        <v>-11.629289727111159</v>
       </c>
       <c r="F8" t="n" s="196">
-        <v>-10.731982602237382</v>
+        <v>-10.731982602237165</v>
       </c>
       <c r="G8" t="n" s="197">
-        <v>-9.538361729982842</v>
+        <v>-9.538361729982627</v>
       </c>
       <c r="H8" t="n" s="198">
-        <v>-8.475412130775137</v>
+        <v>-8.47541213077492</v>
       </c>
       <c r="I8" t="n" s="199">
-        <v>-6.206687707378956</v>
+        <v>-6.206687707378739</v>
       </c>
       <c r="J8" s="200"/>
       <c r="K8" s="201"/>
@@ -3902,19 +3902,19 @@
         <v>1.4727272727272727</v>
       </c>
       <c r="D9" t="n" s="194">
-        <v>-1.5646634954373542</v>
+        <v>-1.5646634954372989</v>
       </c>
       <c r="E9" t="n" s="195">
-        <v>-11.075100189854943</v>
+        <v>-11.075100189854728</v>
       </c>
       <c r="F9" t="n" s="196">
-        <v>-9.623603527724521</v>
+        <v>-9.623603527724304</v>
       </c>
       <c r="G9" t="n" s="197">
-        <v>-7.87579311821355</v>
+        <v>-7.875793118213333</v>
       </c>
       <c r="H9" t="n" s="198">
-        <v>-6.258653981749417</v>
+        <v>-6.2586539817491955</v>
       </c>
       <c r="I9" s="199"/>
       <c r="J9" s="200"/>
@@ -4094,7 +4094,7 @@
         <v>31</v>
       </c>
       <c r="B22" t="n" s="252">
-        <v>1.1687718054863292</v>
+        <v>1.168771805486328</v>
       </c>
     </row>
     <row r="23">
@@ -4110,7 +4110,7 @@
         <v>33</v>
       </c>
       <c r="B24" t="n" s="252">
-        <v>0.9332752400842624</v>
+        <v>0.9332752400842628</v>
       </c>
     </row>
     <row r="25">
@@ -4118,7 +4118,7 @@
         <v>34</v>
       </c>
       <c r="B25" t="n" s="252">
-        <v>1.1796323736216445</v>
+        <v>1.1796323736216467</v>
       </c>
     </row>
     <row r="26">
@@ -4170,25 +4170,25 @@
         <v>31</v>
       </c>
       <c r="B30" t="n" s="272">
-        <v>0.9209133923140959</v>
+        <v>0.963839623666667</v>
       </c>
       <c r="C30" t="n" s="273">
-        <v>-0.16455984117772463</v>
+        <v>-0.07261740070636337</v>
       </c>
       <c r="D30" t="n" s="274">
-        <v>0.8692904422910418</v>
+        <v>0.9421105795164532</v>
       </c>
       <c r="E30" t="n" s="275">
         <v>1.0</v>
       </c>
       <c r="F30" t="n" s="276">
-        <v>1.0961321695431818</v>
+        <v>1.1286148388179538</v>
       </c>
       <c r="G30" t="n" s="277">
-        <v>0.3716138840305478</v>
+        <v>0.4839336868135625</v>
       </c>
       <c r="H30" t="n" s="278">
-        <v>0.7101803503113702</v>
+        <v>0.6284329320428332</v>
       </c>
       <c r="I30" t="n" s="279">
         <v>1.0</v>
@@ -4199,25 +4199,25 @@
         <v>32</v>
       </c>
       <c r="B31" t="n" s="272">
-        <v>0.8837186497930727</v>
+        <v>0.9121302286233982</v>
       </c>
       <c r="C31" t="n" s="273">
-        <v>-0.14120628095150864</v>
+        <v>-0.08826701145128472</v>
       </c>
       <c r="D31" t="n" s="274">
-        <v>0.8877069843134409</v>
+        <v>0.9296644576374717</v>
       </c>
       <c r="E31" t="n" s="275">
         <v>1.0</v>
       </c>
       <c r="F31" t="n" s="276">
-        <v>0.987132271396168</v>
+        <v>0.9813479120585171</v>
       </c>
       <c r="G31" t="n" s="277">
-        <v>-0.0033709556791643486</v>
+        <v>-0.018664974162277394</v>
       </c>
       <c r="H31" t="n" s="278">
-        <v>0.9973103716023063</v>
+        <v>0.9851083699539622</v>
       </c>
       <c r="I31" t="n" s="279">
         <v>1.0</v>
@@ -4228,25 +4228,25 @@
         <v>33</v>
       </c>
       <c r="B32" t="n" s="272">
-        <v>0.9174046344497437</v>
+        <v>0.8516021447957602</v>
       </c>
       <c r="C32" t="n" s="273">
-        <v>-0.1990441910360069</v>
+        <v>-0.4069308529469935</v>
       </c>
       <c r="D32" t="n" s="274">
-        <v>0.8422281766859582</v>
+        <v>0.6840587748513579</v>
       </c>
       <c r="E32" t="n" s="275">
         <v>1.0</v>
       </c>
       <c r="F32" t="n" s="276">
-        <v>1.0060582898977024</v>
+        <v>0.9679810771707896</v>
       </c>
       <c r="G32" t="n" s="277">
-        <v>0.056531361783764736</v>
+        <v>-0.12431667678557884</v>
       </c>
       <c r="H32" t="n" s="278">
-        <v>0.9549185123738971</v>
+        <v>0.9010645435631862</v>
       </c>
       <c r="I32" t="n" s="279">
         <v>1.0</v>
@@ -4257,25 +4257,25 @@
         <v>34</v>
       </c>
       <c r="B33" t="n" s="272">
-        <v>1.1908278161692862</v>
+        <v>1.2590041555124336</v>
       </c>
       <c r="C33" t="n" s="273">
-        <v>0.4846551891793362</v>
+        <v>0.5837521844642344</v>
       </c>
       <c r="D33" t="n" s="274">
-        <v>0.6279209580970568</v>
+        <v>0.5593870523637005</v>
       </c>
       <c r="E33" t="n" s="275">
         <v>1.0</v>
       </c>
       <c r="F33" t="n" s="276">
-        <v>1.1290530890326576</v>
+        <v>1.1458467381851463</v>
       </c>
       <c r="G33" t="n" s="277">
-        <v>0.5444287571057466</v>
+        <v>0.6113337515346624</v>
       </c>
       <c r="H33" t="n" s="278">
-        <v>0.5861464612798877</v>
+        <v>0.5409786509636044</v>
       </c>
       <c r="I33" t="n" s="279">
         <v>1.0</v>
@@ -4286,10 +4286,10 @@
         <v>57</v>
       </c>
       <c r="B34" t="n" s="272">
-        <v>0.5628116974307761</v>
+        <v>1.1659902058623786</v>
       </c>
       <c r="C34" t="n" s="273">
-        <v>76.16250362061747</v>
+        <v>72.05505650416819</v>
       </c>
       <c r="D34" t="n" s="274">
         <v>0.0</v>
@@ -4298,13 +4298,13 @@
         <v>0.0</v>
       </c>
       <c r="F34" t="n" s="276">
-        <v>1.303457638605786</v>
+        <v>1.3070217045703336</v>
       </c>
       <c r="G34" t="n" s="277">
-        <v>0.6751287966156141</v>
+        <v>0.7126953950376189</v>
       </c>
       <c r="H34" t="n" s="278">
-        <v>0.49959393958412074</v>
+        <v>0.47603426664646054</v>
       </c>
       <c r="I34" t="n" s="279">
         <v>1.0</v>
@@ -4315,28 +4315,28 @@
         <v>58</v>
       </c>
       <c r="B35" t="n" s="272">
-        <v>1.3817252427500095</v>
+        <v>1.359715784458088</v>
       </c>
       <c r="C35" t="n" s="273">
-        <v>0.7394930988477645</v>
+        <v>0.7134966718421614</v>
       </c>
       <c r="D35" t="n" s="274">
-        <v>0.4596076287657174</v>
+        <v>0.47553847185271264</v>
       </c>
       <c r="E35" t="n" s="275">
         <v>1.0</v>
       </c>
       <c r="F35" t="n" s="276">
-        <v>1.5345300746583146</v>
+        <v>1.509101967598255</v>
       </c>
       <c r="G35" t="n" s="277">
-        <v>5.678383561269212</v>
+        <v>5.44457587273832</v>
       </c>
       <c r="H35" t="n" s="278">
-        <v>1.3597354374103491E-8</v>
+        <v>5.192896642292427E-8</v>
       </c>
       <c r="I35" t="n" s="279">
-        <v>1.359735437410349E-7</v>
+        <v>5.192896642292427E-7</v>
       </c>
     </row>
     <row r="36">
@@ -4344,25 +4344,25 @@
         <v>59</v>
       </c>
       <c r="B36" t="n" s="272">
-        <v>0.9467822022514061</v>
+        <v>1.0812570314416532</v>
       </c>
       <c r="C36" t="n" s="273">
-        <v>1.256587460399649</v>
+        <v>1.3270864223692431</v>
       </c>
       <c r="D36" t="n" s="274">
-        <v>0.20890305774639634</v>
+        <v>0.18448009620047234</v>
       </c>
       <c r="E36" t="n" s="275">
         <v>1.0</v>
       </c>
       <c r="F36" t="n" s="276">
-        <v>1.1855552266611993</v>
+        <v>1.178111337237629</v>
       </c>
       <c r="G36" t="n" s="277">
-        <v>1.3640763527897577</v>
+        <v>1.3081466794349301</v>
       </c>
       <c r="H36" t="n" s="278">
-        <v>0.1725435363882016</v>
+        <v>0.19082356327830338</v>
       </c>
       <c r="I36" t="n" s="279">
         <v>1.0</v>
@@ -4373,25 +4373,25 @@
         <v>60</v>
       </c>
       <c r="B37" t="n" s="272">
-        <v>1.0819004132434595</v>
+        <v>1.100480171910782</v>
       </c>
       <c r="C37" t="n" s="273">
-        <v>9.756852225823765</v>
+        <v>10.916470774284956</v>
       </c>
       <c r="D37" t="n" s="274">
-        <v>1.7242395491905358E-22</v>
+        <v>9.616007690328753E-28</v>
       </c>
       <c r="E37" t="n" s="275">
-        <v>1.2069676844333751E-21</v>
+        <v>6.731205383230127E-27</v>
       </c>
       <c r="F37" t="n" s="276">
-        <v>0.8692442934156145</v>
+        <v>0.8278508960240731</v>
       </c>
       <c r="G37" t="n" s="277">
-        <v>-0.9036887840915913</v>
+        <v>-1.1499431211476734</v>
       </c>
       <c r="H37" t="n" s="278">
-        <v>0.36616044804809855</v>
+        <v>0.2501672988777217</v>
       </c>
       <c r="I37" t="n" s="279">
         <v>1.0</v>
@@ -4402,19 +4402,19 @@
         <v>61</v>
       </c>
       <c r="B38" t="n" s="272">
-        <v>0.34565034546541</v>
+        <v>0.32022675139187845</v>
       </c>
       <c r="C38" s="273"/>
       <c r="D38" s="274"/>
       <c r="E38" s="275"/>
       <c r="F38" t="n" s="276">
-        <v>0.752302179959556</v>
+        <v>0.7338811649850883</v>
       </c>
       <c r="G38" t="n" s="277">
-        <v>-0.7683069613540798</v>
+        <v>-0.8251333254053105</v>
       </c>
       <c r="H38" t="n" s="278">
-        <v>0.4423048398723555</v>
+        <v>0.4092959016108523</v>
       </c>
       <c r="I38" t="n" s="279">
         <v>1.0</v>
@@ -4425,19 +4425,19 @@
         <v>62</v>
       </c>
       <c r="B39" t="n" s="272">
-        <v>0.7135754585873442</v>
+        <v>0.6230963963031887</v>
       </c>
       <c r="C39" s="273"/>
       <c r="D39" s="274"/>
       <c r="E39" s="275"/>
       <c r="F39" t="n" s="276">
-        <v>1.0731374075792481</v>
+        <v>1.0914625297490177</v>
       </c>
       <c r="G39" t="n" s="277">
-        <v>0.27552737386941784</v>
+        <v>0.30523816241673457</v>
       </c>
       <c r="H39" t="n" s="278">
-        <v>0.7829110980526863</v>
+        <v>0.7601847689814283</v>
       </c>
       <c r="I39" t="n" s="279">
         <v>1.0</v>
@@ -5857,16 +5857,16 @@
         <v>1.0</v>
       </c>
       <c r="G2" t="n" s="304">
-        <v>0.8021824198283807</v>
+        <v>0.8021824198283815</v>
       </c>
       <c r="H2" t="n" s="305">
-        <v>-0.05635329436085676</v>
+        <v>-0.056353294360854594</v>
       </c>
       <c r="I2" t="n" s="306">
-        <v>0.9870943453937475</v>
+        <v>0.9870943453937477</v>
       </c>
       <c r="J2" t="n" s="307">
-        <v>0.2556401425133911</v>
+        <v>0.25564014251339195</v>
       </c>
     </row>
     <row r="3">
@@ -5889,16 +5889,16 @@
         <v>2.0</v>
       </c>
       <c r="G3" t="n" s="304">
-        <v>0.13423022721976158</v>
+        <v>0.13423022721976088</v>
       </c>
       <c r="H3" t="n" s="305">
-        <v>-0.25566338830626845</v>
+        <v>-0.25566338830626745</v>
       </c>
       <c r="I3" t="n" s="306">
-        <v>0.1491698637705762</v>
+        <v>0.1491698637705754</v>
       </c>
       <c r="J3" t="n" s="307">
-        <v>-0.24746049870785825</v>
+        <v>-0.2474604987078569</v>
       </c>
     </row>
     <row r="4">
@@ -5924,13 +5924,13 @@
         <v>0.32369540115033785</v>
       </c>
       <c r="H4" t="n" s="305">
-        <v>-0.36047607707094836</v>
+        <v>-0.3604760770709461</v>
       </c>
       <c r="I4" t="n" s="306">
-        <v>0.3600782277791348</v>
+        <v>0.3600782277791352</v>
       </c>
       <c r="J4" t="n" s="307">
-        <v>-0.2932192844108526</v>
+        <v>-0.2932192844108496</v>
       </c>
     </row>
     <row r="5">
@@ -5953,16 +5953,16 @@
         <v>4.0</v>
       </c>
       <c r="G5" t="n" s="304">
-        <v>0.13423022721976158</v>
+        <v>0.13423022721976088</v>
       </c>
       <c r="H5" t="n" s="305">
-        <v>-0.25566338830626845</v>
+        <v>-0.25566338830626745</v>
       </c>
       <c r="I5" t="n" s="306">
-        <v>0.1491698637705762</v>
+        <v>0.1491698637705754</v>
       </c>
       <c r="J5" t="n" s="307">
-        <v>-0.24746049870785825</v>
+        <v>-0.2474604987078569</v>
       </c>
     </row>
     <row r="6">
@@ -5988,13 +5988,13 @@
         <v>0.32369540115033785</v>
       </c>
       <c r="H6" t="n" s="305">
-        <v>-0.36047607707094836</v>
+        <v>-0.3604760770709461</v>
       </c>
       <c r="I6" t="n" s="306">
-        <v>0.3600782277791348</v>
+        <v>0.3600782277791352</v>
       </c>
       <c r="J6" t="n" s="307">
-        <v>-0.2932192844108526</v>
+        <v>-0.2932192844108496</v>
       </c>
     </row>
     <row r="7">
@@ -6017,16 +6017,16 @@
         <v>6.0</v>
       </c>
       <c r="G7" t="n" s="304">
-        <v>0.13423022721976158</v>
+        <v>0.13423022721976088</v>
       </c>
       <c r="H7" t="n" s="305">
-        <v>-0.25566338830626845</v>
+        <v>-0.25566338830626745</v>
       </c>
       <c r="I7" t="n" s="306">
-        <v>0.1491698637705762</v>
+        <v>0.1491698637705754</v>
       </c>
       <c r="J7" t="n" s="307">
-        <v>-0.24746049870785825</v>
+        <v>-0.2474604987078569</v>
       </c>
     </row>
     <row r="8">
@@ -6049,16 +6049,16 @@
         <v>7.0</v>
       </c>
       <c r="G8" t="n" s="304">
-        <v>0.08134805145428059</v>
+        <v>0.08134805145428003</v>
       </c>
       <c r="H8" t="n" s="305">
-        <v>-3.262925985773208</v>
+        <v>-3.2629259857732116</v>
       </c>
       <c r="I8" t="n" s="306">
-        <v>0.10588027949322595</v>
+        <v>0.10588027949322577</v>
       </c>
       <c r="J8" t="n" s="307">
-        <v>-2.6840482288026255</v>
+        <v>-2.6840482288026264</v>
       </c>
     </row>
     <row r="9">
@@ -6081,16 +6081,16 @@
         <v>8.0</v>
       </c>
       <c r="G9" t="n" s="304">
-        <v>0.6396406485667271</v>
+        <v>0.6396406485667274</v>
       </c>
       <c r="H9" t="n" s="305">
-        <v>-0.4527800940317198</v>
+        <v>-0.4527800940317186</v>
       </c>
       <c r="I9" t="n" s="306">
-        <v>0.4500210786924966</v>
+        <v>0.4500210786924965</v>
       </c>
       <c r="J9" t="n" s="307">
-        <v>-0.7733571364434859</v>
+        <v>-0.7733571364434852</v>
       </c>
     </row>
     <row r="10">
@@ -6113,16 +6113,16 @@
         <v>9.0</v>
       </c>
       <c r="G10" t="n" s="304">
-        <v>0.17235781455729035</v>
+        <v>0.17235781455729038</v>
       </c>
       <c r="H10" t="n" s="305">
-        <v>-1.6125052625886345</v>
+        <v>-1.6125052625886314</v>
       </c>
       <c r="I10" t="n" s="306">
-        <v>0.1747973398383513</v>
+        <v>0.1747973398383504</v>
       </c>
       <c r="J10" t="n" s="307">
-        <v>-1.3519822816581786</v>
+        <v>-1.3519822816581792</v>
       </c>
     </row>
     <row r="11">
@@ -6145,16 +6145,16 @@
         <v>10.0</v>
       </c>
       <c r="G11" t="n" s="304">
-        <v>0.13423022721976158</v>
+        <v>0.13423022721976088</v>
       </c>
       <c r="H11" t="n" s="305">
-        <v>-0.25566338830626845</v>
+        <v>-0.25566338830626745</v>
       </c>
       <c r="I11" t="n" s="306">
-        <v>0.1491698637705762</v>
+        <v>0.1491698637705754</v>
       </c>
       <c r="J11" t="n" s="307">
-        <v>-0.24746049870785825</v>
+        <v>-0.2474604987078569</v>
       </c>
     </row>
     <row r="12">
@@ -6177,16 +6177,16 @@
         <v>11.0</v>
       </c>
       <c r="G12" t="n" s="304">
-        <v>0.3075917628350758</v>
+        <v>0.30759176283507655</v>
       </c>
       <c r="H12" t="n" s="305">
-        <v>-1.8005498727244647</v>
+        <v>-1.80054987272446</v>
       </c>
       <c r="I12" t="n" s="306">
-        <v>0.4788100328976397</v>
+        <v>0.4788100328976405</v>
       </c>
       <c r="J12" t="n" s="307">
-        <v>-1.0009731541059683</v>
+        <v>-1.0009731541059654</v>
       </c>
     </row>
     <row r="13">
@@ -6209,13 +6209,13 @@
         <v>12.0</v>
       </c>
       <c r="G13" t="n" s="304">
-        <v>0.4271323628190812</v>
+        <v>0.4271323628190808</v>
       </c>
       <c r="H13" t="n" s="305">
-        <v>-0.9717513687864393</v>
+        <v>-0.9717513687864392</v>
       </c>
       <c r="I13" t="n" s="306">
-        <v>0.3091096235995362</v>
+        <v>0.3091096235995358</v>
       </c>
       <c r="J13" t="n" s="307">
         <v>-1.1614751855901584</v>
@@ -6241,16 +6241,16 @@
         <v>13.0</v>
       </c>
       <c r="G14" t="n" s="304">
-        <v>0.5285752578036116</v>
+        <v>0.528575257803613</v>
       </c>
       <c r="H14" t="n" s="305">
-        <v>-0.7066037742096318</v>
+        <v>-0.7066037742096277</v>
       </c>
       <c r="I14" t="n" s="306">
-        <v>0.47660453394548374</v>
+        <v>0.4766045339454838</v>
       </c>
       <c r="J14" t="n" s="307">
-        <v>-0.7096540719195025</v>
+        <v>-0.7096540719195015</v>
       </c>
     </row>
     <row r="15">
@@ -6273,16 +6273,16 @@
         <v>14.0</v>
       </c>
       <c r="G15" t="n" s="304">
-        <v>0.4684270169420758</v>
+        <v>0.4684270169420769</v>
       </c>
       <c r="H15" t="n" s="305">
-        <v>-1.1820703815546163</v>
+        <v>-1.1820703815546123</v>
       </c>
       <c r="I15" t="n" s="306">
-        <v>0.3051066897340421</v>
+        <v>0.30510668973404254</v>
       </c>
       <c r="J15" t="n" s="307">
-        <v>-1.6664877237450728</v>
+        <v>-1.6664877237450724</v>
       </c>
     </row>
     <row r="16">
@@ -6305,16 +6305,16 @@
         <v>15.0</v>
       </c>
       <c r="G16" t="n" s="304">
-        <v>1.4442783754814745</v>
+        <v>1.444278375481471</v>
       </c>
       <c r="H16" t="n" s="305">
-        <v>0.9143252819530207</v>
+        <v>0.914325281953015</v>
       </c>
       <c r="I16" t="n" s="306">
-        <v>1.2785706225559779</v>
+        <v>1.2785706225559743</v>
       </c>
       <c r="J16" t="n" s="307">
-        <v>0.6126942043296095</v>
+        <v>0.6126942043296051</v>
       </c>
     </row>
     <row r="17">
@@ -6337,16 +6337,16 @@
         <v>16.0</v>
       </c>
       <c r="G17" t="n" s="304">
-        <v>0.5675778982488502</v>
+        <v>0.56757789824885</v>
       </c>
       <c r="H17" t="n" s="305">
-        <v>-0.18096562715832243</v>
+        <v>-0.1809656271583222</v>
       </c>
       <c r="I17" t="n" s="306">
-        <v>0.46050234837534537</v>
+        <v>0.4605023483753451</v>
       </c>
       <c r="J17" t="n" s="307">
-        <v>-0.28820228372060536</v>
+        <v>-0.28820228372060425</v>
       </c>
     </row>
     <row r="18">
@@ -6369,16 +6369,16 @@
         <v>17.0</v>
       </c>
       <c r="G18" t="n" s="304">
-        <v>1.5644554458820596</v>
+        <v>1.5644554458820608</v>
       </c>
       <c r="H18" t="n" s="305">
-        <v>1.0870122256807506</v>
+        <v>1.087012225680751</v>
       </c>
       <c r="I18" t="n" s="306">
-        <v>1.58578238723376</v>
+        <v>1.5857823872337626</v>
       </c>
       <c r="J18" t="n" s="307">
-        <v>0.9897197238458525</v>
+        <v>0.9897197238458545</v>
       </c>
     </row>
     <row r="19">
@@ -6404,13 +6404,13 @@
         <v>0.17144713698856864</v>
       </c>
       <c r="H19" t="n" s="305">
-        <v>-1.305185191278106</v>
+        <v>-1.3051851912781036</v>
       </c>
       <c r="I19" t="n" s="306">
-        <v>0.10927329352159348</v>
+        <v>0.10927329352159311</v>
       </c>
       <c r="J19" t="n" s="307">
-        <v>-1.3543116821266166</v>
+        <v>-1.3543116821266143</v>
       </c>
     </row>
     <row r="20">
@@ -6433,16 +6433,16 @@
         <v>19.0</v>
       </c>
       <c r="G20" t="n" s="304">
-        <v>0.2836276842725259</v>
+        <v>0.28362768427252555</v>
       </c>
       <c r="H20" t="n" s="305">
-        <v>-0.4330155520807451</v>
+        <v>-0.4330155520807434</v>
       </c>
       <c r="I20" t="n" s="306">
         <v>0.30179807530391967</v>
       </c>
       <c r="J20" t="n" s="307">
-        <v>-0.3923417615083917</v>
+        <v>-0.392341761508389</v>
       </c>
     </row>
     <row r="21">
@@ -6465,16 +6465,16 @@
         <v>20.0</v>
       </c>
       <c r="G21" t="n" s="304">
-        <v>0.13423022721976158</v>
+        <v>0.13423022721976088</v>
       </c>
       <c r="H21" t="n" s="305">
-        <v>-0.25566338830626845</v>
+        <v>-0.25566338830626745</v>
       </c>
       <c r="I21" t="n" s="306">
-        <v>0.1491698637705762</v>
+        <v>0.1491698637705754</v>
       </c>
       <c r="J21" t="n" s="307">
-        <v>-0.24746049870785825</v>
+        <v>-0.2474604987078569</v>
       </c>
     </row>
     <row r="22">
@@ -6500,13 +6500,13 @@
         <v>0.32369540115033785</v>
       </c>
       <c r="H22" t="n" s="305">
-        <v>-0.36047607707094836</v>
+        <v>-0.3604760770709461</v>
       </c>
       <c r="I22" t="n" s="306">
-        <v>0.3600782277791348</v>
+        <v>0.3600782277791352</v>
       </c>
       <c r="J22" t="n" s="307">
-        <v>-0.2932192844108526</v>
+        <v>-0.2932192844108496</v>
       </c>
     </row>
     <row r="23">
@@ -6529,16 +6529,16 @@
         <v>22.0</v>
       </c>
       <c r="G23" t="n" s="304">
-        <v>0.13423022721976158</v>
+        <v>0.13423022721976088</v>
       </c>
       <c r="H23" t="n" s="305">
-        <v>-0.25566338830626845</v>
+        <v>-0.25566338830626745</v>
       </c>
       <c r="I23" t="n" s="306">
-        <v>0.1491698637705762</v>
+        <v>0.1491698637705754</v>
       </c>
       <c r="J23" t="n" s="307">
-        <v>-0.24746049870785825</v>
+        <v>-0.2474604987078569</v>
       </c>
     </row>
     <row r="24">
@@ -6561,16 +6561,16 @@
         <v>23.0</v>
       </c>
       <c r="G24" t="n" s="304">
-        <v>0.13423022721976158</v>
+        <v>0.13423022721976088</v>
       </c>
       <c r="H24" t="n" s="305">
-        <v>-0.25566338830626845</v>
+        <v>-0.25566338830626745</v>
       </c>
       <c r="I24" t="n" s="306">
-        <v>0.1491698637705762</v>
+        <v>0.1491698637705754</v>
       </c>
       <c r="J24" t="n" s="307">
-        <v>-0.24746049870785825</v>
+        <v>-0.2474604987078569</v>
       </c>
     </row>
     <row r="25">
@@ -6593,16 +6593,16 @@
         <v>24.0</v>
       </c>
       <c r="G25" t="n" s="304">
-        <v>0.13423022721976158</v>
+        <v>0.13423022721976088</v>
       </c>
       <c r="H25" t="n" s="305">
-        <v>-0.25566338830626845</v>
+        <v>-0.25566338830626745</v>
       </c>
       <c r="I25" t="n" s="306">
-        <v>0.1491698637705762</v>
+        <v>0.1491698637705754</v>
       </c>
       <c r="J25" t="n" s="307">
-        <v>-0.24746049870785825</v>
+        <v>-0.2474604987078569</v>
       </c>
     </row>
     <row r="26">
@@ -6625,16 +6625,16 @@
         <v>25.0</v>
       </c>
       <c r="G26" t="n" s="304">
-        <v>0.13423022721976158</v>
+        <v>0.13423022721976088</v>
       </c>
       <c r="H26" t="n" s="305">
-        <v>-0.25566338830626845</v>
+        <v>-0.25566338830626745</v>
       </c>
       <c r="I26" t="n" s="306">
-        <v>0.1491698637705762</v>
+        <v>0.1491698637705754</v>
       </c>
       <c r="J26" t="n" s="307">
-        <v>-0.24746049870785825</v>
+        <v>-0.2474604987078569</v>
       </c>
     </row>
     <row r="27">
@@ -6657,16 +6657,16 @@
         <v>26.0</v>
       </c>
       <c r="G27" t="n" s="304">
-        <v>1.6343927890048116</v>
+        <v>1.6343927890048089</v>
       </c>
       <c r="H27" t="n" s="305">
-        <v>1.2416640424591192</v>
+        <v>1.2416640424591143</v>
       </c>
       <c r="I27" t="n" s="306">
-        <v>1.2809879782731983</v>
+        <v>1.2809879782731948</v>
       </c>
       <c r="J27" t="n" s="307">
-        <v>0.6520506648019033</v>
+        <v>0.6520506648018971</v>
       </c>
     </row>
     <row r="28">
@@ -6689,16 +6689,16 @@
         <v>27.0</v>
       </c>
       <c r="G28" t="n" s="304">
-        <v>0.13423022721976158</v>
+        <v>0.13423022721976088</v>
       </c>
       <c r="H28" t="n" s="305">
-        <v>-0.25566338830626845</v>
+        <v>-0.25566338830626745</v>
       </c>
       <c r="I28" t="n" s="306">
-        <v>0.1491698637705762</v>
+        <v>0.1491698637705754</v>
       </c>
       <c r="J28" t="n" s="307">
-        <v>-0.24746049870785825</v>
+        <v>-0.2474604987078569</v>
       </c>
     </row>
     <row r="29">
@@ -6721,16 +6721,16 @@
         <v>28.0</v>
       </c>
       <c r="G29" t="n" s="304">
-        <v>1.0355674936472814</v>
+        <v>1.0355674936472825</v>
       </c>
       <c r="H29" t="n" s="305">
-        <v>0.2884000754972595</v>
+        <v>0.28840007549726066</v>
       </c>
       <c r="I29" t="n" s="306">
-        <v>0.5915362724839114</v>
+        <v>0.5915362724839104</v>
       </c>
       <c r="J29" t="n" s="307">
-        <v>-0.3196906575892718</v>
+        <v>-0.3196906575892723</v>
       </c>
     </row>
     <row r="30">
@@ -6753,16 +6753,16 @@
         <v>29.0</v>
       </c>
       <c r="G30" t="n" s="304">
-        <v>0.2836276842725259</v>
+        <v>0.28362768427252555</v>
       </c>
       <c r="H30" t="n" s="305">
-        <v>-0.4330155520807451</v>
+        <v>-0.4330155520807434</v>
       </c>
       <c r="I30" t="n" s="306">
         <v>0.30179807530391967</v>
       </c>
       <c r="J30" t="n" s="307">
-        <v>-0.3923417615083917</v>
+        <v>-0.392341761508389</v>
       </c>
     </row>
     <row r="31">
@@ -6785,16 +6785,16 @@
         <v>30.0</v>
       </c>
       <c r="G31" t="n" s="304">
-        <v>0.13423022721976158</v>
+        <v>0.13423022721976088</v>
       </c>
       <c r="H31" t="n" s="305">
-        <v>-0.25566338830626845</v>
+        <v>-0.25566338830626745</v>
       </c>
       <c r="I31" t="n" s="306">
-        <v>0.1491698637705762</v>
+        <v>0.1491698637705754</v>
       </c>
       <c r="J31" t="n" s="307">
-        <v>-0.24746049870785825</v>
+        <v>-0.2474604987078569</v>
       </c>
     </row>
     <row r="32">
@@ -6817,16 +6817,16 @@
         <v>31.0</v>
       </c>
       <c r="G32" t="n" s="304">
-        <v>0.2801981062875637</v>
+        <v>0.28019810628756264</v>
       </c>
       <c r="H32" t="n" s="305">
-        <v>-1.7788656546071158</v>
+        <v>-1.7788656546071184</v>
       </c>
       <c r="I32" t="n" s="306">
-        <v>0.2366972624351303</v>
+        <v>0.23669726243512912</v>
       </c>
       <c r="J32" t="n" s="307">
-        <v>-1.5661930802072566</v>
+        <v>-1.5661930802072572</v>
       </c>
     </row>
     <row r="33">
@@ -6849,16 +6849,16 @@
         <v>32.0</v>
       </c>
       <c r="G33" t="n" s="304">
-        <v>1.0358139184141237</v>
+        <v>1.0358139184141253</v>
       </c>
       <c r="H33" t="n" s="305">
-        <v>0.322416581232728</v>
+        <v>0.3224165812327298</v>
       </c>
       <c r="I33" t="n" s="306">
-        <v>1.1773094071690358</v>
+        <v>1.1773094071690373</v>
       </c>
       <c r="J33" t="n" s="307">
-        <v>0.49166201876122845</v>
+        <v>0.4916620187612301</v>
       </c>
     </row>
     <row r="34">
@@ -6881,16 +6881,16 @@
         <v>33.0</v>
       </c>
       <c r="G34" t="n" s="304">
-        <v>0.13423022721976158</v>
+        <v>0.13423022721976088</v>
       </c>
       <c r="H34" t="n" s="305">
-        <v>-0.25566338830626845</v>
+        <v>-0.25566338830626745</v>
       </c>
       <c r="I34" t="n" s="306">
-        <v>0.1491698637705762</v>
+        <v>0.1491698637705754</v>
       </c>
       <c r="J34" t="n" s="307">
-        <v>-0.24746049870785825</v>
+        <v>-0.2474604987078569</v>
       </c>
     </row>
     <row r="35">
@@ -6913,16 +6913,16 @@
         <v>34.0</v>
       </c>
       <c r="G35" t="n" s="304">
-        <v>0.8206775294837875</v>
+        <v>0.8206775294837899</v>
       </c>
       <c r="H35" t="n" s="305">
-        <v>-0.026759480406971597</v>
+        <v>-0.026759480406967157</v>
       </c>
       <c r="I35" t="n" s="306">
-        <v>0.8567274013761013</v>
+        <v>0.8567274013761007</v>
       </c>
       <c r="J35" t="n" s="307">
-        <v>0.08654199198859813</v>
+        <v>0.08654199198859797</v>
       </c>
     </row>
     <row r="36">
@@ -6945,16 +6945,16 @@
         <v>35.0</v>
       </c>
       <c r="G36" t="n" s="304">
-        <v>0.38473492230840695</v>
+        <v>0.3847349223084076</v>
       </c>
       <c r="H36" t="n" s="305">
-        <v>-1.2692034791020457</v>
+        <v>-1.269203479102044</v>
       </c>
       <c r="I36" t="n" s="306">
-        <v>0.5328134004198078</v>
+        <v>0.5328134004198087</v>
       </c>
       <c r="J36" t="n" s="307">
-        <v>-0.7441962876939288</v>
+        <v>-0.7441962876939275</v>
       </c>
     </row>
     <row r="37">
@@ -6977,16 +6977,16 @@
         <v>36.0</v>
       </c>
       <c r="G37" t="n" s="304">
-        <v>0.13423022721976158</v>
+        <v>0.13423022721976088</v>
       </c>
       <c r="H37" t="n" s="305">
-        <v>-0.25566338830626845</v>
+        <v>-0.25566338830626745</v>
       </c>
       <c r="I37" t="n" s="306">
-        <v>0.1491698637705762</v>
+        <v>0.1491698637705754</v>
       </c>
       <c r="J37" t="n" s="307">
-        <v>-0.24746049870785825</v>
+        <v>-0.2474604987078569</v>
       </c>
     </row>
     <row r="38">
@@ -7009,16 +7009,16 @@
         <v>37.0</v>
       </c>
       <c r="G38" t="n" s="304">
-        <v>0.6634657088854556</v>
+        <v>0.6634657088854555</v>
       </c>
       <c r="H38" t="n" s="305">
-        <v>-0.29430358731658135</v>
+        <v>-0.29430358731658024</v>
       </c>
       <c r="I38" t="n" s="306">
-        <v>0.7317266806282948</v>
+        <v>0.7317266806282957</v>
       </c>
       <c r="J38" t="n" s="307">
-        <v>-0.09257762335299385</v>
+        <v>-0.0925776233529913</v>
       </c>
     </row>
     <row r="39">
@@ -7041,16 +7041,16 @@
         <v>38.0</v>
       </c>
       <c r="G39" t="n" s="304">
-        <v>0.13423022721976158</v>
+        <v>0.13423022721976088</v>
       </c>
       <c r="H39" t="n" s="305">
-        <v>-0.25566338830626845</v>
+        <v>-0.25566338830626745</v>
       </c>
       <c r="I39" t="n" s="306">
-        <v>0.1491698637705762</v>
+        <v>0.1491698637705754</v>
       </c>
       <c r="J39" t="n" s="307">
-        <v>-0.24746049870785825</v>
+        <v>-0.2474604987078569</v>
       </c>
     </row>
     <row r="40">
@@ -7073,16 +7073,16 @@
         <v>39.0</v>
       </c>
       <c r="G40" t="n" s="304">
-        <v>0.8857779565563784</v>
+        <v>0.8857779565563797</v>
       </c>
       <c r="H40" t="n" s="305">
-        <v>0.31072467434567796</v>
+        <v>0.31072467434568035</v>
       </c>
       <c r="I40" t="n" s="306">
-        <v>0.6674561477884673</v>
+        <v>0.667456147788467</v>
       </c>
       <c r="J40" t="n" s="307">
-        <v>0.10289309523931356</v>
+        <v>0.10289309523931484</v>
       </c>
     </row>
     <row r="41">
@@ -7105,16 +7105,16 @@
         <v>40.0</v>
       </c>
       <c r="G41" t="n" s="304">
-        <v>0.13423022721976158</v>
+        <v>0.13423022721976088</v>
       </c>
       <c r="H41" t="n" s="305">
-        <v>-0.25566338830626845</v>
+        <v>-0.25566338830626745</v>
       </c>
       <c r="I41" t="n" s="306">
-        <v>0.1491698637705762</v>
+        <v>0.1491698637705754</v>
       </c>
       <c r="J41" t="n" s="307">
-        <v>-0.24746049870785825</v>
+        <v>-0.2474604987078569</v>
       </c>
     </row>
     <row r="42">
@@ -7137,16 +7137,16 @@
         <v>41.0</v>
       </c>
       <c r="G42" t="n" s="304">
-        <v>0.23787198320265066</v>
+        <v>0.23787198320265032</v>
       </c>
       <c r="H42" t="n" s="305">
-        <v>-1.9755575211372343</v>
+        <v>-1.9755575211372336</v>
       </c>
       <c r="I42" t="n" s="306">
-        <v>0.17403894243780943</v>
+        <v>0.1740389424378094</v>
       </c>
       <c r="J42" t="n" s="307">
-        <v>-1.8475000059842817</v>
+        <v>-1.8475000059842777</v>
       </c>
     </row>
     <row r="43">
@@ -7169,16 +7169,16 @@
         <v>42.0</v>
       </c>
       <c r="G43" t="n" s="304">
-        <v>0.13423022721976158</v>
+        <v>0.13423022721976088</v>
       </c>
       <c r="H43" t="n" s="305">
-        <v>-0.25566338830626845</v>
+        <v>-0.25566338830626745</v>
       </c>
       <c r="I43" t="n" s="306">
-        <v>0.1491698637705762</v>
+        <v>0.1491698637705754</v>
       </c>
       <c r="J43" t="n" s="307">
-        <v>-0.24746049870785825</v>
+        <v>-0.2474604987078569</v>
       </c>
     </row>
     <row r="44">
@@ -7201,16 +7201,16 @@
         <v>43.0</v>
       </c>
       <c r="G44" t="n" s="304">
-        <v>0.13423022721976158</v>
+        <v>0.13423022721976088</v>
       </c>
       <c r="H44" t="n" s="305">
-        <v>-0.25566338830626845</v>
+        <v>-0.25566338830626745</v>
       </c>
       <c r="I44" t="n" s="306">
-        <v>0.1491698637705762</v>
+        <v>0.1491698637705754</v>
       </c>
       <c r="J44" t="n" s="307">
-        <v>-0.24746049870785825</v>
+        <v>-0.2474604987078569</v>
       </c>
     </row>
     <row r="45">
@@ -7233,16 +7233,16 @@
         <v>44.0</v>
       </c>
       <c r="G45" t="n" s="304">
-        <v>0.13423022721976158</v>
+        <v>0.13423022721976088</v>
       </c>
       <c r="H45" t="n" s="305">
-        <v>-0.25566338830626845</v>
+        <v>-0.25566338830626745</v>
       </c>
       <c r="I45" t="n" s="306">
-        <v>0.1491698637705762</v>
+        <v>0.1491698637705754</v>
       </c>
       <c r="J45" t="n" s="307">
-        <v>-0.24746049870785825</v>
+        <v>-0.2474604987078569</v>
       </c>
     </row>
     <row r="46">
@@ -7265,16 +7265,16 @@
         <v>45.0</v>
       </c>
       <c r="G46" t="n" s="304">
-        <v>0.2836276842725259</v>
+        <v>0.28362768427252555</v>
       </c>
       <c r="H46" t="n" s="305">
-        <v>-0.4330155520807451</v>
+        <v>-0.4330155520807434</v>
       </c>
       <c r="I46" t="n" s="306">
         <v>0.30179807530391967</v>
       </c>
       <c r="J46" t="n" s="307">
-        <v>-0.3923417615083917</v>
+        <v>-0.392341761508389</v>
       </c>
     </row>
     <row r="47">
@@ -7297,16 +7297,16 @@
         <v>46.0</v>
       </c>
       <c r="G47" t="n" s="304">
-        <v>1.4977236288142113</v>
+        <v>1.4977236288142142</v>
       </c>
       <c r="H47" t="n" s="305">
-        <v>0.7655267437505144</v>
+        <v>0.765526743750517</v>
       </c>
       <c r="I47" t="n" s="306">
-        <v>1.242501289858467</v>
+        <v>1.2425012898584678</v>
       </c>
       <c r="J47" t="n" s="307">
-        <v>0.5662064132828726</v>
+        <v>0.5662064132828728</v>
       </c>
     </row>
     <row r="48">
@@ -7329,16 +7329,16 @@
         <v>47.0</v>
       </c>
       <c r="G48" t="n" s="304">
-        <v>1.4977236288142113</v>
+        <v>1.4977236288142142</v>
       </c>
       <c r="H48" t="n" s="305">
-        <v>0.7655267437505144</v>
+        <v>0.765526743750517</v>
       </c>
       <c r="I48" t="n" s="306">
-        <v>1.242501289858467</v>
+        <v>1.2425012898584678</v>
       </c>
       <c r="J48" t="n" s="307">
-        <v>0.5662064132828726</v>
+        <v>0.5662064132828728</v>
       </c>
     </row>
     <row r="49">
@@ -7361,16 +7361,16 @@
         <v>48.0</v>
       </c>
       <c r="G49" t="n" s="304">
-        <v>1.474798719629553</v>
+        <v>1.4747987196295569</v>
       </c>
       <c r="H49" t="n" s="305">
-        <v>0.8703785337227952</v>
+        <v>0.8703785337227999</v>
       </c>
       <c r="I49" t="n" s="306">
-        <v>1.0110770487448915</v>
+        <v>1.011077048744892</v>
       </c>
       <c r="J49" t="n" s="307">
-        <v>0.2481849270766199</v>
+        <v>0.24818492707662104</v>
       </c>
     </row>
     <row r="50">
@@ -7393,16 +7393,16 @@
         <v>49.0</v>
       </c>
       <c r="G50" t="n" s="304">
-        <v>1.1307893485336693</v>
+        <v>1.1307893485336646</v>
       </c>
       <c r="H50" t="n" s="305">
-        <v>0.4105510048244093</v>
+        <v>0.4105510048244022</v>
       </c>
       <c r="I50" t="n" s="306">
-        <v>1.0189423447572596</v>
+        <v>1.0189423447572563</v>
       </c>
       <c r="J50" t="n" s="307">
-        <v>0.2581991949027304</v>
+        <v>0.2581991949027254</v>
       </c>
     </row>
     <row r="51">
@@ -7425,16 +7425,16 @@
         <v>50.0</v>
       </c>
       <c r="G51" t="n" s="304">
-        <v>0.13423022721976158</v>
+        <v>0.13423022721976088</v>
       </c>
       <c r="H51" t="n" s="305">
-        <v>-0.25566338830626845</v>
+        <v>-0.25566338830626745</v>
       </c>
       <c r="I51" t="n" s="306">
-        <v>0.1491698637705762</v>
+        <v>0.1491698637705754</v>
       </c>
       <c r="J51" t="n" s="307">
-        <v>-0.24746049870785825</v>
+        <v>-0.2474604987078569</v>
       </c>
     </row>
     <row r="52">
@@ -7457,16 +7457,16 @@
         <v>51.0</v>
       </c>
       <c r="G52" t="n" s="304">
-        <v>0.8998491568370349</v>
+        <v>0.8998491568370315</v>
       </c>
       <c r="H52" t="n" s="305">
-        <v>-0.04283039032375674</v>
+        <v>-0.04283039032376393</v>
       </c>
       <c r="I52" t="n" s="306">
-        <v>1.1587866231501147</v>
+        <v>1.1587866231501123</v>
       </c>
       <c r="J52" t="n" s="307">
-        <v>0.46132195628987227</v>
+        <v>0.4613219562898686</v>
       </c>
     </row>
     <row r="53">
@@ -7489,16 +7489,16 @@
         <v>52.0</v>
       </c>
       <c r="G53" t="n" s="304">
-        <v>0.6295660302247156</v>
+        <v>0.6295660302247174</v>
       </c>
       <c r="H53" t="n" s="305">
-        <v>0.057429744918956804</v>
+        <v>0.057429744918960524</v>
       </c>
       <c r="I53" t="n" s="306">
-        <v>0.5892120235896073</v>
+        <v>0.5892120235896074</v>
       </c>
       <c r="J53" t="n" s="307">
-        <v>0.016164803727652388</v>
+        <v>0.016164803727654387</v>
       </c>
     </row>
     <row r="54">
@@ -7521,16 +7521,16 @@
         <v>53.0</v>
       </c>
       <c r="G54" t="n" s="304">
-        <v>0.8857779565563784</v>
+        <v>0.8857779565563797</v>
       </c>
       <c r="H54" t="n" s="305">
-        <v>0.31072467434567796</v>
+        <v>0.31072467434568035</v>
       </c>
       <c r="I54" t="n" s="306">
-        <v>0.6674561477884673</v>
+        <v>0.667456147788467</v>
       </c>
       <c r="J54" t="n" s="307">
-        <v>0.10289309523931356</v>
+        <v>0.10289309523931484</v>
       </c>
     </row>
     <row r="55">
@@ -7553,16 +7553,16 @@
         <v>54.0</v>
       </c>
       <c r="G55" t="n" s="304">
-        <v>0.13423022721976158</v>
+        <v>0.13423022721976088</v>
       </c>
       <c r="H55" t="n" s="305">
-        <v>-0.25566338830626845</v>
+        <v>-0.25566338830626745</v>
       </c>
       <c r="I55" t="n" s="306">
-        <v>0.1491698637705762</v>
+        <v>0.1491698637705754</v>
       </c>
       <c r="J55" t="n" s="307">
-        <v>-0.24746049870785825</v>
+        <v>-0.2474604987078569</v>
       </c>
     </row>
     <row r="56">
@@ -7585,16 +7585,16 @@
         <v>55.0</v>
       </c>
       <c r="G56" t="n" s="304">
-        <v>0.13423022721976158</v>
+        <v>0.13423022721976088</v>
       </c>
       <c r="H56" t="n" s="305">
-        <v>-0.25566338830626845</v>
+        <v>-0.25566338830626745</v>
       </c>
       <c r="I56" t="n" s="306">
-        <v>0.1491698637705762</v>
+        <v>0.1491698637705754</v>
       </c>
       <c r="J56" t="n" s="307">
-        <v>-0.24746049870785825</v>
+        <v>-0.2474604987078569</v>
       </c>
     </row>
   </sheetData>
@@ -7680,7 +7680,7 @@
         <v>2.0</v>
       </c>
       <c r="F2" t="n" s="319">
-        <v>1.0</v>
+        <v>10169.0</v>
       </c>
       <c r="G2" t="n" s="320">
         <v>4.0</v>
@@ -7692,13 +7692,13 @@
         <v>20.0</v>
       </c>
       <c r="J2" t="n" s="323">
-        <v>0.9437180883293658</v>
+        <v>0.9437180883293642</v>
       </c>
       <c r="K2" t="n" s="324">
-        <v>0.4172439054410634</v>
+        <v>0.4172439054410631</v>
       </c>
       <c r="L2" t="n" s="325">
-        <v>0.12685064616009623</v>
+        <v>0.12685064616009878</v>
       </c>
     </row>
     <row r="3">
@@ -7718,7 +7718,7 @@
         <v>1.0</v>
       </c>
       <c r="F3" t="n" s="319">
-        <v>2.0</v>
+        <v>10170.0</v>
       </c>
       <c r="G3" t="n" s="320">
         <v>4.0</v>
@@ -7730,13 +7730,13 @@
         <v>20.0</v>
       </c>
       <c r="J3" t="n" s="323">
-        <v>-0.7934661253532909</v>
+        <v>-0.7934661253532934</v>
       </c>
       <c r="K3" t="n" s="324">
-        <v>1.2578944823605007</v>
+        <v>1.257894482360499</v>
       </c>
       <c r="L3" t="n" s="325">
-        <v>0.12685064616009623</v>
+        <v>0.12685064616009878</v>
       </c>
     </row>
     <row r="4">
@@ -7756,7 +7756,7 @@
         <v>1.0</v>
       </c>
       <c r="F4" t="n" s="319">
-        <v>3.0</v>
+        <v>10171.0</v>
       </c>
       <c r="G4" t="n" s="320">
         <v>4.0</v>
@@ -7768,13 +7768,13 @@
         <v>20.0</v>
       </c>
       <c r="J4" t="n" s="323">
-        <v>0.12664853824431774</v>
+        <v>0.12664853824431546</v>
       </c>
       <c r="K4" t="n" s="324">
-        <v>0.7110668526850698</v>
+        <v>0.7110668526850701</v>
       </c>
       <c r="L4" t="n" s="325">
-        <v>0.12685064616009623</v>
+        <v>0.12685064616009878</v>
       </c>
     </row>
     <row r="5">
@@ -7794,7 +7794,7 @@
         <v>1.0</v>
       </c>
       <c r="F5" t="n" s="319">
-        <v>4.0</v>
+        <v>10172.0</v>
       </c>
       <c r="G5" t="n" s="320">
         <v>4.0</v>
@@ -7806,13 +7806,13 @@
         <v>20.0</v>
       </c>
       <c r="J5" t="n" s="323">
-        <v>-0.7934661253532909</v>
+        <v>-0.7934661253532934</v>
       </c>
       <c r="K5" t="n" s="324">
-        <v>1.2578944823605007</v>
+        <v>1.257894482360499</v>
       </c>
       <c r="L5" t="n" s="325">
-        <v>0.12685064616009623</v>
+        <v>0.12685064616009878</v>
       </c>
     </row>
     <row r="6">
@@ -7832,7 +7832,7 @@
         <v>1.0</v>
       </c>
       <c r="F6" t="n" s="319">
-        <v>5.0</v>
+        <v>10174.0</v>
       </c>
       <c r="G6" t="n" s="320">
         <v>4.0</v>
@@ -7844,13 +7844,13 @@
         <v>20.0</v>
       </c>
       <c r="J6" t="n" s="323">
-        <v>0.12664853824431774</v>
+        <v>0.12664853824431546</v>
       </c>
       <c r="K6" t="n" s="324">
-        <v>0.7110668526850698</v>
+        <v>0.7110668526850701</v>
       </c>
       <c r="L6" t="n" s="325">
-        <v>0.12685064616009623</v>
+        <v>0.12685064616009878</v>
       </c>
     </row>
     <row r="7">
@@ -7870,7 +7870,7 @@
         <v>1.0</v>
       </c>
       <c r="F7" t="n" s="319">
-        <v>6.0</v>
+        <v>10175.0</v>
       </c>
       <c r="G7" t="n" s="320">
         <v>4.0</v>
@@ -7882,13 +7882,13 @@
         <v>20.0</v>
       </c>
       <c r="J7" t="n" s="323">
-        <v>-0.7934661253532909</v>
+        <v>-0.7934661253532934</v>
       </c>
       <c r="K7" t="n" s="324">
-        <v>1.2578944823605007</v>
+        <v>1.257894482360499</v>
       </c>
       <c r="L7" t="n" s="325">
-        <v>0.12685064616009623</v>
+        <v>0.12685064616009878</v>
       </c>
     </row>
     <row r="8">
@@ -7908,7 +7908,7 @@
         <v>2.0</v>
       </c>
       <c r="F8" t="n" s="319">
-        <v>7.0</v>
+        <v>10176.0</v>
       </c>
       <c r="G8" t="n" s="320">
         <v>4.0</v>
@@ -7920,13 +7920,13 @@
         <v>20.0</v>
       </c>
       <c r="J8" t="n" s="323">
-        <v>1.4955482472097028</v>
+        <v>1.4955482472097017</v>
       </c>
       <c r="K8" t="n" s="324">
-        <v>0.36424532576674445</v>
+        <v>0.3642453257667448</v>
       </c>
       <c r="L8" t="n" s="325">
-        <v>0.12685064616009623</v>
+        <v>0.12685064616009878</v>
       </c>
     </row>
     <row r="9">
@@ -7946,7 +7946,7 @@
         <v>1.0</v>
       </c>
       <c r="F9" t="n" s="319">
-        <v>8.0</v>
+        <v>10178.0</v>
       </c>
       <c r="G9" t="n" s="320">
         <v>4.0</v>
@@ -7958,13 +7958,13 @@
         <v>20.0</v>
       </c>
       <c r="J9" t="n" s="323">
-        <v>1.0852985770494814</v>
+        <v>1.0852985770494805</v>
       </c>
       <c r="K9" t="n" s="324">
-        <v>0.3880758967778746</v>
+        <v>0.38807589677787446</v>
       </c>
       <c r="L9" t="n" s="325">
-        <v>0.12685064616009623</v>
+        <v>0.12685064616009878</v>
       </c>
     </row>
     <row r="10">
@@ -7984,7 +7984,7 @@
         <v>2.0</v>
       </c>
       <c r="F10" t="n" s="319">
-        <v>9.0</v>
+        <v>10179.0</v>
       </c>
       <c r="G10" t="n" s="320">
         <v>4.0</v>
@@ -7996,13 +7996,13 @@
         <v>20.0</v>
       </c>
       <c r="J10" t="n" s="323">
-        <v>0.9437180883293658</v>
+        <v>0.9437180883293642</v>
       </c>
       <c r="K10" t="n" s="324">
-        <v>0.4172439054410634</v>
+        <v>0.4172439054410631</v>
       </c>
       <c r="L10" t="n" s="325">
-        <v>0.12685064616009623</v>
+        <v>0.12685064616009878</v>
       </c>
     </row>
     <row r="11">
@@ -8022,7 +8022,7 @@
         <v>1.0</v>
       </c>
       <c r="F11" t="n" s="319">
-        <v>10.0</v>
+        <v>10181.0</v>
       </c>
       <c r="G11" t="n" s="320">
         <v>4.0</v>
@@ -8034,13 +8034,13 @@
         <v>20.0</v>
       </c>
       <c r="J11" t="n" s="323">
-        <v>-0.7934661253532909</v>
+        <v>-0.7934661253532934</v>
       </c>
       <c r="K11" t="n" s="324">
-        <v>1.2578944823605007</v>
+        <v>1.257894482360499</v>
       </c>
       <c r="L11" t="n" s="325">
-        <v>0.12685064616009623</v>
+        <v>0.12685064616009878</v>
       </c>
     </row>
     <row r="12">
@@ -8060,7 +8060,7 @@
         <v>3.0</v>
       </c>
       <c r="F12" t="n" s="319">
-        <v>11.0</v>
+        <v>10183.0</v>
       </c>
       <c r="G12" t="n" s="320">
         <v>4.0</v>
@@ -8072,13 +8072,13 @@
         <v>20.0</v>
       </c>
       <c r="J12" t="n" s="323">
-        <v>1.4955482472097028</v>
+        <v>1.4955482472097017</v>
       </c>
       <c r="K12" t="n" s="324">
-        <v>0.36424532576674445</v>
+        <v>0.3642453257667448</v>
       </c>
       <c r="L12" t="n" s="325">
-        <v>0.12685064616009623</v>
+        <v>0.12685064616009878</v>
       </c>
     </row>
     <row r="13">
@@ -8098,7 +8098,7 @@
         <v>1.0</v>
       </c>
       <c r="F13" t="n" s="319">
-        <v>12.0</v>
+        <v>10184.0</v>
       </c>
       <c r="G13" t="n" s="320">
         <v>4.0</v>
@@ -8110,13 +8110,13 @@
         <v>20.0</v>
       </c>
       <c r="J13" t="n" s="323">
-        <v>1.0852985770494814</v>
+        <v>1.0852985770494805</v>
       </c>
       <c r="K13" t="n" s="324">
-        <v>0.3880758967778746</v>
+        <v>0.38807589677787446</v>
       </c>
       <c r="L13" t="n" s="325">
-        <v>0.12685064616009623</v>
+        <v>0.12685064616009878</v>
       </c>
     </row>
     <row r="14">
@@ -8136,7 +8136,7 @@
         <v>3.0</v>
       </c>
       <c r="F14" t="n" s="319">
-        <v>13.0</v>
+        <v>10185.0</v>
       </c>
       <c r="G14" t="n" s="320">
         <v>4.0</v>
@@ -8148,13 +8148,13 @@
         <v>20.0</v>
       </c>
       <c r="J14" t="n" s="323">
-        <v>1.0852985770494814</v>
+        <v>1.0852985770494805</v>
       </c>
       <c r="K14" t="n" s="324">
-        <v>0.3880758967778746</v>
+        <v>0.38807589677787446</v>
       </c>
       <c r="L14" t="n" s="325">
-        <v>0.12685064616009623</v>
+        <v>0.12685064616009878</v>
       </c>
     </row>
     <row r="15">
@@ -8174,7 +8174,7 @@
         <v>3.0</v>
       </c>
       <c r="F15" t="n" s="319">
-        <v>14.0</v>
+        <v>10186.0</v>
       </c>
       <c r="G15" t="n" s="320">
         <v>4.0</v>
@@ -8186,13 +8186,13 @@
         <v>20.0</v>
       </c>
       <c r="J15" t="n" s="323">
-        <v>1.425190984098898</v>
+        <v>1.4251909840988968</v>
       </c>
       <c r="K15" t="n" s="324">
         <v>0.3613676347397503</v>
       </c>
       <c r="L15" t="n" s="325">
-        <v>0.12685064616009623</v>
+        <v>0.12685064616009878</v>
       </c>
     </row>
     <row r="16">
@@ -8212,7 +8212,7 @@
         <v>1.0</v>
       </c>
       <c r="F16" t="n" s="319">
-        <v>15.0</v>
+        <v>10187.0</v>
       </c>
       <c r="G16" t="n" s="320">
         <v>4.0</v>
@@ -8224,13 +8224,13 @@
         <v>20.0</v>
       </c>
       <c r="J16" t="n" s="323">
-        <v>1.654552138946047</v>
+        <v>1.6545521389460465</v>
       </c>
       <c r="K16" t="n" s="324">
-        <v>0.380440049074938</v>
+        <v>0.3804400490749384</v>
       </c>
       <c r="L16" t="n" s="325">
-        <v>0.12685064616009623</v>
+        <v>0.12685064616009878</v>
       </c>
     </row>
     <row r="17">
@@ -8250,7 +8250,7 @@
         <v>1.0</v>
       </c>
       <c r="F17" t="n" s="319">
-        <v>16.0</v>
+        <v>10188.0</v>
       </c>
       <c r="G17" t="n" s="320">
         <v>4.0</v>
@@ -8262,13 +8262,13 @@
         <v>20.0</v>
       </c>
       <c r="J17" t="n" s="323">
-        <v>0.5179254768634495</v>
+        <v>0.5179254768634486</v>
       </c>
       <c r="K17" t="n" s="324">
         <v>0.5481437876895058</v>
       </c>
       <c r="L17" t="n" s="325">
-        <v>0.12685064616009623</v>
+        <v>0.12685064616009878</v>
       </c>
     </row>
     <row r="18">
@@ -8288,7 +8288,7 @@
         <v>2.0</v>
       </c>
       <c r="F18" t="n" s="319">
-        <v>17.0</v>
+        <v>10189.0</v>
       </c>
       <c r="G18" t="n" s="320">
         <v>4.0</v>
@@ -8300,13 +8300,13 @@
         <v>20.0</v>
       </c>
       <c r="J18" t="n" s="323">
-        <v>1.654552138946047</v>
+        <v>1.6545521389460465</v>
       </c>
       <c r="K18" t="n" s="324">
-        <v>0.380440049074938</v>
+        <v>0.3804400490749384</v>
       </c>
       <c r="L18" t="n" s="325">
-        <v>0.12685064616009623</v>
+        <v>0.12685064616009878</v>
       </c>
     </row>
     <row r="19">
@@ -8326,7 +8326,7 @@
         <v>2.0</v>
       </c>
       <c r="F19" t="n" s="319">
-        <v>18.0</v>
+        <v>10190.0</v>
       </c>
       <c r="G19" t="n" s="320">
         <v>4.0</v>
@@ -8338,13 +8338,13 @@
         <v>20.0</v>
       </c>
       <c r="J19" t="n" s="323">
-        <v>0.7651020965284727</v>
+        <v>0.7651020965284714</v>
       </c>
       <c r="K19" t="n" s="324">
-        <v>0.4654349637541245</v>
+        <v>0.4654349637541247</v>
       </c>
       <c r="L19" t="n" s="325">
-        <v>0.12685064616009623</v>
+        <v>0.12685064616009878</v>
       </c>
     </row>
     <row r="20">
@@ -8364,7 +8364,7 @@
         <v>1.0</v>
       </c>
       <c r="F20" t="n" s="319">
-        <v>19.0</v>
+        <v>10191.0</v>
       </c>
       <c r="G20" t="n" s="320">
         <v>4.0</v>
@@ -8376,13 +8376,13 @@
         <v>20.0</v>
       </c>
       <c r="J20" t="n" s="323">
-        <v>0.12664853824431774</v>
+        <v>0.12664853824431546</v>
       </c>
       <c r="K20" t="n" s="324">
-        <v>0.7110668526850698</v>
+        <v>0.7110668526850701</v>
       </c>
       <c r="L20" t="n" s="325">
-        <v>0.12685064616009623</v>
+        <v>0.12685064616009878</v>
       </c>
     </row>
     <row r="21">
@@ -8402,7 +8402,7 @@
         <v>1.0</v>
       </c>
       <c r="F21" t="n" s="319">
-        <v>20.0</v>
+        <v>10192.0</v>
       </c>
       <c r="G21" t="n" s="320">
         <v>4.0</v>
@@ -8414,13 +8414,13 @@
         <v>20.0</v>
       </c>
       <c r="J21" t="n" s="323">
-        <v>-0.7934661253532909</v>
+        <v>-0.7934661253532934</v>
       </c>
       <c r="K21" t="n" s="324">
-        <v>1.2578944823605007</v>
+        <v>1.257894482360499</v>
       </c>
       <c r="L21" t="n" s="325">
-        <v>0.12685064616009623</v>
+        <v>0.12685064616009878</v>
       </c>
     </row>
     <row r="22">
@@ -8440,7 +8440,7 @@
         <v>1.0</v>
       </c>
       <c r="F22" t="n" s="319">
-        <v>21.0</v>
+        <v>10193.0</v>
       </c>
       <c r="G22" t="n" s="320">
         <v>4.0</v>
@@ -8452,13 +8452,13 @@
         <v>20.0</v>
       </c>
       <c r="J22" t="n" s="323">
-        <v>0.12664853824431774</v>
+        <v>0.12664853824431546</v>
       </c>
       <c r="K22" t="n" s="324">
-        <v>0.7110668526850698</v>
+        <v>0.7110668526850701</v>
       </c>
       <c r="L22" t="n" s="325">
-        <v>0.12685064616009623</v>
+        <v>0.12685064616009878</v>
       </c>
     </row>
     <row r="23">
@@ -8478,7 +8478,7 @@
         <v>1.0</v>
       </c>
       <c r="F23" t="n" s="319">
-        <v>22.0</v>
+        <v>10195.0</v>
       </c>
       <c r="G23" t="n" s="320">
         <v>4.0</v>
@@ -8490,13 +8490,13 @@
         <v>20.0</v>
       </c>
       <c r="J23" t="n" s="323">
-        <v>-0.7934661253532909</v>
+        <v>-0.7934661253532934</v>
       </c>
       <c r="K23" t="n" s="324">
-        <v>1.2578944823605007</v>
+        <v>1.257894482360499</v>
       </c>
       <c r="L23" t="n" s="325">
-        <v>0.12685064616009623</v>
+        <v>0.12685064616009878</v>
       </c>
     </row>
     <row r="24">
@@ -8516,7 +8516,7 @@
         <v>1.0</v>
       </c>
       <c r="F24" t="n" s="319">
-        <v>23.0</v>
+        <v>10196.0</v>
       </c>
       <c r="G24" t="n" s="320">
         <v>4.0</v>
@@ -8528,13 +8528,13 @@
         <v>20.0</v>
       </c>
       <c r="J24" t="n" s="323">
-        <v>-0.7934661253532909</v>
+        <v>-0.7934661253532934</v>
       </c>
       <c r="K24" t="n" s="324">
-        <v>1.2578944823605007</v>
+        <v>1.257894482360499</v>
       </c>
       <c r="L24" t="n" s="325">
-        <v>0.12685064616009623</v>
+        <v>0.12685064616009878</v>
       </c>
     </row>
     <row r="25">
@@ -8554,7 +8554,7 @@
         <v>1.0</v>
       </c>
       <c r="F25" t="n" s="319">
-        <v>24.0</v>
+        <v>10197.0</v>
       </c>
       <c r="G25" t="n" s="320">
         <v>4.0</v>
@@ -8566,13 +8566,13 @@
         <v>20.0</v>
       </c>
       <c r="J25" t="n" s="323">
-        <v>-0.7934661253532909</v>
+        <v>-0.7934661253532934</v>
       </c>
       <c r="K25" t="n" s="324">
-        <v>1.2578944823605007</v>
+        <v>1.257894482360499</v>
       </c>
       <c r="L25" t="n" s="325">
-        <v>0.12685064616009623</v>
+        <v>0.12685064616009878</v>
       </c>
     </row>
     <row r="26">
@@ -8592,7 +8592,7 @@
         <v>1.0</v>
       </c>
       <c r="F26" t="n" s="319">
-        <v>25.0</v>
+        <v>10198.0</v>
       </c>
       <c r="G26" t="n" s="320">
         <v>4.0</v>
@@ -8604,13 +8604,13 @@
         <v>20.0</v>
       </c>
       <c r="J26" t="n" s="323">
-        <v>-0.7934661253532909</v>
+        <v>-0.7934661253532934</v>
       </c>
       <c r="K26" t="n" s="324">
-        <v>1.2578944823605007</v>
+        <v>1.257894482360499</v>
       </c>
       <c r="L26" t="n" s="325">
-        <v>0.12685064616009623</v>
+        <v>0.12685064616009878</v>
       </c>
     </row>
     <row r="27">
@@ -8630,7 +8630,7 @@
         <v>1.0</v>
       </c>
       <c r="F27" t="n" s="319">
-        <v>26.0</v>
+        <v>10199.0</v>
       </c>
       <c r="G27" t="n" s="320">
         <v>4.0</v>
@@ -8642,13 +8642,13 @@
         <v>20.0</v>
       </c>
       <c r="J27" t="n" s="323">
-        <v>1.4955482472097028</v>
+        <v>1.4955482472097017</v>
       </c>
       <c r="K27" t="n" s="324">
-        <v>0.36424532576674445</v>
+        <v>0.3642453257667448</v>
       </c>
       <c r="L27" t="n" s="325">
-        <v>0.12685064616009623</v>
+        <v>0.12685064616009878</v>
       </c>
     </row>
     <row r="28">
@@ -8668,7 +8668,7 @@
         <v>1.0</v>
       </c>
       <c r="F28" t="n" s="319">
-        <v>27.0</v>
+        <v>10200.0</v>
       </c>
       <c r="G28" t="n" s="320">
         <v>4.0</v>
@@ -8680,13 +8680,13 @@
         <v>20.0</v>
       </c>
       <c r="J28" t="n" s="323">
-        <v>-0.7934661253532909</v>
+        <v>-0.7934661253532934</v>
       </c>
       <c r="K28" t="n" s="324">
-        <v>1.2578944823605007</v>
+        <v>1.257894482360499</v>
       </c>
       <c r="L28" t="n" s="325">
-        <v>0.12685064616009623</v>
+        <v>0.12685064616009878</v>
       </c>
     </row>
     <row r="29">
@@ -8706,7 +8706,7 @@
         <v>1.0</v>
       </c>
       <c r="F29" t="n" s="319">
-        <v>28.0</v>
+        <v>10201.0</v>
       </c>
       <c r="G29" t="n" s="320">
         <v>4.0</v>
@@ -8718,13 +8718,13 @@
         <v>20.0</v>
       </c>
       <c r="J29" t="n" s="323">
-        <v>0.9437180883293658</v>
+        <v>0.9437180883293642</v>
       </c>
       <c r="K29" t="n" s="324">
-        <v>0.4172439054410634</v>
+        <v>0.4172439054410631</v>
       </c>
       <c r="L29" t="n" s="325">
-        <v>0.12685064616009623</v>
+        <v>0.12685064616009878</v>
       </c>
     </row>
     <row r="30">
@@ -8744,7 +8744,7 @@
         <v>1.0</v>
       </c>
       <c r="F30" t="n" s="319">
-        <v>29.0</v>
+        <v>10203.0</v>
       </c>
       <c r="G30" t="n" s="320">
         <v>4.0</v>
@@ -8756,13 +8756,13 @@
         <v>20.0</v>
       </c>
       <c r="J30" t="n" s="323">
-        <v>0.12664853824431774</v>
+        <v>0.12664853824431546</v>
       </c>
       <c r="K30" t="n" s="324">
-        <v>0.7110668526850698</v>
+        <v>0.7110668526850701</v>
       </c>
       <c r="L30" t="n" s="325">
-        <v>0.12685064616009623</v>
+        <v>0.12685064616009878</v>
       </c>
     </row>
     <row r="31">
@@ -8782,7 +8782,7 @@
         <v>1.0</v>
       </c>
       <c r="F31" t="n" s="319">
-        <v>30.0</v>
+        <v>10204.0</v>
       </c>
       <c r="G31" t="n" s="320">
         <v>4.0</v>
@@ -8794,13 +8794,13 @@
         <v>20.0</v>
       </c>
       <c r="J31" t="n" s="323">
-        <v>-0.7934661253532909</v>
+        <v>-0.7934661253532934</v>
       </c>
       <c r="K31" t="n" s="324">
-        <v>1.2578944823605007</v>
+        <v>1.257894482360499</v>
       </c>
       <c r="L31" t="n" s="325">
-        <v>0.12685064616009623</v>
+        <v>0.12685064616009878</v>
       </c>
     </row>
     <row r="32">
@@ -8820,7 +8820,7 @@
         <v>2.0</v>
       </c>
       <c r="F32" t="n" s="319">
-        <v>31.0</v>
+        <v>10206.0</v>
       </c>
       <c r="G32" t="n" s="320">
         <v>4.0</v>
@@ -8832,13 +8832,13 @@
         <v>20.0</v>
       </c>
       <c r="J32" t="n" s="323">
-        <v>1.654552138946047</v>
+        <v>1.6545521389460465</v>
       </c>
       <c r="K32" t="n" s="324">
-        <v>0.380440049074938</v>
+        <v>0.3804400490749384</v>
       </c>
       <c r="L32" t="n" s="325">
-        <v>0.12685064616009623</v>
+        <v>0.12685064616009878</v>
       </c>
     </row>
     <row r="33">
@@ -8858,7 +8858,7 @@
         <v>1.0</v>
       </c>
       <c r="F33" t="n" s="319">
-        <v>32.0</v>
+        <v>10208.0</v>
       </c>
       <c r="G33" t="n" s="320">
         <v>4.0</v>
@@ -8870,13 +8870,13 @@
         <v>20.0</v>
       </c>
       <c r="J33" t="n" s="323">
-        <v>0.7651020965284727</v>
+        <v>0.7651020965284714</v>
       </c>
       <c r="K33" t="n" s="324">
-        <v>0.4654349637541245</v>
+        <v>0.4654349637541247</v>
       </c>
       <c r="L33" t="n" s="325">
-        <v>0.12685064616009623</v>
+        <v>0.12685064616009878</v>
       </c>
     </row>
     <row r="34">
@@ -8896,7 +8896,7 @@
         <v>1.0</v>
       </c>
       <c r="F34" t="n" s="319">
-        <v>33.0</v>
+        <v>10209.0</v>
       </c>
       <c r="G34" t="n" s="320">
         <v>4.0</v>
@@ -8908,13 +8908,13 @@
         <v>20.0</v>
       </c>
       <c r="J34" t="n" s="323">
-        <v>-0.7934661253532909</v>
+        <v>-0.7934661253532934</v>
       </c>
       <c r="K34" t="n" s="324">
-        <v>1.2578944823605007</v>
+        <v>1.257894482360499</v>
       </c>
       <c r="L34" t="n" s="325">
-        <v>0.12685064616009623</v>
+        <v>0.12685064616009878</v>
       </c>
     </row>
     <row r="35">
@@ -8934,7 +8934,7 @@
         <v>3.0</v>
       </c>
       <c r="F35" t="n" s="319">
-        <v>34.0</v>
+        <v>10211.0</v>
       </c>
       <c r="G35" t="n" s="320">
         <v>4.0</v>
@@ -8946,13 +8946,13 @@
         <v>20.0</v>
       </c>
       <c r="J35" t="n" s="323">
-        <v>0.9437180883293658</v>
+        <v>0.9437180883293642</v>
       </c>
       <c r="K35" t="n" s="324">
-        <v>0.4172439054410634</v>
+        <v>0.4172439054410631</v>
       </c>
       <c r="L35" t="n" s="325">
-        <v>0.12685064616009623</v>
+        <v>0.12685064616009878</v>
       </c>
     </row>
     <row r="36">
@@ -8972,7 +8972,7 @@
         <v>2.0</v>
       </c>
       <c r="F36" t="n" s="319">
-        <v>35.0</v>
+        <v>10212.0</v>
       </c>
       <c r="G36" t="n" s="320">
         <v>4.0</v>
@@ -8984,13 +8984,13 @@
         <v>20.0</v>
       </c>
       <c r="J36" t="n" s="323">
-        <v>1.2065867323712804</v>
+        <v>1.20658673237128</v>
       </c>
       <c r="K36" t="n" s="324">
-        <v>0.37096628125104253</v>
+        <v>0.3709662812510424</v>
       </c>
       <c r="L36" t="n" s="325">
-        <v>0.12685064616009623</v>
+        <v>0.12685064616009878</v>
       </c>
     </row>
     <row r="37">
@@ -9010,7 +9010,7 @@
         <v>1.0</v>
       </c>
       <c r="F37" t="n" s="319">
-        <v>36.0</v>
+        <v>10213.0</v>
       </c>
       <c r="G37" t="n" s="320">
         <v>4.0</v>
@@ -9022,13 +9022,13 @@
         <v>20.0</v>
       </c>
       <c r="J37" t="n" s="323">
-        <v>-0.7934661253532909</v>
+        <v>-0.7934661253532934</v>
       </c>
       <c r="K37" t="n" s="324">
-        <v>1.2578944823605007</v>
+        <v>1.257894482360499</v>
       </c>
       <c r="L37" t="n" s="325">
-        <v>0.12685064616009623</v>
+        <v>0.12685064616009878</v>
       </c>
     </row>
     <row r="38">
@@ -9048,7 +9048,7 @@
         <v>2.0</v>
       </c>
       <c r="F38" t="n" s="319">
-        <v>37.0</v>
+        <v>10214.0</v>
       </c>
       <c r="G38" t="n" s="320">
         <v>4.0</v>
@@ -9060,13 +9060,13 @@
         <v>20.0</v>
       </c>
       <c r="J38" t="n" s="323">
-        <v>0.9437180883293658</v>
+        <v>0.9437180883293642</v>
       </c>
       <c r="K38" t="n" s="324">
-        <v>0.4172439054410634</v>
+        <v>0.4172439054410631</v>
       </c>
       <c r="L38" t="n" s="325">
-        <v>0.12685064616009623</v>
+        <v>0.12685064616009878</v>
       </c>
     </row>
     <row r="39">
@@ -9086,7 +9086,7 @@
         <v>1.0</v>
       </c>
       <c r="F39" t="n" s="319">
-        <v>38.0</v>
+        <v>10215.0</v>
       </c>
       <c r="G39" t="n" s="320">
         <v>4.0</v>
@@ -9098,13 +9098,13 @@
         <v>20.0</v>
       </c>
       <c r="J39" t="n" s="323">
-        <v>-0.7934661253532909</v>
+        <v>-0.7934661253532934</v>
       </c>
       <c r="K39" t="n" s="324">
-        <v>1.2578944823605007</v>
+        <v>1.257894482360499</v>
       </c>
       <c r="L39" t="n" s="325">
-        <v>0.12685064616009623</v>
+        <v>0.12685064616009878</v>
       </c>
     </row>
     <row r="40">
@@ -9124,7 +9124,7 @@
         <v>1.0</v>
       </c>
       <c r="F40" t="n" s="319">
-        <v>39.0</v>
+        <v>10216.0</v>
       </c>
       <c r="G40" t="n" s="320">
         <v>4.0</v>
@@ -9136,13 +9136,13 @@
         <v>20.0</v>
       </c>
       <c r="J40" t="n" s="323">
-        <v>0.12664853824431774</v>
+        <v>0.12664853824431546</v>
       </c>
       <c r="K40" t="n" s="324">
-        <v>0.7110668526850698</v>
+        <v>0.7110668526850701</v>
       </c>
       <c r="L40" t="n" s="325">
-        <v>0.12685064616009623</v>
+        <v>0.12685064616009878</v>
       </c>
     </row>
     <row r="41">
@@ -9162,7 +9162,7 @@
         <v>1.0</v>
       </c>
       <c r="F41" t="n" s="319">
-        <v>40.0</v>
+        <v>10217.0</v>
       </c>
       <c r="G41" t="n" s="320">
         <v>4.0</v>
@@ -9174,13 +9174,13 @@
         <v>20.0</v>
       </c>
       <c r="J41" t="n" s="323">
-        <v>-0.7934661253532909</v>
+        <v>-0.7934661253532934</v>
       </c>
       <c r="K41" t="n" s="324">
-        <v>1.2578944823605007</v>
+        <v>1.257894482360499</v>
       </c>
       <c r="L41" t="n" s="325">
-        <v>0.12685064616009623</v>
+        <v>0.12685064616009878</v>
       </c>
     </row>
     <row r="42">
@@ -9200,7 +9200,7 @@
         <v>2.0</v>
       </c>
       <c r="F42" t="n" s="319">
-        <v>41.0</v>
+        <v>10218.0</v>
       </c>
       <c r="G42" t="n" s="320">
         <v>4.0</v>
@@ -9212,13 +9212,13 @@
         <v>20.0</v>
       </c>
       <c r="J42" t="n" s="323">
-        <v>1.654552138946047</v>
+        <v>1.6545521389460465</v>
       </c>
       <c r="K42" t="n" s="324">
-        <v>0.380440049074938</v>
+        <v>0.3804400490749384</v>
       </c>
       <c r="L42" t="n" s="325">
-        <v>0.12685064616009623</v>
+        <v>0.12685064616009878</v>
       </c>
     </row>
     <row r="43">
@@ -9238,7 +9238,7 @@
         <v>1.0</v>
       </c>
       <c r="F43" t="n" s="319">
-        <v>42.0</v>
+        <v>10219.0</v>
       </c>
       <c r="G43" t="n" s="320">
         <v>4.0</v>
@@ -9250,13 +9250,13 @@
         <v>20.0</v>
       </c>
       <c r="J43" t="n" s="323">
-        <v>-0.7934661253532909</v>
+        <v>-0.7934661253532934</v>
       </c>
       <c r="K43" t="n" s="324">
-        <v>1.2578944823605007</v>
+        <v>1.257894482360499</v>
       </c>
       <c r="L43" t="n" s="325">
-        <v>0.12685064616009623</v>
+        <v>0.12685064616009878</v>
       </c>
     </row>
     <row r="44">
@@ -9276,7 +9276,7 @@
         <v>1.0</v>
       </c>
       <c r="F44" t="n" s="319">
-        <v>43.0</v>
+        <v>10220.0</v>
       </c>
       <c r="G44" t="n" s="320">
         <v>4.0</v>
@@ -9288,13 +9288,13 @@
         <v>20.0</v>
       </c>
       <c r="J44" t="n" s="323">
-        <v>-0.7934661253532909</v>
+        <v>-0.7934661253532934</v>
       </c>
       <c r="K44" t="n" s="324">
-        <v>1.2578944823605007</v>
+        <v>1.257894482360499</v>
       </c>
       <c r="L44" t="n" s="325">
-        <v>0.12685064616009623</v>
+        <v>0.12685064616009878</v>
       </c>
     </row>
     <row r="45">
@@ -9314,7 +9314,7 @@
         <v>1.0</v>
       </c>
       <c r="F45" t="n" s="319">
-        <v>44.0</v>
+        <v>10221.0</v>
       </c>
       <c r="G45" t="n" s="320">
         <v>4.0</v>
@@ -9326,13 +9326,13 @@
         <v>20.0</v>
       </c>
       <c r="J45" t="n" s="323">
-        <v>-0.7934661253532909</v>
+        <v>-0.7934661253532934</v>
       </c>
       <c r="K45" t="n" s="324">
-        <v>1.2578944823605007</v>
+        <v>1.257894482360499</v>
       </c>
       <c r="L45" t="n" s="325">
-        <v>0.12685064616009623</v>
+        <v>0.12685064616009878</v>
       </c>
     </row>
     <row r="46">
@@ -9352,7 +9352,7 @@
         <v>1.0</v>
       </c>
       <c r="F46" t="n" s="319">
-        <v>45.0</v>
+        <v>10223.0</v>
       </c>
       <c r="G46" t="n" s="320">
         <v>4.0</v>
@@ -9364,13 +9364,13 @@
         <v>20.0</v>
       </c>
       <c r="J46" t="n" s="323">
-        <v>0.12664853824431774</v>
+        <v>0.12664853824431546</v>
       </c>
       <c r="K46" t="n" s="324">
-        <v>0.7110668526850698</v>
+        <v>0.7110668526850701</v>
       </c>
       <c r="L46" t="n" s="325">
-        <v>0.12685064616009623</v>
+        <v>0.12685064616009878</v>
       </c>
     </row>
     <row r="47">
@@ -9390,7 +9390,7 @@
         <v>3.0</v>
       </c>
       <c r="F47" t="n" s="319">
-        <v>46.0</v>
+        <v>10224.0</v>
       </c>
       <c r="G47" t="n" s="320">
         <v>4.0</v>
@@ -9402,13 +9402,13 @@
         <v>20.0</v>
       </c>
       <c r="J47" t="n" s="323">
-        <v>0.5179254768634495</v>
+        <v>0.5179254768634486</v>
       </c>
       <c r="K47" t="n" s="324">
         <v>0.5481437876895058</v>
       </c>
       <c r="L47" t="n" s="325">
-        <v>0.12685064616009623</v>
+        <v>0.12685064616009878</v>
       </c>
     </row>
     <row r="48">
@@ -9428,7 +9428,7 @@
         <v>3.0</v>
       </c>
       <c r="F48" t="n" s="319">
-        <v>47.0</v>
+        <v>10226.0</v>
       </c>
       <c r="G48" t="n" s="320">
         <v>4.0</v>
@@ -9440,13 +9440,13 @@
         <v>20.0</v>
       </c>
       <c r="J48" t="n" s="323">
-        <v>0.5179254768634495</v>
+        <v>0.5179254768634486</v>
       </c>
       <c r="K48" t="n" s="324">
         <v>0.5481437876895058</v>
       </c>
       <c r="L48" t="n" s="325">
-        <v>0.12685064616009623</v>
+        <v>0.12685064616009878</v>
       </c>
     </row>
     <row r="49">
@@ -9466,7 +9466,7 @@
         <v>4.0</v>
       </c>
       <c r="F49" t="n" s="319">
-        <v>48.0</v>
+        <v>10228.0</v>
       </c>
       <c r="G49" t="n" s="320">
         <v>4.0</v>
@@ -9478,13 +9478,13 @@
         <v>20.0</v>
       </c>
       <c r="J49" t="n" s="323">
-        <v>1.0852985770494814</v>
+        <v>1.0852985770494805</v>
       </c>
       <c r="K49" t="n" s="324">
-        <v>0.3880758967778746</v>
+        <v>0.38807589677787446</v>
       </c>
       <c r="L49" t="n" s="325">
-        <v>0.12685064616009623</v>
+        <v>0.12685064616009878</v>
       </c>
     </row>
     <row r="50">
@@ -9504,7 +9504,7 @@
         <v>1.0</v>
       </c>
       <c r="F50" t="n" s="319">
-        <v>49.0</v>
+        <v>10230.0</v>
       </c>
       <c r="G50" t="n" s="320">
         <v>4.0</v>
@@ -9516,13 +9516,13 @@
         <v>20.0</v>
       </c>
       <c r="J50" t="n" s="323">
-        <v>1.730120957879223</v>
+        <v>1.7301209578792207</v>
       </c>
       <c r="K50" t="n" s="324">
-        <v>0.392216077581692</v>
+        <v>0.3922160775816918</v>
       </c>
       <c r="L50" t="n" s="325">
-        <v>0.12685064616009623</v>
+        <v>0.12685064616009878</v>
       </c>
     </row>
     <row r="51">
@@ -9542,7 +9542,7 @@
         <v>1.0</v>
       </c>
       <c r="F51" t="n" s="319">
-        <v>50.0</v>
+        <v>10231.0</v>
       </c>
       <c r="G51" t="n" s="320">
         <v>4.0</v>
@@ -9554,13 +9554,13 @@
         <v>20.0</v>
       </c>
       <c r="J51" t="n" s="323">
-        <v>-0.7934661253532909</v>
+        <v>-0.7934661253532934</v>
       </c>
       <c r="K51" t="n" s="324">
-        <v>1.2578944823605007</v>
+        <v>1.257894482360499</v>
       </c>
       <c r="L51" t="n" s="325">
-        <v>0.12685064616009623</v>
+        <v>0.12685064616009878</v>
       </c>
     </row>
     <row r="52">
@@ -9580,7 +9580,7 @@
         <v>2.0</v>
       </c>
       <c r="F52" t="n" s="319">
-        <v>51.0</v>
+        <v>10232.0</v>
       </c>
       <c r="G52" t="n" s="320">
         <v>4.0</v>
@@ -9592,13 +9592,13 @@
         <v>20.0</v>
       </c>
       <c r="J52" t="n" s="323">
-        <v>1.425190984098898</v>
+        <v>1.4251909840988968</v>
       </c>
       <c r="K52" t="n" s="324">
         <v>0.3613676347397503</v>
       </c>
       <c r="L52" t="n" s="325">
-        <v>0.12685064616009623</v>
+        <v>0.12685064616009878</v>
       </c>
     </row>
     <row r="53">
@@ -9618,7 +9618,7 @@
         <v>2.0</v>
       </c>
       <c r="F53" t="n" s="319">
-        <v>52.0</v>
+        <v>10233.0</v>
       </c>
       <c r="G53" t="n" s="320">
         <v>4.0</v>
@@ -9630,13 +9630,13 @@
         <v>20.0</v>
       </c>
       <c r="J53" t="n" s="323">
-        <v>0.12664853824431774</v>
+        <v>0.12664853824431546</v>
       </c>
       <c r="K53" t="n" s="324">
-        <v>0.7110668526850698</v>
+        <v>0.7110668526850701</v>
       </c>
       <c r="L53" t="n" s="325">
-        <v>0.12685064616009623</v>
+        <v>0.12685064616009878</v>
       </c>
     </row>
     <row r="54">
@@ -9656,7 +9656,7 @@
         <v>1.0</v>
       </c>
       <c r="F54" t="n" s="319">
-        <v>53.0</v>
+        <v>10234.0</v>
       </c>
       <c r="G54" t="n" s="320">
         <v>4.0</v>
@@ -9668,13 +9668,13 @@
         <v>20.0</v>
       </c>
       <c r="J54" t="n" s="323">
-        <v>0.12664853824431774</v>
+        <v>0.12664853824431546</v>
       </c>
       <c r="K54" t="n" s="324">
-        <v>0.7110668526850698</v>
+        <v>0.7110668526850701</v>
       </c>
       <c r="L54" t="n" s="325">
-        <v>0.12685064616009623</v>
+        <v>0.12685064616009878</v>
       </c>
     </row>
     <row r="55">
@@ -9694,7 +9694,7 @@
         <v>1.0</v>
       </c>
       <c r="F55" t="n" s="319">
-        <v>54.0</v>
+        <v>10237.0</v>
       </c>
       <c r="G55" t="n" s="320">
         <v>4.0</v>
@@ -9706,13 +9706,13 @@
         <v>20.0</v>
       </c>
       <c r="J55" t="n" s="323">
-        <v>-0.7934661253532909</v>
+        <v>-0.7934661253532934</v>
       </c>
       <c r="K55" t="n" s="324">
-        <v>1.2578944823605007</v>
+        <v>1.257894482360499</v>
       </c>
       <c r="L55" t="n" s="325">
-        <v>0.12685064616009623</v>
+        <v>0.12685064616009878</v>
       </c>
     </row>
     <row r="56">
@@ -9732,7 +9732,7 @@
         <v>1.0</v>
       </c>
       <c r="F56" t="n" s="319">
-        <v>55.0</v>
+        <v>10240.0</v>
       </c>
       <c r="G56" t="n" s="320">
         <v>4.0</v>
@@ -9744,13 +9744,13 @@
         <v>20.0</v>
       </c>
       <c r="J56" t="n" s="323">
-        <v>-0.7934661253532909</v>
+        <v>-0.7934661253532934</v>
       </c>
       <c r="K56" t="n" s="324">
-        <v>1.2578944823605007</v>
+        <v>1.257894482360499</v>
       </c>
       <c r="L56" t="n" s="325">
-        <v>0.12685064616009623</v>
+        <v>0.12685064616009878</v>
       </c>
     </row>
   </sheetData>

--- a/exp2/case01/report/motivation/pressure-tension/MeasurementModel.xlsx
+++ b/exp2/case01/report/motivation/pressure-tension/MeasurementModel.xlsx
@@ -1899,13 +1899,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>93</xdr:row>
+      <xdr:row>98</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>684440</xdr:colOff>
-      <xdr:row>125</xdr:row>
+      <xdr:row>130</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2312,16 +2312,16 @@
         <v>4.0</v>
       </c>
       <c r="B6" t="n" s="32">
-        <v>435.1120494177137</v>
+        <v>526.8925282425209</v>
       </c>
       <c r="C6" t="n" s="33">
-        <v>-217.55602470885685</v>
+        <v>-263.44626412126047</v>
       </c>
       <c r="D6" t="n" s="34">
-        <v>55.0</v>
+        <v>60.0</v>
       </c>
       <c r="E6" t="n" s="35">
-        <v>0.6517291494663243</v>
+        <v>0.7437482087562907</v>
       </c>
       <c r="F6" t="n" s="36">
         <v>21.0</v>
@@ -2358,13 +2358,13 @@
     </row>
     <row r="11">
       <c r="A11" t="n" s="56">
-        <v>0.09410550135282922</v>
+        <v>0.1478837326045982</v>
       </c>
       <c r="B11" t="n" s="57">
-        <v>0.2246333807394664</v>
+        <v>0.4027243301190676</v>
       </c>
       <c r="C11" t="n" s="58">
-        <v>0.6315814145456431</v>
+        <v>0.014171046651953602</v>
       </c>
     </row>
     <row r="12">
@@ -2395,7 +2395,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n" s="77">
-        <v>33.400490668204846</v>
+        <v>52.543793288183984</v>
       </c>
       <c r="B16" t="n" s="78">
         <v>6.0</v>
@@ -2432,13 +2432,13 @@
     </row>
     <row r="21">
       <c r="A21" t="n" s="98">
-        <v>13.784579162586402</v>
+        <v>12.390087807563365</v>
       </c>
       <c r="B21" t="n" s="99">
-        <v>0.09305294177977202</v>
+        <v>0.07300032003724301</v>
       </c>
       <c r="C21" t="n" s="100">
-        <v>0.12214938200306394</v>
+        <v>0.09374712679556883</v>
       </c>
     </row>
     <row r="22">
@@ -2493,16 +2493,16 @@
         <v>7.0</v>
       </c>
       <c r="D26" t="n" s="122">
-        <v>4.0</v>
+        <v>7.0</v>
       </c>
       <c r="E26" t="n" s="123">
-        <v>28.0</v>
+        <v>49.0</v>
       </c>
       <c r="F26" t="n" s="124">
-        <v>33.400490668204846</v>
+        <v>52.543793288183984</v>
       </c>
       <c r="G26" t="n" s="125">
-        <v>0.22131044151948764</v>
+        <v>0.3384463257644621</v>
       </c>
       <c r="H26" t="n" s="126">
         <v>1.0</v>
@@ -2519,16 +2519,16 @@
         <v>7.0</v>
       </c>
       <c r="D27" t="n" s="122">
-        <v>5.0</v>
+        <v>7.0</v>
       </c>
       <c r="E27" t="n" s="123">
-        <v>35.0</v>
+        <v>49.0</v>
       </c>
       <c r="F27" t="n" s="124">
-        <v>26.73265173467717</v>
+        <v>39.86616426777017</v>
       </c>
       <c r="G27" t="n" s="125">
-        <v>0.8406995622686483</v>
+        <v>0.8208598890066561</v>
       </c>
       <c r="H27" t="n" s="126">
         <v>1.0</v>
@@ -2545,16 +2545,16 @@
         <v>7.0</v>
       </c>
       <c r="D28" t="n" s="122">
-        <v>4.0</v>
+        <v>7.0</v>
       </c>
       <c r="E28" t="n" s="123">
-        <v>28.0</v>
+        <v>49.0</v>
       </c>
       <c r="F28" t="n" s="124">
-        <v>19.302242219010953</v>
+        <v>49.7695284667039</v>
       </c>
       <c r="G28" t="n" s="125">
-        <v>0.8885516247769205</v>
+        <v>0.44249283785550764</v>
       </c>
       <c r="H28" t="n" s="126">
         <v>1.0</v>
@@ -2568,19 +2568,19 @@
         <v>3.0</v>
       </c>
       <c r="C29" t="n" s="121">
-        <v>4.0</v>
+        <v>7.0</v>
       </c>
       <c r="D29" t="n" s="122">
-        <v>5.0</v>
+        <v>7.0</v>
       </c>
       <c r="E29" t="n" s="123">
-        <v>20.0</v>
+        <v>49.0</v>
       </c>
       <c r="F29" t="n" s="124">
-        <v>10.143704685515534</v>
+        <v>18.425841979243057</v>
       </c>
       <c r="G29" t="n" s="125">
-        <v>0.9654906645116519</v>
+        <v>0.999978764715505</v>
       </c>
       <c r="H29" t="n" s="126">
         <v>1.0</v>
@@ -2594,19 +2594,19 @@
         <v>4.0</v>
       </c>
       <c r="C30" t="n" s="121">
-        <v>4.0</v>
+        <v>7.0</v>
       </c>
       <c r="D30" t="n" s="122">
-        <v>4.0</v>
+        <v>7.0</v>
       </c>
       <c r="E30" t="n" s="123">
-        <v>16.0</v>
+        <v>49.0</v>
       </c>
       <c r="F30" t="n" s="124">
-        <v>11.887375733218315</v>
+        <v>21.78278744094909</v>
       </c>
       <c r="G30" t="n" s="125">
-        <v>0.751695581768494</v>
+        <v>0.9997351831442117</v>
       </c>
       <c r="H30" t="n" s="126">
         <v>1.0</v>
@@ -2620,19 +2620,19 @@
         <v>4.0</v>
       </c>
       <c r="C31" t="n" s="121">
-        <v>5.0</v>
+        <v>7.0</v>
       </c>
       <c r="D31" t="n" s="122">
-        <v>4.0</v>
+        <v>7.0</v>
       </c>
       <c r="E31" t="n" s="123">
-        <v>20.0</v>
+        <v>49.0</v>
       </c>
       <c r="F31" t="n" s="124">
-        <v>13.002674763337597</v>
+        <v>22.61629325594648</v>
       </c>
       <c r="G31" t="n" s="125">
-        <v>0.8772692576966163</v>
+        <v>0.9995501868271325</v>
       </c>
       <c r="H31" t="n" s="126">
         <v>1.0</v>
@@ -2669,797 +2669,842 @@
     </row>
     <row r="36">
       <c r="A36" t="n" s="145">
-        <v>-1.3117148730995631</v>
+        <v>-1.430630424225611</v>
       </c>
       <c r="B36" t="n" s="146">
-        <v>-0.4481815243568448</v>
+        <v>-0.5200032275053916</v>
       </c>
       <c r="C36" t="n" s="147">
-        <v>1.8655216278433921</v>
+        <v>1.9342459747499476</v>
       </c>
       <c r="D36" t="n" s="148">
-        <v>0.4026171560180667</v>
+        <v>0.2911019899856093</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n" s="145">
-        <v>-0.24435324076083886</v>
+        <v>-0.2460103933535065</v>
       </c>
       <c r="B37" t="n" s="146">
-        <v>-0.10698134589963892</v>
+        <v>-0.08815302720826512</v>
       </c>
       <c r="C37" t="n" s="147">
-        <v>-0.26670929698906565</v>
+        <v>-0.17779504520916456</v>
       </c>
       <c r="D37" t="n" s="148">
-        <v>-0.14209845115459396</v>
+        <v>-0.11806428202416219</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n" s="145">
-        <v>0.5709069028720535</v>
+        <v>0.5045231075737548</v>
       </c>
       <c r="B38" t="n" s="146">
-        <v>-0.177167248173415</v>
+        <v>-0.1732500225120892</v>
       </c>
       <c r="C38" t="n" s="147">
-        <v>-0.4512124452015276</v>
+        <v>-0.35687458581552267</v>
       </c>
       <c r="D38" t="n" s="148">
-        <v>-0.23652688078138207</v>
+        <v>-0.23430913939058762</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n" s="145">
-        <v>-0.24435324076083886</v>
+        <v>-0.2460103933535065</v>
       </c>
       <c r="B39" t="n" s="146">
-        <v>-0.10698134589963892</v>
+        <v>-0.08815302720826512</v>
       </c>
       <c r="C39" t="n" s="147">
-        <v>-0.26670929698906565</v>
+        <v>-0.17779504520916456</v>
       </c>
       <c r="D39" t="n" s="148">
-        <v>-0.14209845115459396</v>
+        <v>-0.11806428202416219</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n" s="145">
-        <v>0.5709069028720535</v>
+        <v>0.5045231075737548</v>
       </c>
       <c r="B40" t="n" s="146">
-        <v>-0.177167248173415</v>
+        <v>-0.1732500225120892</v>
       </c>
       <c r="C40" t="n" s="147">
-        <v>-0.4512124452015276</v>
+        <v>-0.35687458581552267</v>
       </c>
       <c r="D40" t="n" s="148">
-        <v>-0.23652688078138207</v>
+        <v>-0.23430913939058762</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n" s="145">
-        <v>-0.24435324076083886</v>
+        <v>-0.2460103933535065</v>
       </c>
       <c r="B41" t="n" s="146">
-        <v>-0.10698134589963892</v>
+        <v>-0.08815302720826512</v>
       </c>
       <c r="C41" t="n" s="147">
-        <v>-0.26670929698906565</v>
+        <v>-0.17779504520916456</v>
       </c>
       <c r="D41" t="n" s="148">
-        <v>-0.14209845115459396</v>
+        <v>-0.11806428202416219</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n" s="145">
-        <v>0.5144129893630693</v>
+        <v>0.648910034514508</v>
       </c>
       <c r="B42" t="n" s="146">
-        <v>0.24091073220764003</v>
+        <v>0.03643456525255062</v>
       </c>
       <c r="C42" t="n" s="147">
-        <v>0.21909892883764082</v>
+        <v>0.16067063742779641</v>
       </c>
       <c r="D42" t="n" s="148">
-        <v>0.011628830335076445</v>
+        <v>-0.2854549655953278</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n" s="145">
-        <v>0.3072040756041341</v>
+        <v>0.25243423109046503</v>
       </c>
       <c r="B43" t="n" s="146">
-        <v>-0.5497854814253438</v>
+        <v>-0.6584209197823971</v>
       </c>
       <c r="C43" t="n" s="147">
-        <v>1.6353399816936545</v>
+        <v>1.675854202855783</v>
       </c>
       <c r="D43" t="n" s="148">
-        <v>-0.7287610214023941</v>
+        <v>-0.893665312827568</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n" s="145">
-        <v>-0.3117148730995636</v>
+        <v>-0.4306304242256105</v>
       </c>
       <c r="B44" t="n" s="146">
-        <v>0.5518184756431554</v>
+        <v>0.4799967724946086</v>
       </c>
       <c r="C44" t="n" s="147">
-        <v>-0.1344783721566074</v>
+        <v>-0.06575402525005236</v>
       </c>
       <c r="D44" t="n" s="148">
-        <v>0.4026171560180667</v>
+        <v>0.29110198998560954</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n" s="145">
-        <v>-0.24435324076083886</v>
+        <v>-0.2460103933535065</v>
       </c>
       <c r="B45" t="n" s="146">
-        <v>-0.10698134589963892</v>
+        <v>-0.08815302720826512</v>
       </c>
       <c r="C45" t="n" s="147">
-        <v>-0.26670929698906565</v>
+        <v>-0.17779504520916456</v>
       </c>
       <c r="D45" t="n" s="148">
-        <v>-0.14209845115459396</v>
+        <v>-0.11806428202416219</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n" s="145">
-        <v>-0.485587010636932</v>
+        <v>-0.351089965485492</v>
       </c>
       <c r="B46" t="n" s="146">
-        <v>0.24091073220764003</v>
+        <v>0.036434565252551065</v>
       </c>
       <c r="C46" t="n" s="147">
-        <v>0.21909892883764082</v>
+        <v>0.16067063742779686</v>
       </c>
       <c r="D46" t="n" s="148">
-        <v>1.0116288303350762</v>
+        <v>0.7145450344046722</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n" s="145">
-        <v>1.307204075604134</v>
+        <v>1.2524342310904655</v>
       </c>
       <c r="B47" t="n" s="146">
-        <v>-0.549785481425344</v>
+        <v>-0.6584209197823967</v>
       </c>
       <c r="C47" t="n" s="147">
-        <v>0.635339981693654</v>
+        <v>0.6758542028557843</v>
       </c>
       <c r="D47" t="n" s="148">
-        <v>-0.7287610214023943</v>
+        <v>-0.8936653128275673</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n" s="145">
-        <v>-0.6927959243958663</v>
+        <v>-0.7475657689095345</v>
       </c>
       <c r="B48" t="n" s="146">
-        <v>0.450214518574656</v>
+        <v>0.3415790802176031</v>
       </c>
       <c r="C48" t="n" s="147">
-        <v>-0.3646600183063464</v>
+        <v>-0.3241457971442161</v>
       </c>
       <c r="D48" t="n" s="148">
-        <v>1.2712389785976057</v>
+        <v>1.1063346871724324</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n" s="145">
-        <v>0.10720544222648387</v>
+        <v>0.3566826287623135</v>
       </c>
       <c r="B49" t="n" s="146">
-        <v>-0.872178797675724</v>
+        <v>-1.1343696069868723</v>
       </c>
       <c r="C49" t="n" s="147">
-        <v>1.0309434056099107</v>
+        <v>0.9012753263685691</v>
       </c>
       <c r="D49" t="n" s="148">
-        <v>0.8791638282334353</v>
+        <v>0.5046055597181938</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n" s="145">
-        <v>2.231638695320333</v>
+        <v>2.7863650972111182</v>
       </c>
       <c r="B50" t="n" s="146">
-        <v>-1.1400185219072365</v>
+        <v>-1.506639330350311</v>
       </c>
       <c r="C50" t="n" s="147">
-        <v>1.6552638042810863</v>
+        <v>1.3787080116130692</v>
       </c>
       <c r="D50" t="n" s="148">
-        <v>-1.4173287295405252</v>
+        <v>-1.9378937282743318</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n" s="145">
-        <v>0.3288032001025052</v>
+        <v>0.20678554025805607</v>
       </c>
       <c r="B51" t="n" s="146">
-        <v>0.7400375113415034</v>
+        <v>0.7236904784483038</v>
       </c>
       <c r="C51" t="n" s="147">
-        <v>-0.6682530849315347</v>
+        <v>-0.5745899715752218</v>
       </c>
       <c r="D51" t="n" s="148">
-        <v>-0.3478860251078406</v>
+        <v>-0.37615481762412517</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n" s="145">
-        <v>-1.7683613046796687</v>
+        <v>-1.213634902788879</v>
       </c>
       <c r="B52" t="n" s="146">
-        <v>1.859981478092763</v>
+        <v>1.49336066964969</v>
       </c>
       <c r="C52" t="n" s="147">
-        <v>1.655263804281085</v>
+        <v>1.378708011613071</v>
       </c>
       <c r="D52" t="n" s="148">
-        <v>-0.41732872954052613</v>
+        <v>-0.93789372827433</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n" s="145">
-        <v>0.033127495599779344</v>
+        <v>-0.10990759988149934</v>
       </c>
       <c r="B53" t="n" s="146">
-        <v>-0.35098538343619423</v>
+        <v>-0.3923181534909881</v>
       </c>
       <c r="C53" t="n" s="147">
-        <v>0.10028763368358273</v>
+        <v>0.1861605848121919</v>
       </c>
       <c r="D53" t="n" s="148">
-        <v>0.5306112782097092</v>
+        <v>0.4645438069507162</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n" s="145">
-        <v>-0.4290930971279463</v>
+        <v>-0.4954768924262458</v>
       </c>
       <c r="B54" t="n" s="146">
-        <v>-0.17716724817341478</v>
+        <v>-0.17325002251208899</v>
       </c>
       <c r="C54" t="n" s="147">
-        <v>0.5487875547984726</v>
+        <v>0.6431254141844771</v>
       </c>
       <c r="D54" t="n" s="148">
-        <v>-0.23652688078138184</v>
+        <v>-0.23430913939058762</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n" s="145">
-        <v>-0.24435324076083886</v>
+        <v>-0.2460103933535065</v>
       </c>
       <c r="B55" t="n" s="146">
-        <v>-0.10698134589963892</v>
+        <v>-0.08815302720826512</v>
       </c>
       <c r="C55" t="n" s="147">
-        <v>-0.26670929698906565</v>
+        <v>-0.17779504520916456</v>
       </c>
       <c r="D55" t="n" s="148">
-        <v>-0.14209845115459396</v>
+        <v>-0.11806428202416219</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n" s="145">
-        <v>0.5709069028720535</v>
+        <v>0.5045231075737548</v>
       </c>
       <c r="B56" t="n" s="146">
-        <v>-0.177167248173415</v>
+        <v>-0.1732500225120892</v>
       </c>
       <c r="C56" t="n" s="147">
-        <v>-0.4512124452015276</v>
+        <v>-0.35687458581552267</v>
       </c>
       <c r="D56" t="n" s="148">
-        <v>-0.23652688078138207</v>
+        <v>-0.23430913939058762</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n" s="145">
-        <v>-0.24435324076083886</v>
+        <v>-0.2460103933535065</v>
       </c>
       <c r="B57" t="n" s="146">
-        <v>-0.10698134589963892</v>
+        <v>-0.08815302720826512</v>
       </c>
       <c r="C57" t="n" s="147">
-        <v>-0.26670929698906565</v>
+        <v>-0.17779504520916456</v>
       </c>
       <c r="D57" t="n" s="148">
-        <v>-0.14209845115459396</v>
+        <v>-0.11806428202416219</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n" s="145">
-        <v>-0.24435324076083886</v>
+        <v>-0.2460103933535065</v>
       </c>
       <c r="B58" t="n" s="146">
-        <v>-0.10698134589963892</v>
+        <v>-0.08815302720826512</v>
       </c>
       <c r="C58" t="n" s="147">
-        <v>-0.26670929698906565</v>
+        <v>-0.17779504520916456</v>
       </c>
       <c r="D58" t="n" s="148">
-        <v>-0.14209845115459396</v>
+        <v>-0.11806428202416219</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n" s="145">
-        <v>-0.24435324076083886</v>
+        <v>-0.2460103933535065</v>
       </c>
       <c r="B59" t="n" s="146">
-        <v>-0.10698134589963892</v>
+        <v>-0.08815302720826512</v>
       </c>
       <c r="C59" t="n" s="147">
-        <v>-0.26670929698906565</v>
+        <v>-0.17779504520916456</v>
       </c>
       <c r="D59" t="n" s="148">
-        <v>-0.14209845115459396</v>
+        <v>-0.11806428202416219</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n" s="145">
-        <v>-0.24435324076083886</v>
+        <v>-0.2460103933535065</v>
       </c>
       <c r="B60" t="n" s="146">
-        <v>-0.10698134589963892</v>
+        <v>-0.08815302720826512</v>
       </c>
       <c r="C60" t="n" s="147">
-        <v>-0.26670929698906565</v>
+        <v>-0.17779504520916456</v>
       </c>
       <c r="D60" t="n" s="148">
-        <v>-0.14209845115459396</v>
+        <v>-0.11806428202416219</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n" s="145">
-        <v>2.5144129893630685</v>
+        <v>2.648910034514508</v>
       </c>
       <c r="B61" t="n" s="146">
-        <v>1.2409107322076398</v>
+        <v>1.0364345652525506</v>
       </c>
       <c r="C61" t="n" s="147">
-        <v>-1.7809010711623592</v>
+        <v>-1.839329362572204</v>
       </c>
       <c r="D61" t="n" s="148">
-        <v>-0.988371169664924</v>
+        <v>-1.2854549655953282</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n" s="145">
-        <v>-0.24435324076083886</v>
+        <v>-0.2460103933535065</v>
       </c>
       <c r="B62" t="n" s="146">
-        <v>-0.10698134589963892</v>
+        <v>-0.08815302720826512</v>
       </c>
       <c r="C62" t="n" s="147">
-        <v>-0.26670929698906565</v>
+        <v>-0.17779504520916456</v>
       </c>
       <c r="D62" t="n" s="148">
-        <v>-0.14209845115459396</v>
+        <v>-0.11806428202416219</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n" s="145">
-        <v>-0.311714873099564</v>
+        <v>-0.4306304242256105</v>
       </c>
       <c r="B63" t="n" s="146">
-        <v>1.551818475643155</v>
+        <v>1.4799967724946086</v>
       </c>
       <c r="C63" t="n" s="147">
-        <v>-0.1344783721566083</v>
+        <v>-0.06575402525005236</v>
       </c>
       <c r="D63" t="n" s="148">
-        <v>-0.5973828439819331</v>
+        <v>-0.7088980100143907</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n" s="145">
-        <v>-0.4290930971279463</v>
+        <v>0.1866834911192763</v>
       </c>
       <c r="B64" t="n" s="146">
-        <v>-0.17716724817341478</v>
+        <v>0.774713781962511</v>
       </c>
       <c r="C64" t="n" s="147">
-        <v>0.5487875547984726</v>
+        <v>0.29329565515666367</v>
       </c>
       <c r="D64" t="n" s="148">
-        <v>-0.23652688078138184</v>
+        <v>0.5218925677910633</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n" s="145">
-        <v>-0.24435324076083886</v>
+        <v>-0.4954768924262458</v>
       </c>
       <c r="B65" t="n" s="146">
-        <v>-0.10698134589963892</v>
+        <v>-0.17325002251208899</v>
       </c>
       <c r="C65" t="n" s="147">
-        <v>-0.26670929698906565</v>
+        <v>0.6431254141844771</v>
       </c>
       <c r="D65" t="n" s="148">
-        <v>-0.14209845115459396</v>
+        <v>-0.23430913939058762</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n" s="145">
-        <v>1.2316386953203322</v>
+        <v>-0.2460103933535065</v>
       </c>
       <c r="B66" t="n" s="146">
-        <v>0.859981478092763</v>
+        <v>-0.08815302720826512</v>
       </c>
       <c r="C66" t="n" s="147">
-        <v>-0.3447361957189137</v>
+        <v>-0.17779504520916456</v>
       </c>
       <c r="D66" t="n" s="148">
-        <v>-0.4173287295405257</v>
+        <v>-0.11806428202416219</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n" s="145">
-        <v>-0.9668725044002207</v>
+        <v>1.78636509721112</v>
       </c>
       <c r="B67" t="n" s="146">
-        <v>-0.35098538343619423</v>
+        <v>0.4933606696496895</v>
       </c>
       <c r="C67" t="n" s="147">
-        <v>2.1002876336835827</v>
+        <v>-0.6212919883869295</v>
       </c>
       <c r="D67" t="n" s="148">
-        <v>-0.4693887217902908</v>
+        <v>-0.9378937282743305</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n" s="145">
-        <v>-0.24435324076083886</v>
+        <v>-1.1099075998814993</v>
       </c>
       <c r="B68" t="n" s="146">
-        <v>-0.10698134589963892</v>
+        <v>-0.3923181534909881</v>
       </c>
       <c r="C68" t="n" s="147">
-        <v>-0.26670929698906565</v>
+        <v>2.1861605848121917</v>
       </c>
       <c r="D68" t="n" s="148">
-        <v>-0.14209845115459396</v>
+        <v>-0.535456193049284</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n" s="145">
-        <v>-1.3117148730995631</v>
+        <v>-0.2460103933535065</v>
       </c>
       <c r="B69" t="n" s="146">
-        <v>0.551818475643155</v>
+        <v>-0.08815302720826512</v>
       </c>
       <c r="C69" t="n" s="147">
-        <v>-0.13447837215660785</v>
+        <v>-0.17779504520916456</v>
       </c>
       <c r="D69" t="n" s="148">
-        <v>1.402617156018067</v>
+        <v>-0.11806428202416219</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n" s="145">
-        <v>-1.088356940874724</v>
+        <v>-1.2171074408893565</v>
       </c>
       <c r="B70" t="n" s="146">
-        <v>0.34664261004700747</v>
+        <v>0.6781440620466079</v>
       </c>
       <c r="C70" t="n" s="147">
-        <v>1.4185078279323284</v>
+        <v>-0.6250303020689563</v>
       </c>
       <c r="D70" t="n" s="148">
-        <v>0.1405713749358255</v>
+        <v>2.148514996040175</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n" s="145">
-        <v>-0.24435324076083886</v>
+        <v>-1.4306304242256105</v>
       </c>
       <c r="B71" t="n" s="146">
-        <v>-0.10698134589963892</v>
+        <v>0.4799967724946086</v>
       </c>
       <c r="C71" t="n" s="147">
-        <v>-0.26670929698906565</v>
+        <v>-0.06575402525005192</v>
       </c>
       <c r="D71" t="n" s="148">
-        <v>-0.14209845115459396</v>
+        <v>1.2911019899856093</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n" s="145">
-        <v>1.6882851269004369</v>
+        <v>-1.0545831829124048</v>
       </c>
       <c r="B72" t="n" s="146">
-        <v>-0.4481815243568448</v>
+        <v>0.193990330229866</v>
       </c>
       <c r="C72" t="n" s="147">
-        <v>-1.1344783721566079</v>
+        <v>1.4173941271179613</v>
       </c>
       <c r="D72" t="n" s="148">
-        <v>0.4026171560180667</v>
+        <v>-0.08603252692300689</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n" s="145">
-        <v>-0.24435324076083886</v>
+        <v>-0.2460103933535065</v>
       </c>
       <c r="B73" t="n" s="146">
-        <v>-0.10698134589963892</v>
+        <v>-0.08815302720826512</v>
       </c>
       <c r="C73" t="n" s="147">
-        <v>-0.26670929698906565</v>
+        <v>-0.17779504520916456</v>
       </c>
       <c r="D73" t="n" s="148">
-        <v>-0.14209845115459396</v>
+        <v>-0.11806428202416219</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n" s="145">
-        <v>-0.4290930971279465</v>
+        <v>1.569369575774389</v>
       </c>
       <c r="B74" t="n" s="146">
-        <v>0.8228327518265852</v>
+        <v>-0.520003227505391</v>
       </c>
       <c r="C74" t="n" s="147">
-        <v>-0.45121244520152737</v>
+        <v>-1.065754025250052</v>
       </c>
       <c r="D74" t="n" s="148">
-        <v>-0.23652688078138184</v>
+        <v>0.2911019899856093</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n" s="145">
-        <v>-0.24435324076083886</v>
+        <v>-0.2460103933535065</v>
       </c>
       <c r="B75" t="n" s="146">
-        <v>-0.10698134589963892</v>
+        <v>-0.08815302720826512</v>
       </c>
       <c r="C75" t="n" s="147">
-        <v>-0.26670929698906565</v>
+        <v>-0.17779504520916456</v>
       </c>
       <c r="D75" t="n" s="148">
-        <v>-0.14209845115459396</v>
+        <v>-0.11806428202416219</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n" s="145">
-        <v>0.2316386953203322</v>
+        <v>-0.4954768924262456</v>
       </c>
       <c r="B76" t="n" s="146">
-        <v>0.8599814780927635</v>
+        <v>0.8267499774879108</v>
       </c>
       <c r="C76" t="n" s="147">
-        <v>0.6552638042810868</v>
+        <v>-0.35687458581552267</v>
       </c>
       <c r="D76" t="n" s="148">
-        <v>-0.4173287295405257</v>
+        <v>-0.23430913939058762</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n" s="145">
-        <v>-0.24435324076083886</v>
+        <v>-0.2460103933535065</v>
       </c>
       <c r="B77" t="n" s="146">
-        <v>-0.10698134589963892</v>
+        <v>-0.08815302720826512</v>
       </c>
       <c r="C77" t="n" s="147">
-        <v>-0.26670929698906565</v>
+        <v>-0.17779504520916456</v>
       </c>
       <c r="D77" t="n" s="148">
-        <v>-0.14209845115459396</v>
+        <v>-0.11806428202416219</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n" s="145">
-        <v>-0.24435324076083886</v>
+        <v>0.7863650972111191</v>
       </c>
       <c r="B78" t="n" s="146">
-        <v>-0.10698134589963892</v>
+        <v>0.4933606696496895</v>
       </c>
       <c r="C78" t="n" s="147">
-        <v>-0.26670929698906565</v>
+        <v>0.3787080116130692</v>
       </c>
       <c r="D78" t="n" s="148">
-        <v>-0.14209845115459396</v>
+        <v>-0.9378937282743314</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n" s="145">
-        <v>-0.24435324076083886</v>
+        <v>-0.2460103933535065</v>
       </c>
       <c r="B79" t="n" s="146">
-        <v>-0.10698134589963892</v>
+        <v>-0.08815302720826512</v>
       </c>
       <c r="C79" t="n" s="147">
-        <v>-0.26670929698906565</v>
+        <v>-0.17779504520916456</v>
       </c>
       <c r="D79" t="n" s="148">
-        <v>-0.14209845115459396</v>
+        <v>-0.11806428202416219</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n" s="145">
-        <v>-0.4290930971279463</v>
+        <v>-0.2460103933535065</v>
       </c>
       <c r="B80" t="n" s="146">
-        <v>-0.17716724817341478</v>
+        <v>-0.08815302720826512</v>
       </c>
       <c r="C80" t="n" s="147">
-        <v>0.5487875547984726</v>
+        <v>-0.17779504520916456</v>
       </c>
       <c r="D80" t="n" s="148">
-        <v>-0.23652688078138184</v>
+        <v>-0.11806428202416219</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n" s="145">
-        <v>-0.6711967998974948</v>
+        <v>-0.2460103933535065</v>
       </c>
       <c r="B81" t="n" s="146">
-        <v>-0.25996248865849636</v>
+        <v>-0.08815302720826512</v>
       </c>
       <c r="C81" t="n" s="147">
-        <v>-0.6682530849315347</v>
+        <v>-0.17779504520916456</v>
       </c>
       <c r="D81" t="n" s="148">
-        <v>1.6521139748921594</v>
+        <v>-0.11806428202416219</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n" s="145">
-        <v>-0.6711967998974948</v>
+        <v>0.5253720626841378</v>
       </c>
       <c r="B82" t="n" s="146">
-        <v>-0.25996248865849636</v>
+        <v>0.3050376466464604</v>
       </c>
       <c r="C82" t="n" s="147">
-        <v>-0.6682530849315347</v>
+        <v>-0.8693782938211783</v>
       </c>
       <c r="D82" t="n" s="148">
-        <v>1.6521139748921594</v>
+        <v>0.8445136172068524</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n" s="145">
-        <v>-0.6927959243958659</v>
+        <v>-0.4954768924262458</v>
       </c>
       <c r="B83" t="n" s="146">
-        <v>-0.5497854814253438</v>
+        <v>-0.17325002251208899</v>
       </c>
       <c r="C83" t="n" s="147">
-        <v>-0.36466001830634553</v>
+        <v>0.6431254141844771</v>
       </c>
       <c r="D83" t="n" s="148">
-        <v>2.271238978597606</v>
+        <v>-0.23430913939058762</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n" s="145">
-        <v>2.6766995919476457</v>
+        <v>-0.7932144597419439</v>
       </c>
       <c r="B84" t="n" s="146">
-        <v>-0.9988339019855825</v>
+        <v>-0.2763095215516962</v>
       </c>
       <c r="C84" t="n" s="147">
-        <v>0.8439110344907994</v>
+        <v>-0.5745899715752221</v>
       </c>
       <c r="D84" t="n" s="148">
-        <v>-1.2636164374792687</v>
+        <v>1.623845182375875</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n" s="145">
-        <v>-0.24435324076083886</v>
+        <v>-0.7932144597419439</v>
       </c>
       <c r="B85" t="n" s="146">
-        <v>-0.10698134589963892</v>
+        <v>-0.2763095215516962</v>
       </c>
       <c r="C85" t="n" s="147">
-        <v>-0.26670929698906565</v>
+        <v>-0.5745899715752221</v>
       </c>
       <c r="D85" t="n" s="148">
-        <v>-0.14209845115459396</v>
+        <v>1.623845182375875</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n" s="145">
-        <v>3.1072054422264843</v>
+        <v>0.03298450859568014</v>
       </c>
       <c r="B86" t="n" s="146">
-        <v>-0.872178797675724</v>
+        <v>0.9047479327363304</v>
       </c>
       <c r="C86" t="n" s="147">
-        <v>-0.9690565943900893</v>
+        <v>-0.3623470844077623</v>
       </c>
       <c r="D86" t="n" s="148">
-        <v>-0.12083617176656469</v>
+        <v>0.3960095094347662</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n" s="145">
-        <v>-0.4290930971279465</v>
+        <v>-0.747565768909535</v>
       </c>
       <c r="B87" t="n" s="146">
-        <v>-0.17716724817341478</v>
+        <v>-0.6584209197823971</v>
       </c>
       <c r="C87" t="n" s="147">
-        <v>-0.45121244520152737</v>
+        <v>-0.32414579714421743</v>
       </c>
       <c r="D87" t="n" s="148">
-        <v>0.7634731192186182</v>
+        <v>2.1063346871724318</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n" s="145">
-        <v>-0.4290930971279465</v>
+        <v>3.0663442221410397</v>
       </c>
       <c r="B88" t="n" s="146">
-        <v>0.8228327518265852</v>
+        <v>-1.3178459112294854</v>
       </c>
       <c r="C88" t="n" s="147">
-        <v>-0.45121244520152737</v>
+        <v>0.6379742454505304</v>
       </c>
       <c r="D88" t="n" s="148">
-        <v>-0.23652688078138184</v>
+        <v>-1.7155981849552733</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n" s="145">
-        <v>-0.24435324076083886</v>
+        <v>-0.2460103933535065</v>
       </c>
       <c r="B89" t="n" s="146">
-        <v>-0.10698134589963892</v>
+        <v>-0.08815302720826512</v>
       </c>
       <c r="C89" t="n" s="147">
-        <v>-0.26670929698906565</v>
+        <v>-0.17779504520916456</v>
       </c>
       <c r="D89" t="n" s="148">
-        <v>-0.14209845115459396</v>
+        <v>-0.11806428202416219</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n" s="145">
-        <v>-0.24435324076083886</v>
+        <v>3.356682628762311</v>
       </c>
       <c r="B90" t="n" s="146">
-        <v>-0.10698134589963892</v>
+        <v>-1.1343696069868732</v>
       </c>
       <c r="C90" t="n" s="147">
-        <v>-0.26670929698906565</v>
+        <v>-1.0987246736314327</v>
       </c>
       <c r="D90" t="n" s="148">
-        <v>-0.14209845115459396</v>
+        <v>-0.4953944402818071</v>
       </c>
     </row>
     <row r="91">
-      <c r="A91" t="s">
-        <v>1</v>
+      <c r="A91" t="n" s="145">
+        <v>-0.4954768924262456</v>
+      </c>
+      <c r="B91" t="n" s="146">
+        <v>-0.17325002251208899</v>
+      </c>
+      <c r="C91" t="n" s="147">
+        <v>-0.3568745858155229</v>
+      </c>
+      <c r="D91" t="n" s="148">
+        <v>0.7656908606094124</v>
       </c>
     </row>
     <row r="92">
-      <c r="A92" t="s">
-        <v>1</v>
+      <c r="A92" t="n" s="145">
+        <v>-0.4954768924262456</v>
+      </c>
+      <c r="B92" t="n" s="146">
+        <v>0.8267499774879108</v>
+      </c>
+      <c r="C92" t="n" s="147">
+        <v>-0.35687458581552267</v>
+      </c>
+      <c r="D92" t="n" s="148">
+        <v>-0.23430913939058762</v>
       </c>
     </row>
     <row r="93">
-      <c r="A93" t="s" s="152">
-        <v>35</v>
+      <c r="A93" t="n" s="145">
+        <v>-0.2460103933535065</v>
+      </c>
+      <c r="B93" t="n" s="146">
+        <v>-0.08815302720826512</v>
+      </c>
+      <c r="C93" t="n" s="147">
+        <v>-0.17779504520916456</v>
+      </c>
+      <c r="D93" t="n" s="148">
+        <v>-0.11806428202416219</v>
       </c>
     </row>
     <row r="94">
-      <c r="A94" t="s">
-        <v>1</v>
+      <c r="A94" t="n" s="145">
+        <v>-0.9670154914043207</v>
+      </c>
+      <c r="B94" t="n" s="146">
+        <v>0.9047479327363299</v>
+      </c>
+      <c r="C94" t="n" s="147">
+        <v>-0.3623470844077641</v>
+      </c>
+      <c r="D94" t="n" s="148">
+        <v>1.3960095094347653</v>
       </c>
     </row>
     <row r="95">
-      <c r="A95" t="s">
-        <v>1</v>
+      <c r="A95" t="n" s="145">
+        <v>-0.2460103933535065</v>
+      </c>
+      <c r="B95" t="n" s="146">
+        <v>-0.08815302720826512</v>
+      </c>
+      <c r="C95" t="n" s="147">
+        <v>-0.17779504520916456</v>
+      </c>
+      <c r="D95" t="n" s="148">
+        <v>-0.11806428202416219</v>
       </c>
     </row>
     <row r="96">
@@ -3473,8 +3518,8 @@
       </c>
     </row>
     <row r="98">
-      <c r="A98" t="s">
-        <v>1</v>
+      <c r="A98" t="s" s="152">
+        <v>35</v>
       </c>
     </row>
     <row r="99">
@@ -3619,6 +3664,31 @@
     </row>
     <row r="127">
       <c r="A127" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="s">
         <v>1</v>
       </c>
     </row>
@@ -3738,34 +3808,34 @@
         <v>31</v>
       </c>
       <c r="B6" t="n" s="192">
-        <v>55.0</v>
+        <v>60.0</v>
       </c>
       <c r="C6" t="n" s="193">
-        <v>2.090909090909091</v>
+        <v>2.3333333333333335</v>
       </c>
       <c r="D6" t="n" s="194">
-        <v>-0.5761867058821873</v>
+        <v>-0.5345992194314078</v>
       </c>
       <c r="E6" t="n" s="195">
-        <v>-11.52247954504575</v>
+        <v>-12.208631915038424</v>
       </c>
       <c r="F6" t="n" s="196">
-        <v>-10.518362238106345</v>
+        <v>-11.542455492326694</v>
       </c>
       <c r="G6" t="n" s="197">
-        <v>-9.217931183786396</v>
+        <v>-10.488094697075756</v>
       </c>
       <c r="H6" t="n" s="198">
-        <v>-8.048171402513278</v>
+        <v>-9.835990082070749</v>
       </c>
       <c r="I6" t="n" s="199">
-        <v>-5.6726367970516876</v>
+        <v>-7.274912073244832</v>
       </c>
       <c r="J6" t="n" s="200">
-        <v>-5.117867306254107</v>
+        <v>-5.007322419749228</v>
       </c>
       <c r="K6" t="n" s="201">
-        <v>-4.0333069411753115</v>
+        <v>-3.7421945360198543</v>
       </c>
       <c r="L6" t="n" s="202">
         <v>1.0</v>
@@ -3794,29 +3864,35 @@
         <v>32</v>
       </c>
       <c r="B7" t="n" s="192">
-        <v>55.0</v>
+        <v>60.0</v>
       </c>
       <c r="C7" t="n" s="193">
-        <v>1.3636363636363635</v>
+        <v>1.6166666666666667</v>
       </c>
       <c r="D7" t="n" s="194">
-        <v>-1.3033318771331759</v>
+        <v>0.3873283021992515</v>
       </c>
       <c r="E7" t="n" s="195">
-        <v>-10.813768571550606</v>
+        <v>-11.286704393407764</v>
       </c>
       <c r="F7" t="n" s="196">
-        <v>-9.100940291116059</v>
+        <v>-9.698600449065376</v>
       </c>
       <c r="G7" t="n" s="197">
-        <v>-7.091798263300965</v>
+        <v>-7.722312132183778</v>
       </c>
       <c r="H7" t="n" s="198">
-        <v>-5.2133275085327035</v>
-      </c>
-      <c r="I7" s="199"/>
-      <c r="J7" s="200"/>
-      <c r="K7" s="201"/>
+        <v>-6.14827999554811</v>
+      </c>
+      <c r="I7" t="n" s="199">
+        <v>-2.6652744650915325</v>
+      </c>
+      <c r="J7" t="n" s="200">
+        <v>0.5242427100347311</v>
+      </c>
+      <c r="K7" t="n" s="201">
+        <v>2.7112981153947606</v>
+      </c>
       <c r="L7" t="n" s="202">
         <v>1.0</v>
       </c>
@@ -3830,13 +3906,13 @@
         <v>4.0</v>
       </c>
       <c r="P7" t="n" s="206">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
       <c r="Q7" t="n" s="207">
-        <v>0.0</v>
+        <v>6.0</v>
       </c>
       <c r="R7" t="n" s="208">
-        <v>0.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="8">
@@ -3844,31 +3920,35 @@
         <v>33</v>
       </c>
       <c r="B8" t="n" s="192">
-        <v>55.0</v>
+        <v>60.0</v>
       </c>
       <c r="C8" t="n" s="193">
-        <v>1.8545454545454545</v>
+        <v>2.066666666666667</v>
       </c>
       <c r="D8" t="n" s="194">
-        <v>-1.241337541475748</v>
+        <v>-0.24741284837329064</v>
       </c>
       <c r="E8" t="n" s="195">
-        <v>-11.629289727111159</v>
+        <v>-11.921445543980306</v>
       </c>
       <c r="F8" t="n" s="196">
-        <v>-10.731982602237165</v>
+        <v>-10.96808275021046</v>
       </c>
       <c r="G8" t="n" s="197">
-        <v>-9.538361729982627</v>
+        <v>-9.626535583901404</v>
       </c>
       <c r="H8" t="n" s="198">
-        <v>-8.47541213077492</v>
+        <v>-8.68724459783828</v>
       </c>
       <c r="I8" t="n" s="199">
-        <v>-6.206687707378739</v>
-      </c>
-      <c r="J8" s="200"/>
-      <c r="K8" s="201"/>
+        <v>-5.838980217954247</v>
+      </c>
+      <c r="J8" t="n" s="200">
+        <v>-3.2842041934005244</v>
+      </c>
+      <c r="K8" t="n" s="201">
+        <v>-1.7318899386130344</v>
+      </c>
       <c r="L8" t="n" s="202">
         <v>1.0</v>
       </c>
@@ -3885,10 +3965,10 @@
         <v>5.0</v>
       </c>
       <c r="Q8" t="n" s="207">
-        <v>0.0</v>
+        <v>6.0</v>
       </c>
       <c r="R8" t="n" s="208">
-        <v>0.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="9">
@@ -3896,29 +3976,35 @@
         <v>34</v>
       </c>
       <c r="B9" t="n" s="192">
-        <v>55.0</v>
+        <v>60.0</v>
       </c>
       <c r="C9" t="n" s="193">
-        <v>1.4727272727272727</v>
+        <v>1.7833333333333334</v>
       </c>
       <c r="D9" t="n" s="194">
-        <v>-1.5646634954372989</v>
+        <v>0.1198747712138631</v>
       </c>
       <c r="E9" t="n" s="195">
-        <v>-11.075100189854728</v>
+        <v>-11.554157924393152</v>
       </c>
       <c r="F9" t="n" s="196">
-        <v>-9.623603527724304</v>
+        <v>-10.233507511036153</v>
       </c>
       <c r="G9" t="n" s="197">
-        <v>-7.875793118213333</v>
+        <v>-8.524672725139943</v>
       </c>
       <c r="H9" t="n" s="198">
-        <v>-6.2586539817491955</v>
-      </c>
-      <c r="I9" s="199"/>
-      <c r="J9" s="200"/>
-      <c r="K9" s="201"/>
+        <v>-7.218094119489665</v>
+      </c>
+      <c r="I9" t="n" s="199">
+        <v>-4.002542120018478</v>
+      </c>
+      <c r="J9" t="n" s="200">
+        <v>-1.0804784758776012</v>
+      </c>
+      <c r="K9" t="n" s="201">
+        <v>0.8391233984970417</v>
+      </c>
       <c r="L9" t="n" s="202">
         <v>1.0</v>
       </c>
@@ -3932,13 +4018,13 @@
         <v>4.0</v>
       </c>
       <c r="P9" t="n" s="206">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
       <c r="Q9" t="n" s="207">
-        <v>0.0</v>
+        <v>6.0</v>
       </c>
       <c r="R9" t="n" s="208">
-        <v>0.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="10">
@@ -3985,25 +4071,25 @@
         <v>31</v>
       </c>
       <c r="B14" t="n" s="227">
-        <v>-11.524200439453125</v>
+        <v>-11.999908447265625</v>
       </c>
       <c r="C14" t="n" s="228">
-        <v>0.461700439453125</v>
+        <v>0.150054931640625</v>
       </c>
       <c r="D14" t="n" s="229">
-        <v>1.001495361328125</v>
+        <v>0.796966552734375</v>
       </c>
       <c r="E14" t="n" s="230">
-        <v>1.240264892578125</v>
+        <v>1.182220458984375</v>
       </c>
       <c r="F14" t="n" s="231">
-        <v>1.456146240234375</v>
+        <v>1.873077392578125</v>
       </c>
       <c r="G14" t="n" s="232">
-        <v>1.539459228515625</v>
+        <v>2.142242431640625</v>
       </c>
       <c r="H14" t="n" s="233">
-        <v>1.853485107421875</v>
+        <v>2.403900146484375</v>
       </c>
     </row>
     <row r="15">
@@ -4011,62 +4097,78 @@
         <v>32</v>
       </c>
       <c r="B15" t="n" s="227">
-        <v>-10.815765380859375</v>
+        <v>-11.286895751953125</v>
       </c>
       <c r="C15" t="n" s="228">
-        <v>1.199432373046875</v>
+        <v>1.072174072265625</v>
       </c>
       <c r="D15" t="n" s="229">
-        <v>1.904571533203125</v>
+        <v>1.719085693359375</v>
       </c>
       <c r="E15" t="n" s="230">
-        <v>2.509368896484375</v>
-      </c>
-      <c r="F15" s="231"/>
-      <c r="G15" s="232"/>
-      <c r="H15" s="233"/>
+        <v>2.104339599609375</v>
+      </c>
+      <c r="F15" t="n" s="231">
+        <v>2.795196533203125</v>
+      </c>
+      <c r="G15" t="n" s="232">
+        <v>3.064361572265625</v>
+      </c>
+      <c r="H15" t="n" s="233">
+        <v>3.326019287109375</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="222">
         <v>33</v>
       </c>
       <c r="B16" t="n" s="227">
-        <v>-11.631317138671875</v>
+        <v>-11.921905517578125</v>
       </c>
       <c r="C16" t="n" s="228">
-        <v>0.371063232421875</v>
+        <v>0.437164306640625</v>
       </c>
       <c r="D16" t="n" s="229">
-        <v>1.021820068359375</v>
+        <v>1.084259033203125</v>
       </c>
       <c r="E16" t="n" s="230">
-        <v>1.471710205078125</v>
+        <v>1.469512939453125</v>
       </c>
       <c r="F16" t="n" s="231">
-        <v>2.532440185546875</v>
-      </c>
-      <c r="G16" s="232"/>
-      <c r="H16" s="233"/>
+        <v>2.160186767578125</v>
+      </c>
+      <c r="G16" t="n" s="232">
+        <v>2.429351806640625</v>
+      </c>
+      <c r="H16" t="n" s="233">
+        <v>2.691009521484375</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="222">
         <v>34</v>
       </c>
       <c r="B17" t="n" s="227">
-        <v>-11.077056884765625</v>
+        <v>-11.554412841796875</v>
       </c>
       <c r="C17" t="n" s="228">
-        <v>0.938140869140625</v>
+        <v>0.804656982421875</v>
       </c>
       <c r="D17" t="n" s="229">
-        <v>1.643280029296875</v>
+        <v>1.451751708984375</v>
       </c>
       <c r="E17" t="n" s="230">
-        <v>2.248077392578125</v>
-      </c>
-      <c r="F17" s="231"/>
-      <c r="G17" s="232"/>
-      <c r="H17" s="233"/>
+        <v>1.836822509765625</v>
+      </c>
+      <c r="F17" t="n" s="231">
+        <v>2.527679443359375</v>
+      </c>
+      <c r="G17" t="n" s="232">
+        <v>2.796844482421875</v>
+      </c>
+      <c r="H17" t="n" s="233">
+        <v>3.058502197265625</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
@@ -4094,7 +4196,7 @@
         <v>31</v>
       </c>
       <c r="B22" t="n" s="252">
-        <v>1.168771805486328</v>
+        <v>1.2632753806964703</v>
       </c>
     </row>
     <row r="23">
@@ -4102,7 +4204,7 @@
         <v>32</v>
       </c>
       <c r="B23" t="n" s="252">
-        <v>1.4194881963549262</v>
+        <v>2.1766459418700257</v>
       </c>
     </row>
     <row r="24">
@@ -4110,7 +4212,7 @@
         <v>33</v>
       </c>
       <c r="B24" t="n" s="252">
-        <v>0.9332752400842628</v>
+        <v>1.541289438255184</v>
       </c>
     </row>
     <row r="25">
@@ -4118,7 +4220,7 @@
         <v>34</v>
       </c>
       <c r="B25" t="n" s="252">
-        <v>1.1796323736216467</v>
+        <v>1.9142171076625587</v>
       </c>
     </row>
     <row r="26">
@@ -4170,25 +4272,25 @@
         <v>31</v>
       </c>
       <c r="B30" t="n" s="272">
-        <v>0.963839623666667</v>
+        <v>0.9961103512829776</v>
       </c>
       <c r="C30" t="n" s="273">
-        <v>-0.07261740070636337</v>
+        <v>0.03291348949158613</v>
       </c>
       <c r="D30" t="n" s="274">
-        <v>0.9421105795164532</v>
+        <v>0.9737435755658457</v>
       </c>
       <c r="E30" t="n" s="275">
         <v>1.0</v>
       </c>
       <c r="F30" t="n" s="276">
-        <v>1.1286148388179538</v>
+        <v>1.2817094738447314</v>
       </c>
       <c r="G30" t="n" s="277">
-        <v>0.4839336868135625</v>
+        <v>1.1654235129113222</v>
       </c>
       <c r="H30" t="n" s="278">
-        <v>0.6284329320428332</v>
+        <v>0.24384760424870502</v>
       </c>
       <c r="I30" t="n" s="279">
         <v>1.0</v>
@@ -4199,25 +4301,25 @@
         <v>32</v>
       </c>
       <c r="B31" t="n" s="272">
-        <v>0.9121302286233982</v>
+        <v>0.8226103606680556</v>
       </c>
       <c r="C31" t="n" s="273">
-        <v>-0.08826701145128472</v>
+        <v>-0.2808654278932133</v>
       </c>
       <c r="D31" t="n" s="274">
-        <v>0.9296644576374717</v>
+        <v>0.7788136182404902</v>
       </c>
       <c r="E31" t="n" s="275">
         <v>1.0</v>
       </c>
       <c r="F31" t="n" s="276">
-        <v>0.9813479120585171</v>
+        <v>0.761178941462868</v>
       </c>
       <c r="G31" t="n" s="277">
-        <v>-0.018664974162277394</v>
+        <v>-0.8582563955097912</v>
       </c>
       <c r="H31" t="n" s="278">
-        <v>0.9851083699539622</v>
+        <v>0.39075090141649804</v>
       </c>
       <c r="I31" t="n" s="279">
         <v>1.0</v>
@@ -4228,25 +4330,25 @@
         <v>33</v>
       </c>
       <c r="B32" t="n" s="272">
-        <v>0.8516021447957602</v>
+        <v>0.9053210939302004</v>
       </c>
       <c r="C32" t="n" s="273">
-        <v>-0.4069308529469935</v>
+        <v>-0.21360599943752281</v>
       </c>
       <c r="D32" t="n" s="274">
-        <v>0.6840587748513579</v>
+        <v>0.830854320505296</v>
       </c>
       <c r="E32" t="n" s="275">
         <v>1.0</v>
       </c>
       <c r="F32" t="n" s="276">
-        <v>0.9679810771707896</v>
+        <v>0.8251856574492473</v>
       </c>
       <c r="G32" t="n" s="277">
-        <v>-0.12431667678557884</v>
+        <v>-0.7323525963860886</v>
       </c>
       <c r="H32" t="n" s="278">
-        <v>0.9010645435631862</v>
+        <v>0.46395338417742893</v>
       </c>
       <c r="I32" t="n" s="279">
         <v>1.0</v>
@@ -4257,25 +4359,25 @@
         <v>34</v>
       </c>
       <c r="B33" t="n" s="272">
-        <v>1.2590041555124336</v>
+        <v>1.2066819883105078</v>
       </c>
       <c r="C33" t="n" s="273">
-        <v>0.5837521844642344</v>
+        <v>0.4677166494159387</v>
       </c>
       <c r="D33" t="n" s="274">
-        <v>0.5593870523637005</v>
+        <v>0.639987233126804</v>
       </c>
       <c r="E33" t="n" s="275">
         <v>1.0</v>
       </c>
       <c r="F33" t="n" s="276">
-        <v>1.1458467381851463</v>
+        <v>1.0818951183261278</v>
       </c>
       <c r="G33" t="n" s="277">
-        <v>0.6113337515346624</v>
+        <v>0.3429734301196571</v>
       </c>
       <c r="H33" t="n" s="278">
-        <v>0.5409786509636044</v>
+        <v>0.7316184488521782</v>
       </c>
       <c r="I33" t="n" s="279">
         <v>1.0</v>
@@ -4286,25 +4388,25 @@
         <v>57</v>
       </c>
       <c r="B34" t="n" s="272">
-        <v>1.1659902058623786</v>
+        <v>1.4699047636231672</v>
       </c>
       <c r="C34" t="n" s="273">
-        <v>72.05505650416819</v>
+        <v>14.380870192302197</v>
       </c>
       <c r="D34" t="n" s="274">
-        <v>0.0</v>
+        <v>6.823122038145446E-47</v>
       </c>
       <c r="E34" t="n" s="275">
-        <v>0.0</v>
+        <v>4.776185426701812E-46</v>
       </c>
       <c r="F34" t="n" s="276">
-        <v>1.3070217045703336</v>
+        <v>1.4349882300853232</v>
       </c>
       <c r="G34" t="n" s="277">
-        <v>0.7126953950376189</v>
+        <v>1.1879392621438436</v>
       </c>
       <c r="H34" t="n" s="278">
-        <v>0.47603426664646054</v>
+        <v>0.23485733986400265</v>
       </c>
       <c r="I34" t="n" s="279">
         <v>1.0</v>
@@ -4315,28 +4417,28 @@
         <v>58</v>
       </c>
       <c r="B35" t="n" s="272">
-        <v>1.359715784458088</v>
+        <v>1.3294176460788796</v>
       </c>
       <c r="C35" t="n" s="273">
-        <v>0.7134966718421614</v>
+        <v>0.6437669446074004</v>
       </c>
       <c r="D35" t="n" s="274">
-        <v>0.47553847185271264</v>
+        <v>0.5197265717693913</v>
       </c>
       <c r="E35" t="n" s="275">
         <v>1.0</v>
       </c>
       <c r="F35" t="n" s="276">
-        <v>1.509101967598255</v>
+        <v>1.451404424902447</v>
       </c>
       <c r="G35" t="n" s="277">
-        <v>5.44457587273832</v>
+        <v>4.574900783409293</v>
       </c>
       <c r="H35" t="n" s="278">
-        <v>5.192896642292427E-8</v>
+        <v>4.7644571977291695E-6</v>
       </c>
       <c r="I35" t="n" s="279">
-        <v>5.192896642292427E-7</v>
+        <v>4.7644571977291695E-5</v>
       </c>
     </row>
     <row r="36">
@@ -4344,28 +4446,28 @@
         <v>59</v>
       </c>
       <c r="B36" t="n" s="272">
-        <v>1.0812570314416532</v>
+        <v>1.1663150163706264</v>
       </c>
       <c r="C36" t="n" s="273">
-        <v>1.3270864223692431</v>
+        <v>2.791070284893552</v>
       </c>
       <c r="D36" t="n" s="274">
-        <v>0.18448009620047234</v>
+        <v>0.005253406318110365</v>
       </c>
       <c r="E36" t="n" s="275">
-        <v>1.0</v>
+        <v>0.031520437908662186</v>
       </c>
       <c r="F36" t="n" s="276">
-        <v>1.178111337237629</v>
+        <v>1.3562966212128285</v>
       </c>
       <c r="G36" t="n" s="277">
-        <v>1.3081466794349301</v>
+        <v>3.134313130804863</v>
       </c>
       <c r="H36" t="n" s="278">
-        <v>0.19082356327830338</v>
+        <v>0.0017225693041668733</v>
       </c>
       <c r="I36" t="n" s="279">
-        <v>1.0</v>
+        <v>0.015503123737501859</v>
       </c>
     </row>
     <row r="37">
@@ -4373,28 +4475,28 @@
         <v>60</v>
       </c>
       <c r="B37" t="n" s="272">
-        <v>1.100480171910782</v>
+        <v>1.1438846473036586</v>
       </c>
       <c r="C37" t="n" s="273">
-        <v>10.916470774284956</v>
+        <v>44.130053819214794</v>
       </c>
       <c r="D37" t="n" s="274">
-        <v>9.616007690328753E-28</v>
+        <v>0.0</v>
       </c>
       <c r="E37" t="n" s="275">
-        <v>6.731205383230127E-27</v>
+        <v>0.0</v>
       </c>
       <c r="F37" t="n" s="276">
-        <v>0.8278508960240731</v>
+        <v>1.334971350831742</v>
       </c>
       <c r="G37" t="n" s="277">
-        <v>-1.1499431211476734</v>
+        <v>2.691852114542483</v>
       </c>
       <c r="H37" t="n" s="278">
-        <v>0.2501672988777217</v>
+        <v>0.007105644564286293</v>
       </c>
       <c r="I37" t="n" s="279">
-        <v>1.0</v>
+        <v>0.05684515651429035</v>
       </c>
     </row>
     <row r="38">
@@ -4402,22 +4504,28 @@
         <v>61</v>
       </c>
       <c r="B38" t="n" s="272">
-        <v>0.32022675139187845</v>
-      </c>
-      <c r="C38" s="273"/>
-      <c r="D38" s="274"/>
-      <c r="E38" s="275"/>
+        <v>0.2930967538428368</v>
+      </c>
+      <c r="C38" t="n" s="273">
+        <v>2806.7404072817694</v>
+      </c>
+      <c r="D38" t="n" s="274">
+        <v>0.0</v>
+      </c>
+      <c r="E38" t="n" s="275">
+        <v>0.0</v>
+      </c>
       <c r="F38" t="n" s="276">
-        <v>0.7338811649850883</v>
+        <v>0.5109298599328786</v>
       </c>
       <c r="G38" t="n" s="277">
-        <v>-0.8251333254053105</v>
+        <v>-2.435054597740375</v>
       </c>
       <c r="H38" t="n" s="278">
-        <v>0.4092959016108523</v>
+        <v>0.014889542867055659</v>
       </c>
       <c r="I38" t="n" s="279">
-        <v>1.0</v>
+        <v>0.10422680006938961</v>
       </c>
     </row>
     <row r="39">
@@ -4425,19 +4533,25 @@
         <v>62</v>
       </c>
       <c r="B39" t="n" s="272">
-        <v>0.6230963963031887</v>
-      </c>
-      <c r="C39" s="273"/>
-      <c r="D39" s="274"/>
-      <c r="E39" s="275"/>
+        <v>0.940095789375257</v>
+      </c>
+      <c r="C39" t="n" s="273">
+        <v>204119.89939557965</v>
+      </c>
+      <c r="D39" t="n" s="274">
+        <v>0.0</v>
+      </c>
+      <c r="E39" t="n" s="275">
+        <v>0.0</v>
+      </c>
       <c r="F39" t="n" s="276">
-        <v>1.0914625297490177</v>
+        <v>0.9873803049210471</v>
       </c>
       <c r="G39" t="n" s="277">
-        <v>0.30523816241673457</v>
+        <v>0.10567818504517965</v>
       </c>
       <c r="H39" t="n" s="278">
-        <v>0.7601847689814283</v>
+        <v>0.9158376892257367</v>
       </c>
       <c r="I39" t="n" s="279">
         <v>1.0</v>
@@ -5857,16 +5971,16 @@
         <v>1.0</v>
       </c>
       <c r="G2" t="n" s="304">
-        <v>0.8021824198283815</v>
+        <v>1.2631724484509537</v>
       </c>
       <c r="H2" t="n" s="305">
-        <v>-0.056353294360854594</v>
+        <v>0.5692015397766781</v>
       </c>
       <c r="I2" t="n" s="306">
-        <v>0.9870943453937477</v>
+        <v>1.5087918342156117</v>
       </c>
       <c r="J2" t="n" s="307">
-        <v>0.25564014251339195</v>
+        <v>0.8248563024526037</v>
       </c>
     </row>
     <row r="3">
@@ -5889,16 +6003,16 @@
         <v>2.0</v>
       </c>
       <c r="G3" t="n" s="304">
-        <v>0.13423022721976088</v>
+        <v>0.13460460787869655</v>
       </c>
       <c r="H3" t="n" s="305">
-        <v>-0.25566338830626745</v>
+        <v>-0.2446785942349854</v>
       </c>
       <c r="I3" t="n" s="306">
-        <v>0.1491698637705754</v>
+        <v>0.1528845184977489</v>
       </c>
       <c r="J3" t="n" s="307">
-        <v>-0.2474604987078569</v>
+        <v>-0.23441327962262648</v>
       </c>
     </row>
     <row r="4">
@@ -5921,16 +6035,16 @@
         <v>3.0</v>
       </c>
       <c r="G4" t="n" s="304">
-        <v>0.32369540115033785</v>
+        <v>0.2518165229839181</v>
       </c>
       <c r="H4" t="n" s="305">
-        <v>-0.3604760770709461</v>
+        <v>-0.494296419821237</v>
       </c>
       <c r="I4" t="n" s="306">
-        <v>0.3600782277791352</v>
+        <v>0.24837899188549845</v>
       </c>
       <c r="J4" t="n" s="307">
-        <v>-0.2932192844108496</v>
+        <v>-0.5820634751841283</v>
       </c>
     </row>
     <row r="5">
@@ -5953,16 +6067,16 @@
         <v>4.0</v>
       </c>
       <c r="G5" t="n" s="304">
-        <v>0.13423022721976088</v>
+        <v>0.13460460787869655</v>
       </c>
       <c r="H5" t="n" s="305">
-        <v>-0.25566338830626745</v>
+        <v>-0.2446785942349854</v>
       </c>
       <c r="I5" t="n" s="306">
-        <v>0.1491698637705754</v>
+        <v>0.1528845184977489</v>
       </c>
       <c r="J5" t="n" s="307">
-        <v>-0.2474604987078569</v>
+        <v>-0.23441327962262648</v>
       </c>
     </row>
     <row r="6">
@@ -5985,16 +6099,16 @@
         <v>5.0</v>
       </c>
       <c r="G6" t="n" s="304">
-        <v>0.32369540115033785</v>
+        <v>0.2518165229839181</v>
       </c>
       <c r="H6" t="n" s="305">
-        <v>-0.3604760770709461</v>
+        <v>-0.494296419821237</v>
       </c>
       <c r="I6" t="n" s="306">
-        <v>0.3600782277791352</v>
+        <v>0.24837899188549845</v>
       </c>
       <c r="J6" t="n" s="307">
-        <v>-0.2932192844108496</v>
+        <v>-0.5820634751841283</v>
       </c>
     </row>
     <row r="7">
@@ -6017,16 +6131,16 @@
         <v>6.0</v>
       </c>
       <c r="G7" t="n" s="304">
-        <v>0.13423022721976088</v>
+        <v>0.13460460787869655</v>
       </c>
       <c r="H7" t="n" s="305">
-        <v>-0.25566338830626745</v>
+        <v>-0.2446785942349854</v>
       </c>
       <c r="I7" t="n" s="306">
-        <v>0.1491698637705754</v>
+        <v>0.1528845184977489</v>
       </c>
       <c r="J7" t="n" s="307">
-        <v>-0.2474604987078569</v>
+        <v>-0.23441327962262648</v>
       </c>
     </row>
     <row r="8">
@@ -6049,16 +6163,16 @@
         <v>7.0</v>
       </c>
       <c r="G8" t="n" s="304">
-        <v>0.08134805145428003</v>
+        <v>0.05207882517151073</v>
       </c>
       <c r="H8" t="n" s="305">
-        <v>-3.2629259857732116</v>
+        <v>-2.5291340251584637</v>
       </c>
       <c r="I8" t="n" s="306">
-        <v>0.10588027949322577</v>
+        <v>0.05277851045953812</v>
       </c>
       <c r="J8" t="n" s="307">
-        <v>-2.6840482288026264</v>
+        <v>-2.45927606275123</v>
       </c>
     </row>
     <row r="9">
@@ -6081,16 +6195,16 @@
         <v>8.0</v>
       </c>
       <c r="G9" t="n" s="304">
-        <v>0.6396406485667274</v>
+        <v>0.8433171561091082</v>
       </c>
       <c r="H9" t="n" s="305">
-        <v>-0.4527800940317186</v>
+        <v>0.044361795005013804</v>
       </c>
       <c r="I9" t="n" s="306">
-        <v>0.4500210786924965</v>
+        <v>0.8581086099802602</v>
       </c>
       <c r="J9" t="n" s="307">
-        <v>-0.7733571364434852</v>
+        <v>0.042699741387243334</v>
       </c>
     </row>
     <row r="10">
@@ -6113,16 +6227,16 @@
         <v>9.0</v>
       </c>
       <c r="G10" t="n" s="304">
-        <v>0.17235781455729038</v>
+        <v>0.17618746680362665</v>
       </c>
       <c r="H10" t="n" s="305">
-        <v>-1.6125052625886314</v>
+        <v>-1.2793594365340835</v>
       </c>
       <c r="I10" t="n" s="306">
-        <v>0.1747973398383504</v>
+        <v>0.135619088756481</v>
       </c>
       <c r="J10" t="n" s="307">
-        <v>-1.3519822816581792</v>
+        <v>-1.6078433236039171</v>
       </c>
     </row>
     <row r="11">
@@ -6145,16 +6259,16 @@
         <v>10.0</v>
       </c>
       <c r="G11" t="n" s="304">
-        <v>0.13423022721976088</v>
+        <v>0.13460460787869655</v>
       </c>
       <c r="H11" t="n" s="305">
-        <v>-0.25566338830626745</v>
+        <v>-0.2446785942349854</v>
       </c>
       <c r="I11" t="n" s="306">
-        <v>0.1491698637705754</v>
+        <v>0.1528845184977489</v>
       </c>
       <c r="J11" t="n" s="307">
-        <v>-0.2474604987078569</v>
+        <v>-0.23441327962262648</v>
       </c>
     </row>
     <row r="12">
@@ -6177,16 +6291,16 @@
         <v>11.0</v>
       </c>
       <c r="G12" t="n" s="304">
-        <v>0.30759176283507655</v>
+        <v>0.10055572476795746</v>
       </c>
       <c r="H12" t="n" s="305">
-        <v>-1.80054987272446</v>
+        <v>-2.12625503298778</v>
       </c>
       <c r="I12" t="n" s="306">
-        <v>0.4788100328976405</v>
+        <v>0.10772177612809987</v>
       </c>
       <c r="J12" t="n" s="307">
-        <v>-1.0009731541059654</v>
+        <v>-2.02552873244673</v>
       </c>
     </row>
     <row r="13">
@@ -6209,16 +6323,16 @@
         <v>12.0</v>
       </c>
       <c r="G13" t="n" s="304">
-        <v>0.4271323628190808</v>
+        <v>0.6377403637651233</v>
       </c>
       <c r="H13" t="n" s="305">
-        <v>-0.9717513687864392</v>
+        <v>-0.2810267960991284</v>
       </c>
       <c r="I13" t="n" s="306">
-        <v>0.3091096235995358</v>
+        <v>0.6724960871847724</v>
       </c>
       <c r="J13" t="n" s="307">
-        <v>-1.1614751855901584</v>
+        <v>-0.259503534101697</v>
       </c>
     </row>
     <row r="14">
@@ -6241,16 +6355,16 @@
         <v>13.0</v>
       </c>
       <c r="G14" t="n" s="304">
-        <v>0.528575257803613</v>
+        <v>0.4898173913541899</v>
       </c>
       <c r="H14" t="n" s="305">
-        <v>-0.7066037742096277</v>
+        <v>-0.5617326654435053</v>
       </c>
       <c r="I14" t="n" s="306">
-        <v>0.4766045339454838</v>
+        <v>0.4396296112478839</v>
       </c>
       <c r="J14" t="n" s="307">
-        <v>-0.7096540719195015</v>
+        <v>-0.731209054725863</v>
       </c>
     </row>
     <row r="15">
@@ -6273,16 +6387,16 @@
         <v>14.0</v>
       </c>
       <c r="G15" t="n" s="304">
-        <v>0.4684270169420769</v>
+        <v>0.35681170539308354</v>
       </c>
       <c r="H15" t="n" s="305">
-        <v>-1.1820703815546123</v>
+        <v>-1.066971607359263</v>
       </c>
       <c r="I15" t="n" s="306">
-        <v>0.30510668973404254</v>
+        <v>0.2998573865684231</v>
       </c>
       <c r="J15" t="n" s="307">
-        <v>-1.6664877237450724</v>
+        <v>-1.2086892694470532</v>
       </c>
     </row>
     <row r="16">
@@ -6305,16 +6419,16 @@
         <v>15.0</v>
       </c>
       <c r="G16" t="n" s="304">
-        <v>1.444278375481471</v>
+        <v>1.8724222199996259</v>
       </c>
       <c r="H16" t="n" s="305">
-        <v>0.914325281953015</v>
+        <v>1.2739882201287087</v>
       </c>
       <c r="I16" t="n" s="306">
-        <v>1.2785706225559743</v>
+        <v>1.8851908561765038</v>
       </c>
       <c r="J16" t="n" s="307">
-        <v>0.6126942043296051</v>
+        <v>1.282026060377571</v>
       </c>
     </row>
     <row r="17">
@@ -6337,16 +6451,16 @@
         <v>16.0</v>
       </c>
       <c r="G17" t="n" s="304">
-        <v>0.56757789824885</v>
+        <v>0.5232771638082867</v>
       </c>
       <c r="H17" t="n" s="305">
-        <v>-0.1809656271583222</v>
+        <v>-0.24782872731504574</v>
       </c>
       <c r="I17" t="n" s="306">
-        <v>0.4605023483753451</v>
+        <v>0.39154077131106</v>
       </c>
       <c r="J17" t="n" s="307">
-        <v>-0.28820228372060425</v>
+        <v>-0.5744904563107371</v>
       </c>
     </row>
     <row r="18">
@@ -6369,16 +6483,16 @@
         <v>17.0</v>
       </c>
       <c r="G18" t="n" s="304">
-        <v>1.5644554458820608</v>
+        <v>0.8411421169113351</v>
       </c>
       <c r="H18" t="n" s="305">
-        <v>1.087012225680751</v>
+        <v>-0.032984581005721963</v>
       </c>
       <c r="I18" t="n" s="306">
-        <v>1.5857823872337626</v>
+        <v>0.8356110460392715</v>
       </c>
       <c r="J18" t="n" s="307">
-        <v>0.9897197238458545</v>
+        <v>-0.03971835047481806</v>
       </c>
     </row>
     <row r="19">
@@ -6401,16 +6515,16 @@
         <v>18.0</v>
       </c>
       <c r="G19" t="n" s="304">
-        <v>0.17144713698856864</v>
+        <v>0.16335135929392056</v>
       </c>
       <c r="H19" t="n" s="305">
-        <v>-1.3051851912781036</v>
+        <v>-1.2875966979716413</v>
       </c>
       <c r="I19" t="n" s="306">
-        <v>0.10927329352159311</v>
+        <v>0.12257573213886894</v>
       </c>
       <c r="J19" t="n" s="307">
-        <v>-1.3543116821266143</v>
+        <v>-1.6348040097208942</v>
       </c>
     </row>
     <row r="20">
@@ -6433,16 +6547,16 @@
         <v>19.0</v>
       </c>
       <c r="G20" t="n" s="304">
-        <v>0.28362768427252555</v>
+        <v>0.38475766415236395</v>
       </c>
       <c r="H20" t="n" s="305">
-        <v>-0.4330155520807434</v>
+        <v>-0.25955328558691854</v>
       </c>
       <c r="I20" t="n" s="306">
-        <v>0.30179807530391967</v>
+        <v>0.44551045674488177</v>
       </c>
       <c r="J20" t="n" s="307">
-        <v>-0.392341761508389</v>
+        <v>-0.23038892914327253</v>
       </c>
     </row>
     <row r="21">
@@ -6465,16 +6579,16 @@
         <v>20.0</v>
       </c>
       <c r="G21" t="n" s="304">
-        <v>0.13423022721976088</v>
+        <v>0.13460460787869655</v>
       </c>
       <c r="H21" t="n" s="305">
-        <v>-0.25566338830626745</v>
+        <v>-0.2446785942349854</v>
       </c>
       <c r="I21" t="n" s="306">
-        <v>0.1491698637705754</v>
+        <v>0.1528845184977489</v>
       </c>
       <c r="J21" t="n" s="307">
-        <v>-0.2474604987078569</v>
+        <v>-0.23441327962262648</v>
       </c>
     </row>
     <row r="22">
@@ -6497,16 +6611,16 @@
         <v>21.0</v>
       </c>
       <c r="G22" t="n" s="304">
-        <v>0.32369540115033785</v>
+        <v>0.2518165229839181</v>
       </c>
       <c r="H22" t="n" s="305">
-        <v>-0.3604760770709461</v>
+        <v>-0.494296419821237</v>
       </c>
       <c r="I22" t="n" s="306">
-        <v>0.3600782277791352</v>
+        <v>0.24837899188549845</v>
       </c>
       <c r="J22" t="n" s="307">
-        <v>-0.2932192844108496</v>
+        <v>-0.5820634751841283</v>
       </c>
     </row>
     <row r="23">
@@ -6529,16 +6643,16 @@
         <v>22.0</v>
       </c>
       <c r="G23" t="n" s="304">
-        <v>0.13423022721976088</v>
+        <v>0.13460460787869655</v>
       </c>
       <c r="H23" t="n" s="305">
-        <v>-0.25566338830626745</v>
+        <v>-0.2446785942349854</v>
       </c>
       <c r="I23" t="n" s="306">
-        <v>0.1491698637705754</v>
+        <v>0.1528845184977489</v>
       </c>
       <c r="J23" t="n" s="307">
-        <v>-0.2474604987078569</v>
+        <v>-0.23441327962262648</v>
       </c>
     </row>
     <row r="24">
@@ -6561,16 +6675,16 @@
         <v>23.0</v>
       </c>
       <c r="G24" t="n" s="304">
-        <v>0.13423022721976088</v>
+        <v>0.13460460787869655</v>
       </c>
       <c r="H24" t="n" s="305">
-        <v>-0.25566338830626745</v>
+        <v>-0.2446785942349854</v>
       </c>
       <c r="I24" t="n" s="306">
-        <v>0.1491698637705754</v>
+        <v>0.1528845184977489</v>
       </c>
       <c r="J24" t="n" s="307">
-        <v>-0.2474604987078569</v>
+        <v>-0.23441327962262648</v>
       </c>
     </row>
     <row r="25">
@@ -6593,16 +6707,16 @@
         <v>24.0</v>
       </c>
       <c r="G25" t="n" s="304">
-        <v>0.13423022721976088</v>
+        <v>0.13460460787869655</v>
       </c>
       <c r="H25" t="n" s="305">
-        <v>-0.25566338830626745</v>
+        <v>-0.2446785942349854</v>
       </c>
       <c r="I25" t="n" s="306">
-        <v>0.1491698637705754</v>
+        <v>0.1528845184977489</v>
       </c>
       <c r="J25" t="n" s="307">
-        <v>-0.2474604987078569</v>
+        <v>-0.23441327962262648</v>
       </c>
     </row>
     <row r="26">
@@ -6625,16 +6739,16 @@
         <v>25.0</v>
       </c>
       <c r="G26" t="n" s="304">
-        <v>0.13423022721976088</v>
+        <v>0.13460460787869655</v>
       </c>
       <c r="H26" t="n" s="305">
-        <v>-0.25566338830626745</v>
+        <v>-0.2446785942349854</v>
       </c>
       <c r="I26" t="n" s="306">
-        <v>0.1491698637705754</v>
+        <v>0.1528845184977489</v>
       </c>
       <c r="J26" t="n" s="307">
-        <v>-0.2474604987078569</v>
+        <v>-0.23441327962262648</v>
       </c>
     </row>
     <row r="27">
@@ -6657,16 +6771,16 @@
         <v>26.0</v>
       </c>
       <c r="G27" t="n" s="304">
-        <v>1.6343927890048089</v>
+        <v>1.7851890370120196</v>
       </c>
       <c r="H27" t="n" s="305">
-        <v>1.2416640424591143</v>
+        <v>1.16478056321302</v>
       </c>
       <c r="I27" t="n" s="306">
-        <v>1.2809879782731948</v>
+        <v>1.9303891373002142</v>
       </c>
       <c r="J27" t="n" s="307">
-        <v>0.6520506648018971</v>
+        <v>1.2879671958153782</v>
       </c>
     </row>
     <row r="28">
@@ -6689,16 +6803,16 @@
         <v>27.0</v>
       </c>
       <c r="G28" t="n" s="304">
-        <v>0.13423022721976088</v>
+        <v>0.13460460787869655</v>
       </c>
       <c r="H28" t="n" s="305">
-        <v>-0.25566338830626745</v>
+        <v>-0.2446785942349854</v>
       </c>
       <c r="I28" t="n" s="306">
-        <v>0.1491698637705754</v>
+        <v>0.1528845184977489</v>
       </c>
       <c r="J28" t="n" s="307">
-        <v>-0.2474604987078569</v>
+        <v>-0.23441327962262648</v>
       </c>
     </row>
     <row r="29">
@@ -6721,53 +6835,53 @@
         <v>28.0</v>
       </c>
       <c r="G29" t="n" s="304">
-        <v>1.0355674936472825</v>
+        <v>1.149855363526587</v>
       </c>
       <c r="H29" t="n" s="305">
-        <v>0.28840007549726066</v>
+        <v>0.45075867441393586</v>
       </c>
       <c r="I29" t="n" s="306">
-        <v>0.5915362724839104</v>
+        <v>0.7087794086502824</v>
       </c>
       <c r="J29" t="n" s="307">
-        <v>-0.3196906575892723</v>
+        <v>-0.15620547630236792</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n" s="298">
-        <v>10203.0</v>
+        <v>10202.0</v>
       </c>
       <c r="B30" t="n" s="299">
-        <v>1.0</v>
+        <v>7.0</v>
       </c>
       <c r="C30" t="n" s="300">
-        <v>1.0</v>
+        <v>7.0</v>
       </c>
       <c r="D30" t="n" s="301">
-        <v>2.0</v>
+        <v>7.0</v>
       </c>
       <c r="E30" t="n" s="302">
-        <v>1.0</v>
+        <v>7.0</v>
       </c>
       <c r="F30" t="n" s="303">
         <v>29.0</v>
       </c>
       <c r="G30" t="n" s="304">
-        <v>0.28362768427252555</v>
+        <v>0.1408898138448442</v>
       </c>
       <c r="H30" t="n" s="305">
-        <v>-0.4330155520807434</v>
+        <v>-0.10200874135985538</v>
       </c>
       <c r="I30" t="n" s="306">
-        <v>0.30179807530391967</v>
+        <v>0.17693280626826374</v>
       </c>
       <c r="J30" t="n" s="307">
-        <v>-0.392341761508389</v>
+        <v>-0.20589695346114112</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n" s="298">
-        <v>10204.0</v>
+        <v>10203.0</v>
       </c>
       <c r="B31" t="n" s="299">
         <v>1.0</v>
@@ -6776,7 +6890,7 @@
         <v>1.0</v>
       </c>
       <c r="D31" t="n" s="301">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="E31" t="n" s="302">
         <v>1.0</v>
@@ -6785,85 +6899,85 @@
         <v>30.0</v>
       </c>
       <c r="G31" t="n" s="304">
-        <v>0.13423022721976088</v>
+        <v>0.38475766415236395</v>
       </c>
       <c r="H31" t="n" s="305">
-        <v>-0.25566338830626745</v>
+        <v>-0.25955328558691854</v>
       </c>
       <c r="I31" t="n" s="306">
-        <v>0.1491698637705754</v>
+        <v>0.44551045674488177</v>
       </c>
       <c r="J31" t="n" s="307">
-        <v>-0.2474604987078569</v>
+        <v>-0.23038892914327253</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n" s="298">
-        <v>10206.0</v>
+        <v>10204.0</v>
       </c>
       <c r="B32" t="n" s="299">
-        <v>6.0</v>
+        <v>1.0</v>
       </c>
       <c r="C32" t="n" s="300">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="D32" t="n" s="301">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="E32" t="n" s="302">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="F32" t="n" s="303">
         <v>31.0</v>
       </c>
       <c r="G32" t="n" s="304">
-        <v>0.28019810628756264</v>
+        <v>0.13460460787869655</v>
       </c>
       <c r="H32" t="n" s="305">
-        <v>-1.7788656546071184</v>
+        <v>-0.2446785942349854</v>
       </c>
       <c r="I32" t="n" s="306">
-        <v>0.23669726243512912</v>
+        <v>0.1528845184977489</v>
       </c>
       <c r="J32" t="n" s="307">
-        <v>-1.5661930802072572</v>
+        <v>-0.23441327962262648</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n" s="298">
-        <v>10208.0</v>
+        <v>10206.0</v>
       </c>
       <c r="B33" t="n" s="299">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
       <c r="C33" t="n" s="300">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="D33" t="n" s="301">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="E33" t="n" s="302">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="F33" t="n" s="303">
         <v>32.0</v>
       </c>
       <c r="G33" t="n" s="304">
-        <v>1.0358139184141253</v>
+        <v>0.528948598202691</v>
       </c>
       <c r="H33" t="n" s="305">
-        <v>0.3224165812327298</v>
+        <v>-0.6454705535609645</v>
       </c>
       <c r="I33" t="n" s="306">
-        <v>1.1773094071690373</v>
+        <v>0.5594040373807091</v>
       </c>
       <c r="J33" t="n" s="307">
-        <v>0.4916620187612301</v>
+        <v>-0.5708965482804981</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n" s="298">
-        <v>10209.0</v>
+        <v>10208.0</v>
       </c>
       <c r="B34" t="n" s="299">
         <v>1.0</v>
@@ -6872,7 +6986,7 @@
         <v>1.0</v>
       </c>
       <c r="D34" t="n" s="301">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="E34" t="n" s="302">
         <v>1.0</v>
@@ -6881,126 +6995,126 @@
         <v>33.0</v>
       </c>
       <c r="G34" t="n" s="304">
-        <v>0.13423022721976088</v>
+        <v>1.412402925081063</v>
       </c>
       <c r="H34" t="n" s="305">
-        <v>-0.25566338830626745</v>
+        <v>0.7116576714633736</v>
       </c>
       <c r="I34" t="n" s="306">
-        <v>0.1491698637705754</v>
+        <v>1.6441600582795262</v>
       </c>
       <c r="J34" t="n" s="307">
-        <v>-0.2474604987078569</v>
+        <v>0.9454050467185979</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n" s="298">
-        <v>10211.0</v>
+        <v>10209.0</v>
       </c>
       <c r="B35" t="n" s="299">
         <v>1.0</v>
       </c>
       <c r="C35" t="n" s="300">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="D35" t="n" s="301">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="E35" t="n" s="302">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="F35" t="n" s="303">
         <v>34.0</v>
       </c>
       <c r="G35" t="n" s="304">
-        <v>0.8206775294837899</v>
+        <v>0.13460460787869655</v>
       </c>
       <c r="H35" t="n" s="305">
-        <v>-0.026759480406967157</v>
+        <v>-0.2446785942349854</v>
       </c>
       <c r="I35" t="n" s="306">
-        <v>0.8567274013761007</v>
+        <v>0.1528845184977489</v>
       </c>
       <c r="J35" t="n" s="307">
-        <v>0.08654199198859797</v>
+        <v>-0.23441327962262648</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n" s="298">
-        <v>10212.0</v>
+        <v>10210.0</v>
       </c>
       <c r="B36" t="n" s="299">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="C36" t="n" s="300">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="D36" t="n" s="301">
         <v>4.0</v>
       </c>
       <c r="E36" t="n" s="302">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
       <c r="F36" t="n" s="303">
         <v>35.0</v>
       </c>
       <c r="G36" t="n" s="304">
-        <v>0.3847349223084076</v>
+        <v>1.2202342007249003</v>
       </c>
       <c r="H36" t="n" s="305">
-        <v>-1.269203479102044</v>
+        <v>0.5322009610467913</v>
       </c>
       <c r="I36" t="n" s="306">
-        <v>0.5328134004198087</v>
+        <v>1.146819946618171</v>
       </c>
       <c r="J36" t="n" s="307">
-        <v>-0.7441962876939275</v>
+        <v>0.43234659731594943</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n" s="298">
-        <v>10213.0</v>
+        <v>10211.0</v>
       </c>
       <c r="B37" t="n" s="299">
         <v>1.0</v>
       </c>
       <c r="C37" t="n" s="300">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="D37" t="n" s="301">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="E37" t="n" s="302">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="F37" t="n" s="303">
         <v>36.0</v>
       </c>
       <c r="G37" t="n" s="304">
-        <v>0.13423022721976088</v>
+        <v>0.9911545201566849</v>
       </c>
       <c r="H37" t="n" s="305">
-        <v>-0.25566338830626745</v>
+        <v>0.2710011051363696</v>
       </c>
       <c r="I37" t="n" s="306">
-        <v>0.1491698637705754</v>
+        <v>0.988603726646555</v>
       </c>
       <c r="J37" t="n" s="307">
-        <v>-0.2474604987078569</v>
+        <v>0.24562390749706192</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n" s="298">
-        <v>10214.0</v>
+        <v>10212.0</v>
       </c>
       <c r="B38" t="n" s="299">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="C38" t="n" s="300">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="D38" t="n" s="301">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="E38" t="n" s="302">
         <v>2.0</v>
@@ -7009,21 +7123,21 @@
         <v>37.0</v>
       </c>
       <c r="G38" t="n" s="304">
-        <v>0.6634657088854555</v>
+        <v>0.5928853244082732</v>
       </c>
       <c r="H38" t="n" s="305">
-        <v>-0.29430358731658024</v>
+        <v>-0.38620870878005714</v>
       </c>
       <c r="I38" t="n" s="306">
-        <v>0.7317266806282957</v>
+        <v>0.6898760095797037</v>
       </c>
       <c r="J38" t="n" s="307">
-        <v>-0.0925776233529913</v>
+        <v>-0.24019011922681058</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n" s="298">
-        <v>10215.0</v>
+        <v>10213.0</v>
       </c>
       <c r="B39" t="n" s="299">
         <v>1.0</v>
@@ -7041,53 +7155,53 @@
         <v>38.0</v>
       </c>
       <c r="G39" t="n" s="304">
-        <v>0.13423022721976088</v>
+        <v>0.13460460787869655</v>
       </c>
       <c r="H39" t="n" s="305">
-        <v>-0.25566338830626745</v>
+        <v>-0.2446785942349854</v>
       </c>
       <c r="I39" t="n" s="306">
-        <v>0.1491698637705754</v>
+        <v>0.1528845184977489</v>
       </c>
       <c r="J39" t="n" s="307">
-        <v>-0.2474604987078569</v>
+        <v>-0.23441327962262648</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n" s="298">
-        <v>10216.0</v>
+        <v>10214.0</v>
       </c>
       <c r="B40" t="n" s="299">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="C40" t="n" s="300">
+        <v>1.0</v>
+      </c>
+      <c r="D40" t="n" s="301">
+        <v>1.0</v>
+      </c>
+      <c r="E40" t="n" s="302">
         <v>2.0</v>
-      </c>
-      <c r="D40" t="n" s="301">
-        <v>1.0</v>
-      </c>
-      <c r="E40" t="n" s="302">
-        <v>1.0</v>
       </c>
       <c r="F40" t="n" s="303">
         <v>39.0</v>
       </c>
       <c r="G40" t="n" s="304">
-        <v>0.8857779565563797</v>
+        <v>0.7589126626284061</v>
       </c>
       <c r="H40" t="n" s="305">
-        <v>0.31072467434568035</v>
+        <v>-0.030582599522112897</v>
       </c>
       <c r="I40" t="n" s="306">
-        <v>0.667456147788467</v>
+        <v>0.9366477359469674</v>
       </c>
       <c r="J40" t="n" s="307">
-        <v>0.10289309523931484</v>
+        <v>0.1773634706669385</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n" s="298">
-        <v>10217.0</v>
+        <v>10215.0</v>
       </c>
       <c r="B41" t="n" s="299">
         <v>1.0</v>
@@ -7105,53 +7219,53 @@
         <v>40.0</v>
       </c>
       <c r="G41" t="n" s="304">
-        <v>0.13423022721976088</v>
+        <v>0.13460460787869655</v>
       </c>
       <c r="H41" t="n" s="305">
-        <v>-0.25566338830626745</v>
+        <v>-0.2446785942349854</v>
       </c>
       <c r="I41" t="n" s="306">
-        <v>0.1491698637705754</v>
+        <v>0.1528845184977489</v>
       </c>
       <c r="J41" t="n" s="307">
-        <v>-0.2474604987078569</v>
+        <v>-0.23441327962262648</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n" s="298">
-        <v>10218.0</v>
+        <v>10216.0</v>
       </c>
       <c r="B42" t="n" s="299">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="C42" t="n" s="300">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="D42" t="n" s="301">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="E42" t="n" s="302">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="F42" t="n" s="303">
         <v>41.0</v>
       </c>
       <c r="G42" t="n" s="304">
-        <v>0.23787198320265032</v>
+        <v>0.917237794526669</v>
       </c>
       <c r="H42" t="n" s="305">
-        <v>-1.9755575211372336</v>
+        <v>0.33876739750593465</v>
       </c>
       <c r="I42" t="n" s="306">
-        <v>0.1740389424378094</v>
+        <v>0.6940584413870059</v>
       </c>
       <c r="J42" t="n" s="307">
-        <v>-1.8475000059842777</v>
+        <v>0.086095776620216</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n" s="298">
-        <v>10219.0</v>
+        <v>10217.0</v>
       </c>
       <c r="B43" t="n" s="299">
         <v>1.0</v>
@@ -7169,53 +7283,53 @@
         <v>42.0</v>
       </c>
       <c r="G43" t="n" s="304">
-        <v>0.13423022721976088</v>
+        <v>0.13460460787869655</v>
       </c>
       <c r="H43" t="n" s="305">
-        <v>-0.25566338830626745</v>
+        <v>-0.2446785942349854</v>
       </c>
       <c r="I43" t="n" s="306">
-        <v>0.1491698637705754</v>
+        <v>0.1528845184977489</v>
       </c>
       <c r="J43" t="n" s="307">
-        <v>-0.2474604987078569</v>
+        <v>-0.23441327962262648</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n" s="298">
-        <v>10220.0</v>
+        <v>10218.0</v>
       </c>
       <c r="B44" t="n" s="299">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="C44" t="n" s="300">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="D44" t="n" s="301">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="E44" t="n" s="302">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="F44" t="n" s="303">
         <v>43.0</v>
       </c>
       <c r="G44" t="n" s="304">
-        <v>0.13423022721976088</v>
+        <v>0.2203501699679613</v>
       </c>
       <c r="H44" t="n" s="305">
-        <v>-0.25566338830626745</v>
+        <v>-1.5727087931413117</v>
       </c>
       <c r="I44" t="n" s="306">
-        <v>0.1491698637705754</v>
+        <v>0.2124417722933624</v>
       </c>
       <c r="J44" t="n" s="307">
-        <v>-0.2474604987078569</v>
+        <v>-1.5946125799207087</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n" s="298">
-        <v>10221.0</v>
+        <v>10219.0</v>
       </c>
       <c r="B45" t="n" s="299">
         <v>1.0</v>
@@ -7233,21 +7347,21 @@
         <v>44.0</v>
       </c>
       <c r="G45" t="n" s="304">
-        <v>0.13423022721976088</v>
+        <v>0.13460460787869655</v>
       </c>
       <c r="H45" t="n" s="305">
-        <v>-0.25566338830626745</v>
+        <v>-0.2446785942349854</v>
       </c>
       <c r="I45" t="n" s="306">
-        <v>0.1491698637705754</v>
+        <v>0.1528845184977489</v>
       </c>
       <c r="J45" t="n" s="307">
-        <v>-0.2474604987078569</v>
+        <v>-0.23441327962262648</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n" s="298">
-        <v>10223.0</v>
+        <v>10220.0</v>
       </c>
       <c r="B46" t="n" s="299">
         <v>1.0</v>
@@ -7256,7 +7370,7 @@
         <v>1.0</v>
       </c>
       <c r="D46" t="n" s="301">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="E46" t="n" s="302">
         <v>1.0</v>
@@ -7265,21 +7379,21 @@
         <v>45.0</v>
       </c>
       <c r="G46" t="n" s="304">
-        <v>0.28362768427252555</v>
+        <v>0.13460460787869655</v>
       </c>
       <c r="H46" t="n" s="305">
-        <v>-0.4330155520807434</v>
+        <v>-0.2446785942349854</v>
       </c>
       <c r="I46" t="n" s="306">
-        <v>0.30179807530391967</v>
+        <v>0.1528845184977489</v>
       </c>
       <c r="J46" t="n" s="307">
-        <v>-0.392341761508389</v>
+        <v>-0.23441327962262648</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n" s="298">
-        <v>10224.0</v>
+        <v>10221.0</v>
       </c>
       <c r="B47" t="n" s="299">
         <v>1.0</v>
@@ -7291,62 +7405,62 @@
         <v>1.0</v>
       </c>
       <c r="E47" t="n" s="302">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="F47" t="n" s="303">
         <v>46.0</v>
       </c>
       <c r="G47" t="n" s="304">
-        <v>1.4977236288142142</v>
+        <v>0.13460460787869655</v>
       </c>
       <c r="H47" t="n" s="305">
-        <v>0.765526743750517</v>
+        <v>-0.2446785942349854</v>
       </c>
       <c r="I47" t="n" s="306">
-        <v>1.2425012898584678</v>
+        <v>0.1528845184977489</v>
       </c>
       <c r="J47" t="n" s="307">
-        <v>0.5662064132828728</v>
+        <v>-0.23441327962262648</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n" s="298">
-        <v>10226.0</v>
+        <v>10222.0</v>
       </c>
       <c r="B48" t="n" s="299">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="C48" t="n" s="300">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="D48" t="n" s="301">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="E48" t="n" s="302">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="F48" t="n" s="303">
         <v>47.0</v>
       </c>
       <c r="G48" t="n" s="304">
-        <v>1.4977236288142142</v>
+        <v>0.20457346194941714</v>
       </c>
       <c r="H48" t="n" s="305">
-        <v>0.765526743750517</v>
+        <v>-1.6654308818481631</v>
       </c>
       <c r="I48" t="n" s="306">
-        <v>1.2425012898584678</v>
+        <v>0.21209728474371312</v>
       </c>
       <c r="J48" t="n" s="307">
-        <v>0.5662064132828728</v>
+        <v>-1.6391711073629507</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n" s="298">
-        <v>10228.0</v>
+        <v>10223.0</v>
       </c>
       <c r="B49" t="n" s="299">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="C49" t="n" s="300">
         <v>1.0</v>
@@ -7355,59 +7469,59 @@
         <v>2.0</v>
       </c>
       <c r="E49" t="n" s="302">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="F49" t="n" s="303">
         <v>48.0</v>
       </c>
       <c r="G49" t="n" s="304">
-        <v>1.4747987196295569</v>
+        <v>0.38475766415236395</v>
       </c>
       <c r="H49" t="n" s="305">
-        <v>0.8703785337227999</v>
+        <v>-0.25955328558691854</v>
       </c>
       <c r="I49" t="n" s="306">
-        <v>1.011077048744892</v>
+        <v>0.44551045674488177</v>
       </c>
       <c r="J49" t="n" s="307">
-        <v>0.24818492707662104</v>
+        <v>-0.23038892914327253</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n" s="298">
-        <v>10230.0</v>
+        <v>10224.0</v>
       </c>
       <c r="B50" t="n" s="299">
-        <v>7.0</v>
+        <v>1.0</v>
       </c>
       <c r="C50" t="n" s="300">
         <v>1.0</v>
       </c>
       <c r="D50" t="n" s="301">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="E50" t="n" s="302">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="F50" t="n" s="303">
         <v>49.0</v>
       </c>
       <c r="G50" t="n" s="304">
-        <v>1.1307893485336646</v>
+        <v>1.499366848241914</v>
       </c>
       <c r="H50" t="n" s="305">
-        <v>0.4105510048244022</v>
+        <v>0.7668462477511473</v>
       </c>
       <c r="I50" t="n" s="306">
-        <v>1.0189423447572563</v>
+        <v>1.3385454643801917</v>
       </c>
       <c r="J50" t="n" s="307">
-        <v>0.2581991949027254</v>
+        <v>0.6396565159360397</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n" s="298">
-        <v>10231.0</v>
+        <v>10226.0</v>
       </c>
       <c r="B51" t="n" s="299">
         <v>1.0</v>
@@ -7419,100 +7533,100 @@
         <v>1.0</v>
       </c>
       <c r="E51" t="n" s="302">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="F51" t="n" s="303">
         <v>50.0</v>
       </c>
       <c r="G51" t="n" s="304">
-        <v>0.13423022721976088</v>
+        <v>1.499366848241914</v>
       </c>
       <c r="H51" t="n" s="305">
-        <v>-0.25566338830626745</v>
+        <v>0.7668462477511473</v>
       </c>
       <c r="I51" t="n" s="306">
-        <v>0.1491698637705754</v>
+        <v>1.3385454643801917</v>
       </c>
       <c r="J51" t="n" s="307">
-        <v>-0.2474604987078569</v>
+        <v>0.6396565159360397</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n" s="298">
-        <v>10232.0</v>
+        <v>10227.0</v>
       </c>
       <c r="B52" t="n" s="299">
-        <v>7.0</v>
+        <v>5.0</v>
       </c>
       <c r="C52" t="n" s="300">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="D52" t="n" s="301">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="E52" t="n" s="302">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="F52" t="n" s="303">
         <v>51.0</v>
       </c>
       <c r="G52" t="n" s="304">
-        <v>0.8998491568370315</v>
+        <v>0.40582851430441674</v>
       </c>
       <c r="H52" t="n" s="305">
-        <v>-0.04283039032376393</v>
+        <v>-0.9545061006882246</v>
       </c>
       <c r="I52" t="n" s="306">
-        <v>1.1587866231501123</v>
+        <v>0.36152691541169807</v>
       </c>
       <c r="J52" t="n" s="307">
-        <v>0.4613219562898686</v>
+        <v>-1.0723121997673632</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n" s="298">
-        <v>10233.0</v>
+        <v>10228.0</v>
       </c>
       <c r="B53" t="n" s="299">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="C53" t="n" s="300">
         <v>1.0</v>
       </c>
       <c r="D53" t="n" s="301">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="E53" t="n" s="302">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="F53" t="n" s="303">
         <v>52.0</v>
       </c>
       <c r="G53" t="n" s="304">
-        <v>0.6295660302247174</v>
+        <v>1.4036433342797188</v>
       </c>
       <c r="H53" t="n" s="305">
-        <v>0.057429744918960524</v>
+        <v>0.7216203294319974</v>
       </c>
       <c r="I53" t="n" s="306">
-        <v>0.5892120235896074</v>
+        <v>1.1766422470482945</v>
       </c>
       <c r="J53" t="n" s="307">
-        <v>0.016164803727654387</v>
+        <v>0.47244963643435267</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n" s="298">
-        <v>10234.0</v>
+        <v>10230.0</v>
       </c>
       <c r="B54" t="n" s="299">
-        <v>1.0</v>
+        <v>7.0</v>
       </c>
       <c r="C54" t="n" s="300">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="D54" t="n" s="301">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="E54" t="n" s="302">
         <v>1.0</v>
@@ -7521,21 +7635,21 @@
         <v>53.0</v>
       </c>
       <c r="G54" t="n" s="304">
-        <v>0.8857779565563797</v>
+        <v>1.7557745359450818</v>
       </c>
       <c r="H54" t="n" s="305">
-        <v>0.31072467434568035</v>
+        <v>1.148297853985367</v>
       </c>
       <c r="I54" t="n" s="306">
-        <v>0.667456147788467</v>
+        <v>1.812577049383192</v>
       </c>
       <c r="J54" t="n" s="307">
-        <v>0.10289309523931484</v>
+        <v>1.1949227345271107</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n" s="298">
-        <v>10237.0</v>
+        <v>10231.0</v>
       </c>
       <c r="B55" t="n" s="299">
         <v>1.0</v>
@@ -7553,48 +7667,208 @@
         <v>54.0</v>
       </c>
       <c r="G55" t="n" s="304">
-        <v>0.13423022721976088</v>
+        <v>0.13460460787869655</v>
       </c>
       <c r="H55" t="n" s="305">
-        <v>-0.25566338830626745</v>
+        <v>-0.2446785942349854</v>
       </c>
       <c r="I55" t="n" s="306">
-        <v>0.1491698637705754</v>
+        <v>0.1528845184977489</v>
       </c>
       <c r="J55" t="n" s="307">
-        <v>-0.2474604987078569</v>
+        <v>-0.23441327962262648</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n" s="298">
-        <v>10240.0</v>
+        <v>10232.0</v>
       </c>
       <c r="B56" t="n" s="299">
-        <v>1.0</v>
+        <v>7.0</v>
       </c>
       <c r="C56" t="n" s="300">
         <v>1.0</v>
       </c>
       <c r="D56" t="n" s="301">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="E56" t="n" s="302">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="F56" t="n" s="303">
         <v>55.0</v>
       </c>
       <c r="G56" t="n" s="304">
-        <v>0.13423022721976088</v>
+        <v>1.6986950471515068</v>
       </c>
       <c r="H56" t="n" s="305">
-        <v>-0.25566338830626745</v>
+        <v>1.0835045345484509</v>
       </c>
       <c r="I56" t="n" s="306">
-        <v>0.1491698637705754</v>
+        <v>1.864059152867906</v>
       </c>
       <c r="J56" t="n" s="307">
-        <v>-0.2474604987078569</v>
+        <v>1.2335105242537698</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n" s="298">
+        <v>10233.0</v>
+      </c>
+      <c r="B57" t="n" s="299">
+        <v>1.0</v>
+      </c>
+      <c r="C57" t="n" s="300">
+        <v>1.0</v>
+      </c>
+      <c r="D57" t="n" s="301">
+        <v>1.0</v>
+      </c>
+      <c r="E57" t="n" s="302">
+        <v>2.0</v>
+      </c>
+      <c r="F57" t="n" s="303">
+        <v>56.0</v>
+      </c>
+      <c r="G57" t="n" s="304">
+        <v>0.6424364337557672</v>
+      </c>
+      <c r="H57" t="n" s="305">
+        <v>0.07241664378836521</v>
+      </c>
+      <c r="I57" t="n" s="306">
+        <v>0.6127004458678733</v>
+      </c>
+      <c r="J57" t="n" s="307">
+        <v>-0.007685971734956554</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n" s="298">
+        <v>10234.0</v>
+      </c>
+      <c r="B58" t="n" s="299">
+        <v>1.0</v>
+      </c>
+      <c r="C58" t="n" s="300">
+        <v>2.0</v>
+      </c>
+      <c r="D58" t="n" s="301">
+        <v>1.0</v>
+      </c>
+      <c r="E58" t="n" s="302">
+        <v>1.0</v>
+      </c>
+      <c r="F58" t="n" s="303">
+        <v>57.0</v>
+      </c>
+      <c r="G58" t="n" s="304">
+        <v>0.917237794526669</v>
+      </c>
+      <c r="H58" t="n" s="305">
+        <v>0.33876739750593465</v>
+      </c>
+      <c r="I58" t="n" s="306">
+        <v>0.6940584413870059</v>
+      </c>
+      <c r="J58" t="n" s="307">
+        <v>0.086095776620216</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n" s="298">
+        <v>10237.0</v>
+      </c>
+      <c r="B59" t="n" s="299">
+        <v>1.0</v>
+      </c>
+      <c r="C59" t="n" s="300">
+        <v>1.0</v>
+      </c>
+      <c r="D59" t="n" s="301">
+        <v>1.0</v>
+      </c>
+      <c r="E59" t="n" s="302">
+        <v>1.0</v>
+      </c>
+      <c r="F59" t="n" s="303">
+        <v>58.0</v>
+      </c>
+      <c r="G59" t="n" s="304">
+        <v>0.13460460787869655</v>
+      </c>
+      <c r="H59" t="n" s="305">
+        <v>-0.2446785942349854</v>
+      </c>
+      <c r="I59" t="n" s="306">
+        <v>0.1528845184977489</v>
+      </c>
+      <c r="J59" t="n" s="307">
+        <v>-0.23441327962262648</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n" s="298">
+        <v>10238.0</v>
+      </c>
+      <c r="B60" t="n" s="299">
+        <v>4.0</v>
+      </c>
+      <c r="C60" t="n" s="300">
+        <v>4.0</v>
+      </c>
+      <c r="D60" t="n" s="301">
+        <v>4.0</v>
+      </c>
+      <c r="E60" t="n" s="302">
+        <v>5.0</v>
+      </c>
+      <c r="F60" t="n" s="303">
+        <v>59.0</v>
+      </c>
+      <c r="G60" t="n" s="304">
+        <v>0.7705670524338014</v>
+      </c>
+      <c r="H60" t="n" s="305">
+        <v>-0.1558126973649847</v>
+      </c>
+      <c r="I60" t="n" s="306">
+        <v>0.7055285170268203</v>
+      </c>
+      <c r="J60" t="n" s="307">
+        <v>-0.2718402936115712</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n" s="298">
+        <v>10240.0</v>
+      </c>
+      <c r="B61" t="n" s="299">
+        <v>1.0</v>
+      </c>
+      <c r="C61" t="n" s="300">
+        <v>1.0</v>
+      </c>
+      <c r="D61" t="n" s="301">
+        <v>1.0</v>
+      </c>
+      <c r="E61" t="n" s="302">
+        <v>1.0</v>
+      </c>
+      <c r="F61" t="n" s="303">
+        <v>60.0</v>
+      </c>
+      <c r="G61" t="n" s="304">
+        <v>0.13460460787869655</v>
+      </c>
+      <c r="H61" t="n" s="305">
+        <v>-0.2446785942349854</v>
+      </c>
+      <c r="I61" t="n" s="306">
+        <v>0.1528845184977489</v>
+      </c>
+      <c r="J61" t="n" s="307">
+        <v>-0.23441327962262648</v>
       </c>
     </row>
   </sheetData>
@@ -7689,16 +7963,16 @@
         <v>8.0</v>
       </c>
       <c r="I2" t="n" s="322">
-        <v>20.0</v>
+        <v>28.0</v>
       </c>
       <c r="J2" t="n" s="323">
-        <v>0.9437180883293642</v>
+        <v>0.6718872303707633</v>
       </c>
       <c r="K2" t="n" s="324">
-        <v>0.4172439054410631</v>
+        <v>0.49173153224346955</v>
       </c>
       <c r="L2" t="n" s="325">
-        <v>0.12685064616009878</v>
+        <v>0.4019674475808749</v>
       </c>
     </row>
     <row r="3">
@@ -7727,16 +8001,16 @@
         <v>4.0</v>
       </c>
       <c r="I3" t="n" s="322">
-        <v>20.0</v>
+        <v>28.0</v>
       </c>
       <c r="J3" t="n" s="323">
-        <v>-0.7934661253532934</v>
+        <v>-0.9273830937122673</v>
       </c>
       <c r="K3" t="n" s="324">
-        <v>1.257894482360499</v>
+        <v>1.2605695472698792</v>
       </c>
       <c r="L3" t="n" s="325">
-        <v>0.12685064616009878</v>
+        <v>0.4019674475808749</v>
       </c>
     </row>
     <row r="4">
@@ -7765,16 +8039,16 @@
         <v>5.0</v>
       </c>
       <c r="I4" t="n" s="322">
-        <v>20.0</v>
+        <v>28.0</v>
       </c>
       <c r="J4" t="n" s="323">
-        <v>0.12664853824431546</v>
+        <v>-0.021234412008076044</v>
       </c>
       <c r="K4" t="n" s="324">
-        <v>0.7110668526850701</v>
+        <v>0.7252279491839947</v>
       </c>
       <c r="L4" t="n" s="325">
-        <v>0.12685064616009878</v>
+        <v>0.4019674475808749</v>
       </c>
     </row>
     <row r="5">
@@ -7803,16 +8077,16 @@
         <v>4.0</v>
       </c>
       <c r="I5" t="n" s="322">
-        <v>20.0</v>
+        <v>28.0</v>
       </c>
       <c r="J5" t="n" s="323">
-        <v>-0.7934661253532934</v>
+        <v>-0.9273830937122673</v>
       </c>
       <c r="K5" t="n" s="324">
-        <v>1.257894482360499</v>
+        <v>1.2605695472698792</v>
       </c>
       <c r="L5" t="n" s="325">
-        <v>0.12685064616009878</v>
+        <v>0.4019674475808749</v>
       </c>
     </row>
     <row r="6">
@@ -7841,16 +8115,16 @@
         <v>5.0</v>
       </c>
       <c r="I6" t="n" s="322">
-        <v>20.0</v>
+        <v>28.0</v>
       </c>
       <c r="J6" t="n" s="323">
-        <v>0.12664853824431546</v>
+        <v>-0.021234412008076044</v>
       </c>
       <c r="K6" t="n" s="324">
-        <v>0.7110668526850701</v>
+        <v>0.7252279491839947</v>
       </c>
       <c r="L6" t="n" s="325">
-        <v>0.12685064616009878</v>
+        <v>0.4019674475808749</v>
       </c>
     </row>
     <row r="7">
@@ -7879,16 +8153,16 @@
         <v>4.0</v>
       </c>
       <c r="I7" t="n" s="322">
-        <v>20.0</v>
+        <v>28.0</v>
       </c>
       <c r="J7" t="n" s="323">
-        <v>-0.7934661253532934</v>
+        <v>-0.9273830937122673</v>
       </c>
       <c r="K7" t="n" s="324">
-        <v>1.257894482360499</v>
+        <v>1.2605695472698792</v>
       </c>
       <c r="L7" t="n" s="325">
-        <v>0.12685064616009878</v>
+        <v>0.4019674475808749</v>
       </c>
     </row>
     <row r="8">
@@ -7917,16 +8191,16 @@
         <v>11.0</v>
       </c>
       <c r="I8" t="n" s="322">
-        <v>20.0</v>
+        <v>28.0</v>
       </c>
       <c r="J8" t="n" s="323">
-        <v>1.4955482472097017</v>
+        <v>1.3381045359028279</v>
       </c>
       <c r="K8" t="n" s="324">
-        <v>0.3642453257667448</v>
+        <v>0.38727206954653415</v>
       </c>
       <c r="L8" t="n" s="325">
-        <v>0.12685064616009878</v>
+        <v>0.4019674475808749</v>
       </c>
     </row>
     <row r="9">
@@ -7955,16 +8229,16 @@
         <v>9.0</v>
       </c>
       <c r="I9" t="n" s="322">
-        <v>20.0</v>
+        <v>28.0</v>
       </c>
       <c r="J9" t="n" s="323">
-        <v>1.0852985770494805</v>
+        <v>0.843527792415395</v>
       </c>
       <c r="K9" t="n" s="324">
-        <v>0.38807589677787446</v>
+        <v>0.4560209056987751</v>
       </c>
       <c r="L9" t="n" s="325">
-        <v>0.12685064616009878</v>
+        <v>0.4019674475808749</v>
       </c>
     </row>
     <row r="10">
@@ -7993,16 +8267,16 @@
         <v>8.0</v>
       </c>
       <c r="I10" t="n" s="322">
-        <v>20.0</v>
+        <v>28.0</v>
       </c>
       <c r="J10" t="n" s="323">
-        <v>0.9437180883293642</v>
+        <v>0.6718872303707633</v>
       </c>
       <c r="K10" t="n" s="324">
-        <v>0.4172439054410631</v>
+        <v>0.49173153224346955</v>
       </c>
       <c r="L10" t="n" s="325">
-        <v>0.12685064616009878</v>
+        <v>0.4019674475808749</v>
       </c>
     </row>
     <row r="11">
@@ -8031,16 +8305,16 @@
         <v>4.0</v>
       </c>
       <c r="I11" t="n" s="322">
-        <v>20.0</v>
+        <v>28.0</v>
       </c>
       <c r="J11" t="n" s="323">
-        <v>-0.7934661253532934</v>
+        <v>-0.9273830937122673</v>
       </c>
       <c r="K11" t="n" s="324">
-        <v>1.257894482360499</v>
+        <v>1.2605695472698792</v>
       </c>
       <c r="L11" t="n" s="325">
-        <v>0.12685064616009878</v>
+        <v>0.4019674475808749</v>
       </c>
     </row>
     <row r="12">
@@ -8069,16 +8343,16 @@
         <v>11.0</v>
       </c>
       <c r="I12" t="n" s="322">
-        <v>20.0</v>
+        <v>28.0</v>
       </c>
       <c r="J12" t="n" s="323">
-        <v>1.4955482472097017</v>
+        <v>1.3381045359028279</v>
       </c>
       <c r="K12" t="n" s="324">
-        <v>0.3642453257667448</v>
+        <v>0.38727206954653415</v>
       </c>
       <c r="L12" t="n" s="325">
-        <v>0.12685064616009878</v>
+        <v>0.4019674475808749</v>
       </c>
     </row>
     <row r="13">
@@ -8107,16 +8381,16 @@
         <v>9.0</v>
       </c>
       <c r="I13" t="n" s="322">
-        <v>20.0</v>
+        <v>28.0</v>
       </c>
       <c r="J13" t="n" s="323">
-        <v>1.0852985770494805</v>
+        <v>0.843527792415395</v>
       </c>
       <c r="K13" t="n" s="324">
-        <v>0.38807589677787446</v>
+        <v>0.4560209056987751</v>
       </c>
       <c r="L13" t="n" s="325">
-        <v>0.12685064616009878</v>
+        <v>0.4019674475808749</v>
       </c>
     </row>
     <row r="14">
@@ -8145,16 +8419,16 @@
         <v>9.0</v>
       </c>
       <c r="I14" t="n" s="322">
-        <v>20.0</v>
+        <v>28.0</v>
       </c>
       <c r="J14" t="n" s="323">
-        <v>1.0852985770494805</v>
+        <v>0.843527792415395</v>
       </c>
       <c r="K14" t="n" s="324">
-        <v>0.38807589677787446</v>
+        <v>0.4560209056987751</v>
       </c>
       <c r="L14" t="n" s="325">
-        <v>0.12685064616009878</v>
+        <v>0.4019674475808749</v>
       </c>
     </row>
     <row r="15">
@@ -8183,16 +8457,16 @@
         <v>12.0</v>
       </c>
       <c r="I15" t="n" s="322">
-        <v>20.0</v>
+        <v>28.0</v>
       </c>
       <c r="J15" t="n" s="323">
-        <v>1.4251909840988968</v>
+        <v>1.4781430637813235</v>
       </c>
       <c r="K15" t="n" s="324">
-        <v>0.3613676347397503</v>
+        <v>0.37420860648399534</v>
       </c>
       <c r="L15" t="n" s="325">
-        <v>0.12685064616009878</v>
+        <v>0.4019674475808749</v>
       </c>
     </row>
     <row r="16">
@@ -8221,16 +8495,16 @@
         <v>14.0</v>
       </c>
       <c r="I16" t="n" s="322">
-        <v>20.0</v>
+        <v>28.0</v>
       </c>
       <c r="J16" t="n" s="323">
-        <v>1.6545521389460465</v>
+        <v>1.73469921340696</v>
       </c>
       <c r="K16" t="n" s="324">
-        <v>0.3804400490749384</v>
+        <v>0.3557744941254096</v>
       </c>
       <c r="L16" t="n" s="325">
-        <v>0.12685064616009878</v>
+        <v>0.4019674475808749</v>
       </c>
     </row>
     <row r="17">
@@ -8259,16 +8533,16 @@
         <v>6.0</v>
       </c>
       <c r="I17" t="n" s="322">
-        <v>20.0</v>
+        <v>28.0</v>
       </c>
       <c r="J17" t="n" s="323">
-        <v>0.5179254768634486</v>
+        <v>0.3669814308091853</v>
       </c>
       <c r="K17" t="n" s="324">
-        <v>0.5481437876895058</v>
+        <v>0.5756842264050488</v>
       </c>
       <c r="L17" t="n" s="325">
-        <v>0.12685064616009878</v>
+        <v>0.4019674475808749</v>
       </c>
     </row>
     <row r="18">
@@ -8297,16 +8571,16 @@
         <v>14.0</v>
       </c>
       <c r="I18" t="n" s="322">
-        <v>20.0</v>
+        <v>28.0</v>
       </c>
       <c r="J18" t="n" s="323">
-        <v>1.6545521389460465</v>
+        <v>1.73469921340696</v>
       </c>
       <c r="K18" t="n" s="324">
-        <v>0.3804400490749384</v>
+        <v>0.3557744941254096</v>
       </c>
       <c r="L18" t="n" s="325">
-        <v>0.12685064616009878</v>
+        <v>0.4019674475808749</v>
       </c>
     </row>
     <row r="19">
@@ -8335,16 +8609,16 @@
         <v>7.0</v>
       </c>
       <c r="I19" t="n" s="322">
-        <v>20.0</v>
+        <v>28.0</v>
       </c>
       <c r="J19" t="n" s="323">
-        <v>0.7651020965284714</v>
+        <v>0.6315070955128078</v>
       </c>
       <c r="K19" t="n" s="324">
-        <v>0.4654349637541247</v>
+        <v>0.5012603035809049</v>
       </c>
       <c r="L19" t="n" s="325">
-        <v>0.12685064616009878</v>
+        <v>0.4019674475808749</v>
       </c>
     </row>
     <row r="20">
@@ -8373,16 +8647,16 @@
         <v>5.0</v>
       </c>
       <c r="I20" t="n" s="322">
-        <v>20.0</v>
+        <v>28.0</v>
       </c>
       <c r="J20" t="n" s="323">
-        <v>0.12664853824431546</v>
+        <v>-0.021234412008076044</v>
       </c>
       <c r="K20" t="n" s="324">
-        <v>0.7110668526850701</v>
+        <v>0.7252279491839947</v>
       </c>
       <c r="L20" t="n" s="325">
-        <v>0.12685064616009878</v>
+        <v>0.4019674475808749</v>
       </c>
     </row>
     <row r="21">
@@ -8411,16 +8685,16 @@
         <v>4.0</v>
       </c>
       <c r="I21" t="n" s="322">
-        <v>20.0</v>
+        <v>28.0</v>
       </c>
       <c r="J21" t="n" s="323">
-        <v>-0.7934661253532934</v>
+        <v>-0.9273830937122673</v>
       </c>
       <c r="K21" t="n" s="324">
-        <v>1.257894482360499</v>
+        <v>1.2605695472698792</v>
       </c>
       <c r="L21" t="n" s="325">
-        <v>0.12685064616009878</v>
+        <v>0.4019674475808749</v>
       </c>
     </row>
     <row r="22">
@@ -8449,16 +8723,16 @@
         <v>5.0</v>
       </c>
       <c r="I22" t="n" s="322">
-        <v>20.0</v>
+        <v>28.0</v>
       </c>
       <c r="J22" t="n" s="323">
-        <v>0.12664853824431546</v>
+        <v>-0.021234412008076044</v>
       </c>
       <c r="K22" t="n" s="324">
-        <v>0.7110668526850701</v>
+        <v>0.7252279491839947</v>
       </c>
       <c r="L22" t="n" s="325">
-        <v>0.12685064616009878</v>
+        <v>0.4019674475808749</v>
       </c>
     </row>
     <row r="23">
@@ -8487,16 +8761,16 @@
         <v>4.0</v>
       </c>
       <c r="I23" t="n" s="322">
-        <v>20.0</v>
+        <v>28.0</v>
       </c>
       <c r="J23" t="n" s="323">
-        <v>-0.7934661253532934</v>
+        <v>-0.9273830937122673</v>
       </c>
       <c r="K23" t="n" s="324">
-        <v>1.257894482360499</v>
+        <v>1.2605695472698792</v>
       </c>
       <c r="L23" t="n" s="325">
-        <v>0.12685064616009878</v>
+        <v>0.4019674475808749</v>
       </c>
     </row>
     <row r="24">
@@ -8525,16 +8799,16 @@
         <v>4.0</v>
       </c>
       <c r="I24" t="n" s="322">
-        <v>20.0</v>
+        <v>28.0</v>
       </c>
       <c r="J24" t="n" s="323">
-        <v>-0.7934661253532934</v>
+        <v>-0.9273830937122673</v>
       </c>
       <c r="K24" t="n" s="324">
-        <v>1.257894482360499</v>
+        <v>1.2605695472698792</v>
       </c>
       <c r="L24" t="n" s="325">
-        <v>0.12685064616009878</v>
+        <v>0.4019674475808749</v>
       </c>
     </row>
     <row r="25">
@@ -8563,16 +8837,16 @@
         <v>4.0</v>
       </c>
       <c r="I25" t="n" s="322">
-        <v>20.0</v>
+        <v>28.0</v>
       </c>
       <c r="J25" t="n" s="323">
-        <v>-0.7934661253532934</v>
+        <v>-0.9273830937122673</v>
       </c>
       <c r="K25" t="n" s="324">
-        <v>1.257894482360499</v>
+        <v>1.2605695472698792</v>
       </c>
       <c r="L25" t="n" s="325">
-        <v>0.12685064616009878</v>
+        <v>0.4019674475808749</v>
       </c>
     </row>
     <row r="26">
@@ -8601,16 +8875,16 @@
         <v>4.0</v>
       </c>
       <c r="I26" t="n" s="322">
-        <v>20.0</v>
+        <v>28.0</v>
       </c>
       <c r="J26" t="n" s="323">
-        <v>-0.7934661253532934</v>
+        <v>-0.9273830937122673</v>
       </c>
       <c r="K26" t="n" s="324">
-        <v>1.257894482360499</v>
+        <v>1.2605695472698792</v>
       </c>
       <c r="L26" t="n" s="325">
-        <v>0.12685064616009878</v>
+        <v>0.4019674475808749</v>
       </c>
     </row>
     <row r="27">
@@ -8639,16 +8913,16 @@
         <v>11.0</v>
       </c>
       <c r="I27" t="n" s="322">
-        <v>20.0</v>
+        <v>28.0</v>
       </c>
       <c r="J27" t="n" s="323">
-        <v>1.4955482472097017</v>
+        <v>1.3381045359028279</v>
       </c>
       <c r="K27" t="n" s="324">
-        <v>0.3642453257667448</v>
+        <v>0.38727206954653415</v>
       </c>
       <c r="L27" t="n" s="325">
-        <v>0.12685064616009878</v>
+        <v>0.4019674475808749</v>
       </c>
     </row>
     <row r="28">
@@ -8677,16 +8951,16 @@
         <v>4.0</v>
       </c>
       <c r="I28" t="n" s="322">
-        <v>20.0</v>
+        <v>28.0</v>
       </c>
       <c r="J28" t="n" s="323">
-        <v>-0.7934661253532934</v>
+        <v>-0.9273830937122673</v>
       </c>
       <c r="K28" t="n" s="324">
-        <v>1.257894482360499</v>
+        <v>1.2605695472698792</v>
       </c>
       <c r="L28" t="n" s="325">
-        <v>0.12685064616009878</v>
+        <v>0.4019674475808749</v>
       </c>
     </row>
     <row r="29">
@@ -8715,59 +8989,59 @@
         <v>8.0</v>
       </c>
       <c r="I29" t="n" s="322">
-        <v>20.0</v>
+        <v>28.0</v>
       </c>
       <c r="J29" t="n" s="323">
-        <v>0.9437180883293642</v>
+        <v>0.6718872303707633</v>
       </c>
       <c r="K29" t="n" s="324">
-        <v>0.4172439054410631</v>
+        <v>0.49173153224346955</v>
       </c>
       <c r="L29" t="n" s="325">
-        <v>0.12685064616009878</v>
+        <v>0.4019674475808749</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n" s="314">
-        <v>10203.0</v>
+        <v>10202.0</v>
       </c>
       <c r="B30" t="n" s="315">
-        <v>1.0</v>
+        <v>7.0</v>
       </c>
       <c r="C30" t="n" s="316">
-        <v>1.0</v>
+        <v>7.0</v>
       </c>
       <c r="D30" t="n" s="317">
-        <v>2.0</v>
+        <v>7.0</v>
       </c>
       <c r="E30" t="n" s="318">
-        <v>1.0</v>
+        <v>7.0</v>
       </c>
       <c r="F30" t="n" s="319">
-        <v>10203.0</v>
+        <v>10202.0</v>
       </c>
       <c r="G30" t="n" s="320">
         <v>4.0</v>
       </c>
       <c r="H30" t="n" s="321">
-        <v>5.0</v>
+        <v>28.0</v>
       </c>
       <c r="I30" t="n" s="322">
-        <v>20.0</v>
+        <v>28.0</v>
       </c>
       <c r="J30" t="n" s="323">
-        <v>0.12664853824431546</v>
+        <v>3.9424159571328627</v>
       </c>
       <c r="K30" t="n" s="324">
-        <v>0.7110668526850701</v>
+        <v>0.8464500347103698</v>
       </c>
       <c r="L30" t="n" s="325">
-        <v>0.12685064616009878</v>
+        <v>0.4019674475808749</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n" s="314">
-        <v>10204.0</v>
+        <v>10203.0</v>
       </c>
       <c r="B31" t="n" s="315">
         <v>1.0</v>
@@ -8776,112 +9050,112 @@
         <v>1.0</v>
       </c>
       <c r="D31" t="n" s="317">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="E31" t="n" s="318">
         <v>1.0</v>
       </c>
       <c r="F31" t="n" s="319">
-        <v>10204.0</v>
+        <v>10203.0</v>
       </c>
       <c r="G31" t="n" s="320">
         <v>4.0</v>
       </c>
       <c r="H31" t="n" s="321">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="I31" t="n" s="322">
-        <v>20.0</v>
+        <v>28.0</v>
       </c>
       <c r="J31" t="n" s="323">
-        <v>-0.7934661253532934</v>
+        <v>-0.021234412008076044</v>
       </c>
       <c r="K31" t="n" s="324">
-        <v>1.257894482360499</v>
+        <v>0.7252279491839947</v>
       </c>
       <c r="L31" t="n" s="325">
-        <v>0.12685064616009878</v>
+        <v>0.4019674475808749</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n" s="314">
-        <v>10206.0</v>
+        <v>10204.0</v>
       </c>
       <c r="B32" t="n" s="315">
-        <v>6.0</v>
+        <v>1.0</v>
       </c>
       <c r="C32" t="n" s="316">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="D32" t="n" s="317">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="E32" t="n" s="318">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="F32" t="n" s="319">
-        <v>10206.0</v>
+        <v>10204.0</v>
       </c>
       <c r="G32" t="n" s="320">
         <v>4.0</v>
       </c>
       <c r="H32" t="n" s="321">
-        <v>14.0</v>
+        <v>4.0</v>
       </c>
       <c r="I32" t="n" s="322">
-        <v>20.0</v>
+        <v>28.0</v>
       </c>
       <c r="J32" t="n" s="323">
-        <v>1.6545521389460465</v>
+        <v>-0.9273830937122673</v>
       </c>
       <c r="K32" t="n" s="324">
-        <v>0.3804400490749384</v>
+        <v>1.2605695472698792</v>
       </c>
       <c r="L32" t="n" s="325">
-        <v>0.12685064616009878</v>
+        <v>0.4019674475808749</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n" s="314">
-        <v>10208.0</v>
+        <v>10206.0</v>
       </c>
       <c r="B33" t="n" s="315">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
       <c r="C33" t="n" s="316">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="D33" t="n" s="317">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="E33" t="n" s="318">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="F33" t="n" s="319">
-        <v>10208.0</v>
+        <v>10206.0</v>
       </c>
       <c r="G33" t="n" s="320">
         <v>4.0</v>
       </c>
       <c r="H33" t="n" s="321">
-        <v>7.0</v>
+        <v>14.0</v>
       </c>
       <c r="I33" t="n" s="322">
-        <v>20.0</v>
+        <v>28.0</v>
       </c>
       <c r="J33" t="n" s="323">
-        <v>0.7651020965284714</v>
+        <v>1.73469921340696</v>
       </c>
       <c r="K33" t="n" s="324">
-        <v>0.4654349637541247</v>
+        <v>0.3557744941254096</v>
       </c>
       <c r="L33" t="n" s="325">
-        <v>0.12685064616009878</v>
+        <v>0.4019674475808749</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n" s="314">
-        <v>10209.0</v>
+        <v>10208.0</v>
       </c>
       <c r="B34" t="n" s="315">
         <v>1.0</v>
@@ -8890,188 +9164,188 @@
         <v>1.0</v>
       </c>
       <c r="D34" t="n" s="317">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="E34" t="n" s="318">
         <v>1.0</v>
       </c>
       <c r="F34" t="n" s="319">
-        <v>10209.0</v>
+        <v>10208.0</v>
       </c>
       <c r="G34" t="n" s="320">
         <v>4.0</v>
       </c>
       <c r="H34" t="n" s="321">
-        <v>4.0</v>
+        <v>7.0</v>
       </c>
       <c r="I34" t="n" s="322">
-        <v>20.0</v>
+        <v>28.0</v>
       </c>
       <c r="J34" t="n" s="323">
-        <v>-0.7934661253532934</v>
+        <v>0.6315070955128078</v>
       </c>
       <c r="K34" t="n" s="324">
-        <v>1.257894482360499</v>
+        <v>0.5012603035809049</v>
       </c>
       <c r="L34" t="n" s="325">
-        <v>0.12685064616009878</v>
+        <v>0.4019674475808749</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n" s="314">
-        <v>10211.0</v>
+        <v>10209.0</v>
       </c>
       <c r="B35" t="n" s="315">
         <v>1.0</v>
       </c>
       <c r="C35" t="n" s="316">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="D35" t="n" s="317">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="E35" t="n" s="318">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="F35" t="n" s="319">
-        <v>10211.0</v>
+        <v>10209.0</v>
       </c>
       <c r="G35" t="n" s="320">
         <v>4.0</v>
       </c>
       <c r="H35" t="n" s="321">
-        <v>8.0</v>
+        <v>4.0</v>
       </c>
       <c r="I35" t="n" s="322">
-        <v>20.0</v>
+        <v>28.0</v>
       </c>
       <c r="J35" t="n" s="323">
-        <v>0.9437180883293642</v>
+        <v>-0.9273830937122673</v>
       </c>
       <c r="K35" t="n" s="324">
-        <v>0.4172439054410631</v>
+        <v>1.2605695472698792</v>
       </c>
       <c r="L35" t="n" s="325">
-        <v>0.12685064616009878</v>
+        <v>0.4019674475808749</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n" s="314">
-        <v>10212.0</v>
+        <v>10210.0</v>
       </c>
       <c r="B36" t="n" s="315">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="C36" t="n" s="316">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="D36" t="n" s="317">
         <v>4.0</v>
       </c>
       <c r="E36" t="n" s="318">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
       <c r="F36" t="n" s="319">
-        <v>10212.0</v>
+        <v>10210.0</v>
       </c>
       <c r="G36" t="n" s="320">
         <v>4.0</v>
       </c>
       <c r="H36" t="n" s="321">
-        <v>10.0</v>
+        <v>18.0</v>
       </c>
       <c r="I36" t="n" s="322">
-        <v>20.0</v>
+        <v>28.0</v>
       </c>
       <c r="J36" t="n" s="323">
-        <v>1.20658673237128</v>
+        <v>1.8130033324818358</v>
       </c>
       <c r="K36" t="n" s="324">
-        <v>0.3709662812510424</v>
+        <v>0.3516281334243402</v>
       </c>
       <c r="L36" t="n" s="325">
-        <v>0.12685064616009878</v>
+        <v>0.4019674475808749</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n" s="314">
-        <v>10213.0</v>
+        <v>10211.0</v>
       </c>
       <c r="B37" t="n" s="315">
         <v>1.0</v>
       </c>
       <c r="C37" t="n" s="316">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="D37" t="n" s="317">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="E37" t="n" s="318">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="F37" t="n" s="319">
-        <v>10213.0</v>
+        <v>10211.0</v>
       </c>
       <c r="G37" t="n" s="320">
         <v>4.0</v>
       </c>
       <c r="H37" t="n" s="321">
-        <v>4.0</v>
+        <v>8.0</v>
       </c>
       <c r="I37" t="n" s="322">
-        <v>20.0</v>
+        <v>28.0</v>
       </c>
       <c r="J37" t="n" s="323">
-        <v>-0.7934661253532934</v>
+        <v>0.6718872303707633</v>
       </c>
       <c r="K37" t="n" s="324">
-        <v>1.257894482360499</v>
+        <v>0.49173153224346955</v>
       </c>
       <c r="L37" t="n" s="325">
-        <v>0.12685064616009878</v>
+        <v>0.4019674475808749</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n" s="314">
-        <v>10214.0</v>
+        <v>10212.0</v>
       </c>
       <c r="B38" t="n" s="315">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="C38" t="n" s="316">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="D38" t="n" s="317">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="E38" t="n" s="318">
         <v>2.0</v>
       </c>
       <c r="F38" t="n" s="319">
-        <v>10214.0</v>
+        <v>10212.0</v>
       </c>
       <c r="G38" t="n" s="320">
         <v>4.0</v>
       </c>
       <c r="H38" t="n" s="321">
-        <v>8.0</v>
+        <v>10.0</v>
       </c>
       <c r="I38" t="n" s="322">
-        <v>20.0</v>
+        <v>28.0</v>
       </c>
       <c r="J38" t="n" s="323">
-        <v>0.9437180883293642</v>
+        <v>0.9093558289212127</v>
       </c>
       <c r="K38" t="n" s="324">
-        <v>0.4172439054410631</v>
+        <v>0.444232405211753</v>
       </c>
       <c r="L38" t="n" s="325">
-        <v>0.12685064616009878</v>
+        <v>0.4019674475808749</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n" s="314">
-        <v>10215.0</v>
+        <v>10213.0</v>
       </c>
       <c r="B39" t="n" s="315">
         <v>1.0</v>
@@ -9086,7 +9360,7 @@
         <v>1.0</v>
       </c>
       <c r="F39" t="n" s="319">
-        <v>10215.0</v>
+        <v>10213.0</v>
       </c>
       <c r="G39" t="n" s="320">
         <v>4.0</v>
@@ -9095,59 +9369,59 @@
         <v>4.0</v>
       </c>
       <c r="I39" t="n" s="322">
-        <v>20.0</v>
+        <v>28.0</v>
       </c>
       <c r="J39" t="n" s="323">
-        <v>-0.7934661253532934</v>
+        <v>-0.9273830937122673</v>
       </c>
       <c r="K39" t="n" s="324">
-        <v>1.257894482360499</v>
+        <v>1.2605695472698792</v>
       </c>
       <c r="L39" t="n" s="325">
-        <v>0.12685064616009878</v>
+        <v>0.4019674475808749</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n" s="314">
-        <v>10216.0</v>
+        <v>10214.0</v>
       </c>
       <c r="B40" t="n" s="315">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="C40" t="n" s="316">
+        <v>1.0</v>
+      </c>
+      <c r="D40" t="n" s="317">
+        <v>1.0</v>
+      </c>
+      <c r="E40" t="n" s="318">
         <v>2.0</v>
       </c>
-      <c r="D40" t="n" s="317">
-        <v>1.0</v>
-      </c>
-      <c r="E40" t="n" s="318">
-        <v>1.0</v>
-      </c>
       <c r="F40" t="n" s="319">
-        <v>10216.0</v>
+        <v>10214.0</v>
       </c>
       <c r="G40" t="n" s="320">
         <v>4.0</v>
       </c>
       <c r="H40" t="n" s="321">
-        <v>5.0</v>
+        <v>8.0</v>
       </c>
       <c r="I40" t="n" s="322">
-        <v>20.0</v>
+        <v>28.0</v>
       </c>
       <c r="J40" t="n" s="323">
-        <v>0.12664853824431546</v>
+        <v>0.6718872303707633</v>
       </c>
       <c r="K40" t="n" s="324">
-        <v>0.7110668526850701</v>
+        <v>0.49173153224346955</v>
       </c>
       <c r="L40" t="n" s="325">
-        <v>0.12685064616009878</v>
+        <v>0.4019674475808749</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n" s="314">
-        <v>10217.0</v>
+        <v>10215.0</v>
       </c>
       <c r="B41" t="n" s="315">
         <v>1.0</v>
@@ -9162,7 +9436,7 @@
         <v>1.0</v>
       </c>
       <c r="F41" t="n" s="319">
-        <v>10217.0</v>
+        <v>10215.0</v>
       </c>
       <c r="G41" t="n" s="320">
         <v>4.0</v>
@@ -9171,59 +9445,59 @@
         <v>4.0</v>
       </c>
       <c r="I41" t="n" s="322">
-        <v>20.0</v>
+        <v>28.0</v>
       </c>
       <c r="J41" t="n" s="323">
-        <v>-0.7934661253532934</v>
+        <v>-0.9273830937122673</v>
       </c>
       <c r="K41" t="n" s="324">
-        <v>1.257894482360499</v>
+        <v>1.2605695472698792</v>
       </c>
       <c r="L41" t="n" s="325">
-        <v>0.12685064616009878</v>
+        <v>0.4019674475808749</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n" s="314">
-        <v>10218.0</v>
+        <v>10216.0</v>
       </c>
       <c r="B42" t="n" s="315">
+        <v>1.0</v>
+      </c>
+      <c r="C42" t="n" s="316">
+        <v>2.0</v>
+      </c>
+      <c r="D42" t="n" s="317">
+        <v>1.0</v>
+      </c>
+      <c r="E42" t="n" s="318">
+        <v>1.0</v>
+      </c>
+      <c r="F42" t="n" s="319">
+        <v>10216.0</v>
+      </c>
+      <c r="G42" t="n" s="320">
+        <v>4.0</v>
+      </c>
+      <c r="H42" t="n" s="321">
         <v>5.0</v>
       </c>
-      <c r="C42" t="n" s="316">
-        <v>3.0</v>
-      </c>
-      <c r="D42" t="n" s="317">
-        <v>4.0</v>
-      </c>
-      <c r="E42" t="n" s="318">
-        <v>2.0</v>
-      </c>
-      <c r="F42" t="n" s="319">
-        <v>10218.0</v>
-      </c>
-      <c r="G42" t="n" s="320">
-        <v>4.0</v>
-      </c>
-      <c r="H42" t="n" s="321">
-        <v>14.0</v>
-      </c>
       <c r="I42" t="n" s="322">
-        <v>20.0</v>
+        <v>28.0</v>
       </c>
       <c r="J42" t="n" s="323">
-        <v>1.6545521389460465</v>
+        <v>-0.021234412008076044</v>
       </c>
       <c r="K42" t="n" s="324">
-        <v>0.3804400490749384</v>
+        <v>0.7252279491839947</v>
       </c>
       <c r="L42" t="n" s="325">
-        <v>0.12685064616009878</v>
+        <v>0.4019674475808749</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n" s="314">
-        <v>10219.0</v>
+        <v>10217.0</v>
       </c>
       <c r="B43" t="n" s="315">
         <v>1.0</v>
@@ -9238,7 +9512,7 @@
         <v>1.0</v>
       </c>
       <c r="F43" t="n" s="319">
-        <v>10219.0</v>
+        <v>10217.0</v>
       </c>
       <c r="G43" t="n" s="320">
         <v>4.0</v>
@@ -9247,59 +9521,59 @@
         <v>4.0</v>
       </c>
       <c r="I43" t="n" s="322">
-        <v>20.0</v>
+        <v>28.0</v>
       </c>
       <c r="J43" t="n" s="323">
-        <v>-0.7934661253532934</v>
+        <v>-0.9273830937122673</v>
       </c>
       <c r="K43" t="n" s="324">
-        <v>1.257894482360499</v>
+        <v>1.2605695472698792</v>
       </c>
       <c r="L43" t="n" s="325">
-        <v>0.12685064616009878</v>
+        <v>0.4019674475808749</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n" s="314">
-        <v>10220.0</v>
+        <v>10218.0</v>
       </c>
       <c r="B44" t="n" s="315">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="C44" t="n" s="316">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="D44" t="n" s="317">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="E44" t="n" s="318">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="F44" t="n" s="319">
-        <v>10220.0</v>
+        <v>10218.0</v>
       </c>
       <c r="G44" t="n" s="320">
         <v>4.0</v>
       </c>
       <c r="H44" t="n" s="321">
-        <v>4.0</v>
+        <v>14.0</v>
       </c>
       <c r="I44" t="n" s="322">
-        <v>20.0</v>
+        <v>28.0</v>
       </c>
       <c r="J44" t="n" s="323">
-        <v>-0.7934661253532934</v>
+        <v>1.73469921340696</v>
       </c>
       <c r="K44" t="n" s="324">
-        <v>1.257894482360499</v>
+        <v>0.3557744941254096</v>
       </c>
       <c r="L44" t="n" s="325">
-        <v>0.12685064616009878</v>
+        <v>0.4019674475808749</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n" s="314">
-        <v>10221.0</v>
+        <v>10219.0</v>
       </c>
       <c r="B45" t="n" s="315">
         <v>1.0</v>
@@ -9314,7 +9588,7 @@
         <v>1.0</v>
       </c>
       <c r="F45" t="n" s="319">
-        <v>10221.0</v>
+        <v>10219.0</v>
       </c>
       <c r="G45" t="n" s="320">
         <v>4.0</v>
@@ -9323,21 +9597,21 @@
         <v>4.0</v>
       </c>
       <c r="I45" t="n" s="322">
-        <v>20.0</v>
+        <v>28.0</v>
       </c>
       <c r="J45" t="n" s="323">
-        <v>-0.7934661253532934</v>
+        <v>-0.9273830937122673</v>
       </c>
       <c r="K45" t="n" s="324">
-        <v>1.257894482360499</v>
+        <v>1.2605695472698792</v>
       </c>
       <c r="L45" t="n" s="325">
-        <v>0.12685064616009878</v>
+        <v>0.4019674475808749</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n" s="314">
-        <v>10223.0</v>
+        <v>10220.0</v>
       </c>
       <c r="B46" t="n" s="315">
         <v>1.0</v>
@@ -9346,36 +9620,36 @@
         <v>1.0</v>
       </c>
       <c r="D46" t="n" s="317">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="E46" t="n" s="318">
         <v>1.0</v>
       </c>
       <c r="F46" t="n" s="319">
-        <v>10223.0</v>
+        <v>10220.0</v>
       </c>
       <c r="G46" t="n" s="320">
         <v>4.0</v>
       </c>
       <c r="H46" t="n" s="321">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="I46" t="n" s="322">
-        <v>20.0</v>
+        <v>28.0</v>
       </c>
       <c r="J46" t="n" s="323">
-        <v>0.12664853824431546</v>
+        <v>-0.9273830937122673</v>
       </c>
       <c r="K46" t="n" s="324">
-        <v>0.7110668526850701</v>
+        <v>1.2605695472698792</v>
       </c>
       <c r="L46" t="n" s="325">
-        <v>0.12685064616009878</v>
+        <v>0.4019674475808749</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n" s="314">
-        <v>10224.0</v>
+        <v>10221.0</v>
       </c>
       <c r="B47" t="n" s="315">
         <v>1.0</v>
@@ -9387,74 +9661,74 @@
         <v>1.0</v>
       </c>
       <c r="E47" t="n" s="318">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="F47" t="n" s="319">
-        <v>10224.0</v>
+        <v>10221.0</v>
       </c>
       <c r="G47" t="n" s="320">
         <v>4.0</v>
       </c>
       <c r="H47" t="n" s="321">
-        <v>6.0</v>
+        <v>4.0</v>
       </c>
       <c r="I47" t="n" s="322">
-        <v>20.0</v>
+        <v>28.0</v>
       </c>
       <c r="J47" t="n" s="323">
-        <v>0.5179254768634486</v>
+        <v>-0.9273830937122673</v>
       </c>
       <c r="K47" t="n" s="324">
-        <v>0.5481437876895058</v>
+        <v>1.2605695472698792</v>
       </c>
       <c r="L47" t="n" s="325">
-        <v>0.12685064616009878</v>
+        <v>0.4019674475808749</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n" s="314">
-        <v>10226.0</v>
+        <v>10222.0</v>
       </c>
       <c r="B48" t="n" s="315">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="C48" t="n" s="316">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="D48" t="n" s="317">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="E48" t="n" s="318">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="F48" t="n" s="319">
-        <v>10226.0</v>
+        <v>10222.0</v>
       </c>
       <c r="G48" t="n" s="320">
         <v>4.0</v>
       </c>
       <c r="H48" t="n" s="321">
-        <v>6.0</v>
+        <v>15.0</v>
       </c>
       <c r="I48" t="n" s="322">
-        <v>20.0</v>
+        <v>28.0</v>
       </c>
       <c r="J48" t="n" s="323">
-        <v>0.5179254768634486</v>
+        <v>1.8541458301785791</v>
       </c>
       <c r="K48" t="n" s="324">
-        <v>0.5481437876895058</v>
+        <v>0.34975003451754605</v>
       </c>
       <c r="L48" t="n" s="325">
-        <v>0.12685064616009878</v>
+        <v>0.4019674475808749</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n" s="314">
-        <v>10228.0</v>
+        <v>10223.0</v>
       </c>
       <c r="B49" t="n" s="315">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="C49" t="n" s="316">
         <v>1.0</v>
@@ -9463,71 +9737,71 @@
         <v>2.0</v>
       </c>
       <c r="E49" t="n" s="318">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="F49" t="n" s="319">
-        <v>10228.0</v>
+        <v>10223.0</v>
       </c>
       <c r="G49" t="n" s="320">
         <v>4.0</v>
       </c>
       <c r="H49" t="n" s="321">
-        <v>9.0</v>
+        <v>5.0</v>
       </c>
       <c r="I49" t="n" s="322">
-        <v>20.0</v>
+        <v>28.0</v>
       </c>
       <c r="J49" t="n" s="323">
-        <v>1.0852985770494805</v>
+        <v>-0.021234412008076044</v>
       </c>
       <c r="K49" t="n" s="324">
-        <v>0.38807589677787446</v>
+        <v>0.7252279491839947</v>
       </c>
       <c r="L49" t="n" s="325">
-        <v>0.12685064616009878</v>
+        <v>0.4019674475808749</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n" s="314">
-        <v>10230.0</v>
+        <v>10224.0</v>
       </c>
       <c r="B50" t="n" s="315">
-        <v>7.0</v>
+        <v>1.0</v>
       </c>
       <c r="C50" t="n" s="316">
         <v>1.0</v>
       </c>
       <c r="D50" t="n" s="317">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="E50" t="n" s="318">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="F50" t="n" s="319">
-        <v>10230.0</v>
+        <v>10224.0</v>
       </c>
       <c r="G50" t="n" s="320">
         <v>4.0</v>
       </c>
       <c r="H50" t="n" s="321">
-        <v>13.0</v>
+        <v>6.0</v>
       </c>
       <c r="I50" t="n" s="322">
-        <v>20.0</v>
+        <v>28.0</v>
       </c>
       <c r="J50" t="n" s="323">
-        <v>1.7301209578792207</v>
+        <v>0.3669814308091853</v>
       </c>
       <c r="K50" t="n" s="324">
-        <v>0.3922160775816918</v>
+        <v>0.5756842264050488</v>
       </c>
       <c r="L50" t="n" s="325">
-        <v>0.12685064616009878</v>
+        <v>0.4019674475808749</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n" s="314">
-        <v>10231.0</v>
+        <v>10226.0</v>
       </c>
       <c r="B51" t="n" s="315">
         <v>1.0</v>
@@ -9539,147 +9813,147 @@
         <v>1.0</v>
       </c>
       <c r="E51" t="n" s="318">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="F51" t="n" s="319">
-        <v>10231.0</v>
+        <v>10226.0</v>
       </c>
       <c r="G51" t="n" s="320">
         <v>4.0</v>
       </c>
       <c r="H51" t="n" s="321">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="I51" t="n" s="322">
-        <v>20.0</v>
+        <v>28.0</v>
       </c>
       <c r="J51" t="n" s="323">
-        <v>-0.7934661253532934</v>
+        <v>0.3669814308091853</v>
       </c>
       <c r="K51" t="n" s="324">
-        <v>1.257894482360499</v>
+        <v>0.5756842264050488</v>
       </c>
       <c r="L51" t="n" s="325">
-        <v>0.12685064616009878</v>
+        <v>0.4019674475808749</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n" s="314">
-        <v>10232.0</v>
+        <v>10227.0</v>
       </c>
       <c r="B52" t="n" s="315">
-        <v>7.0</v>
+        <v>5.0</v>
       </c>
       <c r="C52" t="n" s="316">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="D52" t="n" s="317">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="E52" t="n" s="318">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="F52" t="n" s="319">
-        <v>10232.0</v>
+        <v>10227.0</v>
       </c>
       <c r="G52" t="n" s="320">
         <v>4.0</v>
       </c>
       <c r="H52" t="n" s="321">
-        <v>12.0</v>
+        <v>17.0</v>
       </c>
       <c r="I52" t="n" s="322">
-        <v>20.0</v>
+        <v>28.0</v>
       </c>
       <c r="J52" t="n" s="323">
-        <v>1.4251909840988968</v>
+        <v>1.7301458797025895</v>
       </c>
       <c r="K52" t="n" s="324">
-        <v>0.3613676347397503</v>
+        <v>0.3560409953989959</v>
       </c>
       <c r="L52" t="n" s="325">
-        <v>0.12685064616009878</v>
+        <v>0.4019674475808749</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n" s="314">
-        <v>10233.0</v>
+        <v>10228.0</v>
       </c>
       <c r="B53" t="n" s="315">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="C53" t="n" s="316">
         <v>1.0</v>
       </c>
       <c r="D53" t="n" s="317">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="E53" t="n" s="318">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="F53" t="n" s="319">
-        <v>10233.0</v>
+        <v>10228.0</v>
       </c>
       <c r="G53" t="n" s="320">
         <v>4.0</v>
       </c>
       <c r="H53" t="n" s="321">
-        <v>5.0</v>
+        <v>9.0</v>
       </c>
       <c r="I53" t="n" s="322">
-        <v>20.0</v>
+        <v>28.0</v>
       </c>
       <c r="J53" t="n" s="323">
-        <v>0.12664853824431546</v>
+        <v>0.843527792415395</v>
       </c>
       <c r="K53" t="n" s="324">
-        <v>0.7110668526850701</v>
+        <v>0.4560209056987751</v>
       </c>
       <c r="L53" t="n" s="325">
-        <v>0.12685064616009878</v>
+        <v>0.4019674475808749</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n" s="314">
-        <v>10234.0</v>
+        <v>10230.0</v>
       </c>
       <c r="B54" t="n" s="315">
-        <v>1.0</v>
+        <v>7.0</v>
       </c>
       <c r="C54" t="n" s="316">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="D54" t="n" s="317">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="E54" t="n" s="318">
         <v>1.0</v>
       </c>
       <c r="F54" t="n" s="319">
-        <v>10234.0</v>
+        <v>10230.0</v>
       </c>
       <c r="G54" t="n" s="320">
         <v>4.0</v>
       </c>
       <c r="H54" t="n" s="321">
-        <v>5.0</v>
+        <v>13.0</v>
       </c>
       <c r="I54" t="n" s="322">
-        <v>20.0</v>
+        <v>28.0</v>
       </c>
       <c r="J54" t="n" s="323">
-        <v>0.12664853824431546</v>
+        <v>1.6098419129496848</v>
       </c>
       <c r="K54" t="n" s="324">
-        <v>0.7110668526850701</v>
+        <v>0.3638564615711556</v>
       </c>
       <c r="L54" t="n" s="325">
-        <v>0.12685064616009878</v>
+        <v>0.4019674475808749</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n" s="314">
-        <v>10237.0</v>
+        <v>10231.0</v>
       </c>
       <c r="B55" t="n" s="315">
         <v>1.0</v>
@@ -9694,7 +9968,7 @@
         <v>1.0</v>
       </c>
       <c r="F55" t="n" s="319">
-        <v>10237.0</v>
+        <v>10231.0</v>
       </c>
       <c r="G55" t="n" s="320">
         <v>4.0</v>
@@ -9703,54 +9977,244 @@
         <v>4.0</v>
       </c>
       <c r="I55" t="n" s="322">
-        <v>20.0</v>
+        <v>28.0</v>
       </c>
       <c r="J55" t="n" s="323">
-        <v>-0.7934661253532934</v>
+        <v>-0.9273830937122673</v>
       </c>
       <c r="K55" t="n" s="324">
-        <v>1.257894482360499</v>
+        <v>1.2605695472698792</v>
       </c>
       <c r="L55" t="n" s="325">
-        <v>0.12685064616009878</v>
+        <v>0.4019674475808749</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n" s="314">
+        <v>10232.0</v>
+      </c>
+      <c r="B56" t="n" s="315">
+        <v>7.0</v>
+      </c>
+      <c r="C56" t="n" s="316">
+        <v>1.0</v>
+      </c>
+      <c r="D56" t="n" s="317">
+        <v>2.0</v>
+      </c>
+      <c r="E56" t="n" s="318">
+        <v>2.0</v>
+      </c>
+      <c r="F56" t="n" s="319">
+        <v>10232.0</v>
+      </c>
+      <c r="G56" t="n" s="320">
+        <v>4.0</v>
+      </c>
+      <c r="H56" t="n" s="321">
+        <v>12.0</v>
+      </c>
+      <c r="I56" t="n" s="322">
+        <v>28.0</v>
+      </c>
+      <c r="J56" t="n" s="323">
+        <v>1.4781430637813235</v>
+      </c>
+      <c r="K56" t="n" s="324">
+        <v>0.37420860648399534</v>
+      </c>
+      <c r="L56" t="n" s="325">
+        <v>0.4019674475808749</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n" s="314">
+        <v>10233.0</v>
+      </c>
+      <c r="B57" t="n" s="315">
+        <v>1.0</v>
+      </c>
+      <c r="C57" t="n" s="316">
+        <v>1.0</v>
+      </c>
+      <c r="D57" t="n" s="317">
+        <v>1.0</v>
+      </c>
+      <c r="E57" t="n" s="318">
+        <v>2.0</v>
+      </c>
+      <c r="F57" t="n" s="319">
+        <v>10233.0</v>
+      </c>
+      <c r="G57" t="n" s="320">
+        <v>4.0</v>
+      </c>
+      <c r="H57" t="n" s="321">
+        <v>5.0</v>
+      </c>
+      <c r="I57" t="n" s="322">
+        <v>28.0</v>
+      </c>
+      <c r="J57" t="n" s="323">
+        <v>-0.021234412008076044</v>
+      </c>
+      <c r="K57" t="n" s="324">
+        <v>0.7252279491839947</v>
+      </c>
+      <c r="L57" t="n" s="325">
+        <v>0.4019674475808749</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n" s="314">
+        <v>10234.0</v>
+      </c>
+      <c r="B58" t="n" s="315">
+        <v>1.0</v>
+      </c>
+      <c r="C58" t="n" s="316">
+        <v>2.0</v>
+      </c>
+      <c r="D58" t="n" s="317">
+        <v>1.0</v>
+      </c>
+      <c r="E58" t="n" s="318">
+        <v>1.0</v>
+      </c>
+      <c r="F58" t="n" s="319">
+        <v>10234.0</v>
+      </c>
+      <c r="G58" t="n" s="320">
+        <v>4.0</v>
+      </c>
+      <c r="H58" t="n" s="321">
+        <v>5.0</v>
+      </c>
+      <c r="I58" t="n" s="322">
+        <v>28.0</v>
+      </c>
+      <c r="J58" t="n" s="323">
+        <v>-0.021234412008076044</v>
+      </c>
+      <c r="K58" t="n" s="324">
+        <v>0.7252279491839947</v>
+      </c>
+      <c r="L58" t="n" s="325">
+        <v>0.4019674475808749</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n" s="314">
+        <v>10237.0</v>
+      </c>
+      <c r="B59" t="n" s="315">
+        <v>1.0</v>
+      </c>
+      <c r="C59" t="n" s="316">
+        <v>1.0</v>
+      </c>
+      <c r="D59" t="n" s="317">
+        <v>1.0</v>
+      </c>
+      <c r="E59" t="n" s="318">
+        <v>1.0</v>
+      </c>
+      <c r="F59" t="n" s="319">
+        <v>10237.0</v>
+      </c>
+      <c r="G59" t="n" s="320">
+        <v>4.0</v>
+      </c>
+      <c r="H59" t="n" s="321">
+        <v>4.0</v>
+      </c>
+      <c r="I59" t="n" s="322">
+        <v>28.0</v>
+      </c>
+      <c r="J59" t="n" s="323">
+        <v>-0.9273830937122673</v>
+      </c>
+      <c r="K59" t="n" s="324">
+        <v>1.2605695472698792</v>
+      </c>
+      <c r="L59" t="n" s="325">
+        <v>0.4019674475808749</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n" s="314">
+        <v>10238.0</v>
+      </c>
+      <c r="B60" t="n" s="315">
+        <v>4.0</v>
+      </c>
+      <c r="C60" t="n" s="316">
+        <v>4.0</v>
+      </c>
+      <c r="D60" t="n" s="317">
+        <v>4.0</v>
+      </c>
+      <c r="E60" t="n" s="318">
+        <v>5.0</v>
+      </c>
+      <c r="F60" t="n" s="319">
+        <v>10238.0</v>
+      </c>
+      <c r="G60" t="n" s="320">
+        <v>4.0</v>
+      </c>
+      <c r="H60" t="n" s="321">
+        <v>17.0</v>
+      </c>
+      <c r="I60" t="n" s="322">
+        <v>28.0</v>
+      </c>
+      <c r="J60" t="n" s="323">
+        <v>1.7301458797025895</v>
+      </c>
+      <c r="K60" t="n" s="324">
+        <v>0.3560409953989959</v>
+      </c>
+      <c r="L60" t="n" s="325">
+        <v>0.4019674475808749</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n" s="314">
         <v>10240.0</v>
       </c>
-      <c r="B56" t="n" s="315">
-        <v>1.0</v>
-      </c>
-      <c r="C56" t="n" s="316">
-        <v>1.0</v>
-      </c>
-      <c r="D56" t="n" s="317">
-        <v>1.0</v>
-      </c>
-      <c r="E56" t="n" s="318">
-        <v>1.0</v>
-      </c>
-      <c r="F56" t="n" s="319">
+      <c r="B61" t="n" s="315">
+        <v>1.0</v>
+      </c>
+      <c r="C61" t="n" s="316">
+        <v>1.0</v>
+      </c>
+      <c r="D61" t="n" s="317">
+        <v>1.0</v>
+      </c>
+      <c r="E61" t="n" s="318">
+        <v>1.0</v>
+      </c>
+      <c r="F61" t="n" s="319">
         <v>10240.0</v>
       </c>
-      <c r="G56" t="n" s="320">
-        <v>4.0</v>
-      </c>
-      <c r="H56" t="n" s="321">
-        <v>4.0</v>
-      </c>
-      <c r="I56" t="n" s="322">
-        <v>20.0</v>
-      </c>
-      <c r="J56" t="n" s="323">
-        <v>-0.7934661253532934</v>
-      </c>
-      <c r="K56" t="n" s="324">
-        <v>1.257894482360499</v>
-      </c>
-      <c r="L56" t="n" s="325">
-        <v>0.12685064616009878</v>
+      <c r="G61" t="n" s="320">
+        <v>4.0</v>
+      </c>
+      <c r="H61" t="n" s="321">
+        <v>4.0</v>
+      </c>
+      <c r="I61" t="n" s="322">
+        <v>28.0</v>
+      </c>
+      <c r="J61" t="n" s="323">
+        <v>-0.9273830937122673</v>
+      </c>
+      <c r="K61" t="n" s="324">
+        <v>1.2605695472698792</v>
+      </c>
+      <c r="L61" t="n" s="325">
+        <v>0.4019674475808749</v>
       </c>
     </row>
   </sheetData>
